--- a/Progression/Progression_Informatique_2014_2015.xlsx
+++ b/Progression/Progression_Informatique_2014_2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>01/09/2014
 au
@@ -243,10 +243,31 @@
 Présentation du réseau du lycée</t>
   </si>
   <si>
-    <t>Découverte de Python et de l'algorithmique</t>
-  </si>
-  <si>
     <t>Architecure des ordinateurs</t>
+  </si>
+  <si>
+    <t>Inondation</t>
+  </si>
+  <si>
+    <t>GH Absent</t>
+  </si>
+  <si>
+    <t>Découverte de Python - Listes</t>
+  </si>
+  <si>
+    <t>Systèmes d'exploitations</t>
+  </si>
+  <si>
+    <t>Représenation des entiers</t>
+  </si>
+  <si>
+    <t>Représentation des entiers - TD</t>
+  </si>
+  <si>
+    <t>Découverte de Python : Types de variables, structures algorithmiques</t>
+  </si>
+  <si>
+    <t>Découverte de Python : Types de variables, structures algorithmiques (suite)</t>
   </si>
 </sst>
 </file>
@@ -292,7 +313,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -696,6 +717,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,7 +1077,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1082,8 +1109,8 @@
         <v>47</v>
       </c>
       <c r="C2" s="21"/>
-      <c r="D2" s="21" t="s">
-        <v>48</v>
+      <c r="D2" s="33" t="s">
+        <v>55</v>
       </c>
       <c r="E2" s="22"/>
     </row>
@@ -1092,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="32"/>
@@ -1102,27 +1129,39 @@
       <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="30" t="s">
+        <v>52</v>
+      </c>
       <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="D4" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="36">
       <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="D5" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="36">
       <c r="A6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="30" t="s">
+        <v>54</v>
+      </c>
       <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="D6" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="36">
@@ -1131,7 +1170,9 @@
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="D7" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="36.75" thickBot="1">

--- a/Progression/Progression_Informatique_2014_2015.xlsx
+++ b/Progression/Progression_Informatique_2014_2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>01/09/2014
 au
@@ -268,6 +268,20 @@
   </si>
   <si>
     <t>Découverte de Python : Types de variables, structures algorithmiques (suite)</t>
+  </si>
+  <si>
+    <t>Représentation des réels</t>
+  </si>
+  <si>
+    <t>Evaluations</t>
+  </si>
+  <si>
+    <t>QCM 1</t>
+  </si>
+  <si>
+    <t>QCM 2
+DS : Représentation des nombres
+Analyse des algorithmes</t>
   </si>
 </sst>
 </file>
@@ -643,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -721,6 +735,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1074,19 +1092,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="40.7109375" customWidth="1"/>
+    <col min="2" max="6" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="23" t="s">
         <v>44</v>
@@ -1100,8 +1118,11 @@
       <c r="E1" s="25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="45">
+      <c r="F1" s="35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1135,7 @@
       </c>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" ht="36">
+    <row r="3" spans="1:6" ht="36">
       <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
@@ -1125,7 +1146,7 @@
       <c r="D3" s="32"/>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="1:5" ht="36">
+    <row r="4" spans="1:6" ht="36">
       <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
@@ -1138,7 +1159,7 @@
       </c>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="1:5" ht="36">
+    <row r="5" spans="1:6" ht="36">
       <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
@@ -1151,7 +1172,7 @@
       </c>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="1:5" ht="36">
+    <row r="6" spans="1:6" ht="36">
       <c r="A6" s="27" t="s">
         <v>4</v>
       </c>
@@ -1163,51 +1184,61 @@
         <v>56</v>
       </c>
       <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:5" ht="36">
+      <c r="F6" s="35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45">
       <c r="A7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="30" t="s">
+        <v>57</v>
+      </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:5" ht="36.75" thickBot="1">
+      <c r="F7" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="36.75" thickBot="1">
       <c r="A8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="31"/>
+      <c r="B8" s="31" t="s">
+        <v>57</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="10" spans="1:5" ht="36">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="10" spans="1:6" ht="36">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="36.75" thickBot="1">
+    <row r="11" spans="1:6" ht="36.75" thickBot="1">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="13" spans="1:5" ht="36">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:6" ht="36">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="36.75" thickBot="1">
+    <row r="14" spans="1:6" ht="36.75" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="16" spans="1:5" ht="36">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="16" spans="1:6" ht="36">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>

--- a/Progression/Progression_Informatique_2014_2015.xlsx
+++ b/Progression/Progression_Informatique_2014_2015.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="11670" windowHeight="7860"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Progression_2014_2015" sheetId="1" r:id="rId1"/>
+    <sheet name="Compétences" sheetId="2" r:id="rId2"/>
+    <sheet name="Programme" sheetId="4" r:id="rId3"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="225">
   <si>
     <t>01/09/2014
 au
@@ -225,10 +226,6 @@
 28/06/2015</t>
   </si>
   <si>
-    <t>29/06/2015
-au 05/07/2015</t>
-  </si>
-  <si>
     <t>Cours</t>
   </si>
   <si>
@@ -252,24 +249,12 @@
     <t>GH Absent</t>
   </si>
   <si>
-    <t>Découverte de Python - Listes</t>
-  </si>
-  <si>
-    <t>Systèmes d'exploitations</t>
-  </si>
-  <si>
     <t>Représenation des entiers</t>
   </si>
   <si>
     <t>Représentation des entiers - TD</t>
   </si>
   <si>
-    <t>Découverte de Python : Types de variables, structures algorithmiques</t>
-  </si>
-  <si>
-    <t>Découverte de Python : Types de variables, structures algorithmiques (suite)</t>
-  </si>
-  <si>
     <t>Représentation des réels</t>
   </si>
   <si>
@@ -279,16 +264,843 @@
     <t>QCM 1</t>
   </si>
   <si>
-    <t>QCM 2
-DS : Représentation des nombres
-Analyse des algorithmes</t>
+    <t xml:space="preserve">Synthèse des premières séances de TP : Introduction à la programmation. </t>
+  </si>
+  <si>
+    <t>QCM 3 - Listes</t>
+  </si>
+  <si>
+    <t>Capacités</t>
+  </si>
+  <si>
+    <t>CI 1 - Découverte de l'informatique</t>
+  </si>
+  <si>
+    <t>Déc - C1</t>
+  </si>
+  <si>
+    <t>Manipuler en mode « utilisateur » les principales fonctions d’un système d’exploitation et d’un environnement de développement</t>
+  </si>
+  <si>
+    <t>Se familiariser aux principaux composants d’une machine numérique telle que l’ordinateur personnel, une tablette, etc : sources d’énergie, mémoire vive, mémoire de masse, unité centrale, périphériques d’entrée-sortie, ports de communication avec d’autres composants numériques</t>
+  </si>
+  <si>
+    <t>Se familiariser à la manipulation d’un système d’exploitation (gestion des ressources, essentiellement : organisation des fichiers, arborescence, droits d’accès, de modification, entrées/sorties)</t>
+  </si>
+  <si>
+    <t>Se familiariser à la manipulation d’un environnement de développement</t>
+  </si>
+  <si>
+    <t>Déc - C2</t>
+  </si>
+  <si>
+    <t>Appréhender les limitations intrinsèques à la manipulation informatique des nombres</t>
+  </si>
+  <si>
+    <t>Déc - C3</t>
+  </si>
+  <si>
+    <t>Initier un sens critique au sujet de la qualité et de la précision des résultats de calculs numériques sur ordinateur</t>
+  </si>
+  <si>
+    <t>On introduit ou rappelle brièvement le principe de la représentation binaire ainsi que ses limites.</t>
+  </si>
+  <si>
+    <t>Principe de la représentation des nombres entiers en mémoire</t>
+  </si>
+  <si>
+    <t>On se limite à la définition de l’écriture en virgule flottante normalisée et on explique le codage d’un nombre réel en général sans entrer dans les cas particuliers comme les
+non-nombres « not a number » ou les infinis.</t>
+  </si>
+  <si>
+    <t>Principe de la représentation des nombres réels en mémoire</t>
+  </si>
+  <si>
+    <t>On illustre, sur des exemples simples, pouvant être illustrés au moyen d’une calculatrice, les phénomènes de dépassement de capacité (ou « overflow ») de séquences de calculs conduisant à des résultats faux et erreurs d’arrondis. On illustre aussi le problème de la comparaison à zéro, par exemple dans une équation du second degré.</t>
+  </si>
+  <si>
+    <t>CI 2 - Algorithmique et programmation</t>
+  </si>
+  <si>
+    <t>Alg - C1</t>
+  </si>
+  <si>
+    <t>comprendre un algorithme et expliquer ce qu’il fait</t>
+  </si>
+  <si>
+    <t>Alg - C2</t>
+  </si>
+  <si>
+    <t>modifier un algorithme existant pour obtenir un résultat différent</t>
+  </si>
+  <si>
+    <t>Alg - C3</t>
+  </si>
+  <si>
+    <t>concevoir un algorithme répondant à un problème précisément posé</t>
+  </si>
+  <si>
+    <t>Alg - C4</t>
+  </si>
+  <si>
+    <t>expliquer le fonctionnement d’un algorithme</t>
+  </si>
+  <si>
+    <t>Alg - C5</t>
+  </si>
+  <si>
+    <t>écrire des instructions conditionnelles avec alternatives, éventuellement imbriquées</t>
+  </si>
+  <si>
+    <t>Alg - C6</t>
+  </si>
+  <si>
+    <t>justifier qu’une itération (ou boucle) produit l’effet attendu au moyen d’un invariant</t>
+  </si>
+  <si>
+    <t>Alg - C7</t>
+  </si>
+  <si>
+    <t>démontrer qu’une boucle se termine effectivement,</t>
+  </si>
+  <si>
+    <t>Alg - C8</t>
+  </si>
+  <si>
+    <t>s’interroger sur l’efficacité algorithmique temporelle d’un algorithme</t>
+  </si>
+  <si>
+    <t>Recherche dans une liste, recherche du maximum dans une liste de nombres, calcul de la moyenne et de la variance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche par dichotomie dans un tableau trié.
+Recherche par dichotomie du zéro d’une fonction continue et monotone. </t>
+  </si>
+  <si>
+    <t>Méthodes des rectangles et des trapèzes pour le calcul approché d’une intégrale sur un segment.</t>
+  </si>
+  <si>
+    <t>Recherche d’un mot dans une chaîne de caractères.</t>
+  </si>
+  <si>
+    <t>On se limite ici à l’algorithme « naïf », en estimant sa complexité.</t>
+  </si>
+  <si>
+    <t>Alg - C9</t>
+  </si>
+  <si>
+    <t>choisir un type de données en fonction d’un problème à résoudre,</t>
+  </si>
+  <si>
+    <t>Alg - C10</t>
+  </si>
+  <si>
+    <t>concevoir l’en-tête (ou la spécification) d’une fonction, puis la fonction elle-même,</t>
+  </si>
+  <si>
+    <t>Alg - C11</t>
+  </si>
+  <si>
+    <t>traduire un algorithme dans un langage de programmation,</t>
+  </si>
+  <si>
+    <t>Alg - C12</t>
+  </si>
+  <si>
+    <t>gérer efficacement un ensemble de fichiers correspondant à des versions successives d’un fichier source,</t>
+  </si>
+  <si>
+    <t>Alg - C13</t>
+  </si>
+  <si>
+    <t>rechercher une information au sein d’une documentation en ligne, analyser des exemples fournis dans cette documentation,</t>
+  </si>
+  <si>
+    <t>Alg - C14</t>
+  </si>
+  <si>
+    <t>documenter une fonction, un programme plus complexe.</t>
+  </si>
+  <si>
+    <t>Variables : notion de type et de valeur d’une variable, types simples.</t>
+  </si>
+  <si>
+    <t>Les types simples présentés sont les entiers, flottants, booléens et chaînes de caractères.</t>
+  </si>
+  <si>
+    <t>Expressions et instructions simples : affectation, opérateurs usuels, distinction entre expression et instruction</t>
+  </si>
+  <si>
+    <t>Les expressions considérées sont à valeurs numériques, booléennes ou de type chaîne de caractères.</t>
+  </si>
+  <si>
+    <t>Instructions conditionnelles : expressions booléennes et opérateurs logiques simples, instruction if. Variantes avec alternative (else).</t>
+  </si>
+  <si>
+    <t>Les étudiants devront être capables de structurer et comprendre plusieurs niveaux d’alternatives implantées par des instructions conditionnelles imbriquées.</t>
+  </si>
+  <si>
+    <t>Instructions itératives : boucles for, boucles conditionnelles while.</t>
+  </si>
+  <si>
+    <t>Les sorties de boucle (instruction break) peuvent être présentées et se justifient uniquement lorsqu’elles contribuent à simplifier notablement la programmation sans réelle perte de lisibilité des conditions d’arrêt.</t>
+  </si>
+  <si>
+    <t>Fonctions : notion de fonction (au sens informatique), définition dans le langage utilisé, paramètres (ou arguments) et résultats, portée des variables.</t>
+  </si>
+  <si>
+    <t>On distingue les variables locales des variables globales et on décourage l’utilisation des variables globales autant que possible. La récursivité sera présentée plus tard.</t>
+  </si>
+  <si>
+    <t>Manipulation de quelques structures de données : chaînes de caractères (création, accès à un caractère, concaténation), listes (création, ajout d’un élément, suppression
+d’un élément, accès à un élément, extraction d’une partie de liste), tableaux à une ou plusieurs dimensions.</t>
+  </si>
+  <si>
+    <t>On met en évidence le fait que certaines opérations d’apparence simple cachent un important travail pour le processeur.
+On met à profit la structure de tableau d’entiers à deux dimensions pour introduire la notion d’image ponctuelle (« bitmap »).
+Les algorithmes de traitement d’image seront abordés plus tard.</t>
+  </si>
+  <si>
+    <t>Fichiers : notion de chemin d’accès, lecture et écriture de données numériques ou de type chaîne de caractères depuis ou vers un fichier.</t>
+  </si>
+  <si>
+    <t>On encourage l’utilisation de fichiers en tant que supports de données ou de résultats avant divers traitements, par exemple graphiques. L’utilisation de bases de données sera étudiée plus tard.</t>
+  </si>
+  <si>
+    <t>CI 3 - Ingénierie numérique et simulation</t>
+  </si>
+  <si>
+    <t>Ing - C1</t>
+  </si>
+  <si>
+    <t>réaliser un programme complet structuré allant de la prise en compte de données expérimentales à la mise en forme des résultats permettant de résoudre un problème scientifique donné</t>
+  </si>
+  <si>
+    <t>Ing - C2</t>
+  </si>
+  <si>
+    <t>étudier l’effet d’une variation des paramètres sur le temps de calcul, sur la précision des résultats, sur la forme des solutions pour des programmes d'ingénierie numérique choisis, tout en contextualisant l'observation du temps de calcul par rapport à la complexité algorithmique de ces programmes</t>
+  </si>
+  <si>
+    <t>Ing - C3</t>
+  </si>
+  <si>
+    <t>utiliser les bibliothèques de calcul standard pour résoudre un problème scientifique mis en équation lors des enseignements de chimie, physique, mathématiques, sciences industrielles et de l’ingénieur</t>
+  </si>
+  <si>
+    <t>Ing - C4</t>
+  </si>
+  <si>
+    <t>utiliser les bibliothèques standard pour afficher les résultats sous forme graphique,</t>
+  </si>
+  <si>
+    <t>Ing - C5</t>
+  </si>
+  <si>
+    <t>tenir compte des aspects pratiques comme l’impact des erreurs d’arrondi sur les résultats, le temps de calcul ou le stockage en mémoire.</t>
+  </si>
+  <si>
+    <t>Bibliothèques logicielles : utilisation de quelques fonctions d’une bibliothèque et de leur documentation en ligne.</t>
+  </si>
+  <si>
+    <t>On met en évidence l’intérêt de faire appel aux bibliothèques, évitant de devoir réinventer des solutions à des problèmes bien connus. La recherche des spécifications des bibliothèques joue un rôle essentiel pour le développement de solutions fiables aux problèmes posés.</t>
+  </si>
+  <si>
+    <t>Problème stationnaire à une dimension, linéaire ou non conduisant à la résolution approchée d’une équation algébrique ou transcendante. Méthode de dichotomie, méthode de Newton.</t>
+  </si>
+  <si>
+    <t>On souligne les différences du comportement informatique des deux algorithmes en termes de rapidité. On illustre à nouveau le problème du test d’arrêt (inadéquation de la comparaison à zéro).</t>
+  </si>
+  <si>
+    <t>Problème dynamique à une dimension,  linéaire ou non, conduisant à la résolution approchée d’une équation différentielle ordinaire par la méthode d’Euler.</t>
+  </si>
+  <si>
+    <t>On compare les résultats obtenus avec les fonctions de résolution approchée fournies par une bibliothèque numérique. On met en évidence l’impact du pas de
+discrétisation et du nombre d’itérations sur la qualité des résultats et sur le temps de calcul.</t>
+  </si>
+  <si>
+    <t>Problème discret multidimensionnel, linéaire, conduisant à la résolution d’un système linéaire inversible (ou de Cramer) par la méthode de Gauss avec recherche partielle du pivot.</t>
+  </si>
+  <si>
+    <t>La méthode de Gauss étant introduite dans le cours de mathématiques, il est nécessaire de se coordonner avec le professeur de mathématiques pour traiter cette question. Il
+ne s’agit pas de présenter cet algorithme mais de l’exécuter pour étudier sa mise en oeuvre et les problèmes que pose cette démarche. On souligne la complexité de l’algorithme en fonction de la taille des matrices et son impact sur le temps de calcul.</t>
+  </si>
+  <si>
+    <t>CI 4 - Bases de données</t>
+  </si>
+  <si>
+    <t>BDD - C1</t>
+  </si>
+  <si>
+    <t>utiliser une application offrant une interface graphique pour créer une base de données et l’alimenter</t>
+  </si>
+  <si>
+    <t>BDD - C2</t>
+  </si>
+  <si>
+    <t>utiliser une application offrant une interface graphique pour lancer des requêtes sur une base de données</t>
+  </si>
+  <si>
+    <t>BDD - C3</t>
+  </si>
+  <si>
+    <t>distinguer les rôles respectifs des machines client, serveur, et éventuellement serveur de données</t>
+  </si>
+  <si>
+    <t>BDD - C4</t>
+  </si>
+  <si>
+    <t>traduire dans le langage de l’algèbre relationnelle des requêtes écrites en langage courant</t>
+  </si>
+  <si>
+    <t>BDD - C5</t>
+  </si>
+  <si>
+    <t>concevoir une base constituée de plusieurs tables, et utiliser les jointures symétriques pour effectuer des requêtes croisées</t>
+  </si>
+  <si>
+    <t>Vocabulaire des bases de données : relation, attribut, domaine, schéma de relation ; notion de clé primaire.</t>
+  </si>
+  <si>
+    <t>Ces concepts sont présentés dans une perspective applicative, à partir d’exemples.</t>
+  </si>
+  <si>
+    <t>Opérateurs usuels sur les ensembles dans un contexte de bases de données : union, intersection, différence.
+Opérateurs spécifiques de l'algèbre relationnelle : projection, sélection (ou restriction), renommage, jointure, produit et division cartésiennes ; fonctions d'agrégation : min, max, somme, moyenne, comptage.</t>
+  </si>
+  <si>
+    <t>Ces concepts sont présentés dans une perspective applicative. Les seules jointures présentées seront les jointures symétriques, simples (utilisant JOIN … ON …=...).</t>
+  </si>
+  <si>
+    <t>Concept de client-serveur. Brève extension au cas de l’architecture trois-tiers.</t>
+  </si>
+  <si>
+    <t>On se limite à présenter ce concept dans la perspective applicative d’utilisation de bases de données.</t>
+  </si>
+  <si>
+    <t>CI 1 - Architecture interne et externe des Ordinateurs</t>
+  </si>
+  <si>
+    <t>CI 1 - Architecture interne et externe des Ordinateurs
+CI 2 - Algorithmique et programmation</t>
+  </si>
+  <si>
+    <t>CI 3 - Simulation numérique</t>
+  </si>
+  <si>
+    <t>Synthèse des premières séances de TP : Introduction à l'algorithmique</t>
+  </si>
+  <si>
+    <t>Introduction à l'algorithmique (Suite et fin)</t>
+  </si>
+  <si>
+    <t>Algorithmiques - Invariants de boucle</t>
+  </si>
+  <si>
+    <t>Complexité algorithmique</t>
+  </si>
+  <si>
+    <t>Vacances de la Toussaint</t>
+  </si>
+  <si>
+    <t>Vacances de Noël</t>
+  </si>
+  <si>
+    <t>Vacances d'hiver</t>
+  </si>
+  <si>
+    <t>Vacances de printemps</t>
+  </si>
+  <si>
+    <t>CI4 - Bases de données</t>
+  </si>
+  <si>
+    <t>Ecriture et lecture de fichiers</t>
+  </si>
+  <si>
+    <t>Intégration par la méthode des rectangles</t>
+  </si>
+  <si>
+    <t>Intégration par la méthode des trapèzes</t>
+  </si>
+  <si>
+    <t>Résolution de f(x)=0</t>
+  </si>
+  <si>
+    <t>Résolution des équations différentielles</t>
+  </si>
+  <si>
+    <t>Pivot de Gauss</t>
+  </si>
+  <si>
+    <t>Equations différentielles - Applications</t>
+  </si>
+  <si>
+    <t>Pivot de Gauss - Applications</t>
+  </si>
+  <si>
+    <t>Bases de données</t>
+  </si>
+  <si>
+    <t>("Tampon")</t>
+  </si>
+  <si>
+    <t>Découverte des bases de données</t>
+  </si>
+  <si>
+    <t>"Tampon"</t>
+  </si>
+  <si>
+    <t>TP XP EO</t>
+  </si>
+  <si>
+    <t>TP EO</t>
+  </si>
+  <si>
+    <t>CONCOURS BLANC</t>
+  </si>
+  <si>
+    <t>COURS (Semaine de l'ascension)</t>
+  </si>
+  <si>
+    <t>Systèmes d'exploitations
+Présentation sur une carte Raspberry</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ANALYSER une situation.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Déc - C2, Déc - C3.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ANALYSER une situation.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Déc - C1</t>
+    </r>
+  </si>
+  <si>
+    <t>ANALYSER ET MODELISER un problème, une situation.</t>
+  </si>
+  <si>
+    <t>IMAGINER ET CONCEVOIR une solution algorithmique modulaire, utilisant des méthodes de programmation, des structures de données appropriées pour le problème étudié.</t>
+  </si>
+  <si>
+    <t>TRADUIRE un algorithme dans un langage de programmation moderne et généraliste.</t>
+  </si>
+  <si>
+    <t>SPECIFIER rigoureusement les modules ou fonctions.</t>
+  </si>
+  <si>
+    <t>EVALUER, CONTROLER, VALIDER des algorithmes et des programmes.</t>
+  </si>
+  <si>
+    <t>COMMUNIQUER à l’écrit ou à l’oral, une problématique, une solution ou un algorithme, une documentation.</t>
+  </si>
+  <si>
+    <t>ANALYSER</t>
+  </si>
+  <si>
+    <t>ANALYSER ET MODELISER</t>
+  </si>
+  <si>
+    <t>EVALUER, CONTROLER, VALIDER</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ANALYSER
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alg - C1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ANALYSER ET MODELISER 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alg - C1, Alg - C3, Alg - C4, Alg - C5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ANALYSER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 
+Alg - C3, Alg - C5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ANALYSER ET MODELISER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+BDD - C4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ANALYSER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+BDD - C1, BDD - C2, BDD  - C3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ANALYSER ET MODELISER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Alg - C1, Alg - C3, Alg - C4, Alg - C5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EVALUER, CONTROLER, VALIDER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Alg - C6, Alg - C7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EVALUER, CONTROLER, VALIDER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Alg - C8</t>
+    </r>
+  </si>
+  <si>
+    <t>(Forum Grandes Ecoles le 19/12 - TP Anticipé le 12/12)</t>
+  </si>
+  <si>
+    <t>TP 1 : Découverte de Python : Types de variables, structures algorithmiques</t>
+  </si>
+  <si>
+    <t>TP 1 : Découverte de Python : Types de variables, structures algorithmiques (suite)</t>
+  </si>
+  <si>
+    <t>TP 2 : Découverte de Python - Listes</t>
+  </si>
+  <si>
+    <t>TP 2 : Découverte de Python - Listes - Tracer des courbes</t>
+  </si>
+  <si>
+    <t>TP 3 : Algorithme d'Euclide
+Algorithme Glouton</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ANALYSER ET MODELISER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Alg - C2, Alg - C3
+Ing - C3, Ing - C4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MODELISER, CONCEVOIR, TRADUIRE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alg-C1, Alg-C3, Alg-C4, Alg-C9, Alg-C10, Alg-C13</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MODELISER, CONCEVOIR, TRADUIRE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Alg-C1, Alg-C3, Alg-C4, Alg-C9, Alg-C10, Alg-C13</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TP 4 : algorithmes élémentaires de recherche. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP 5 : Traitement d'une trace GPS. </t>
+  </si>
+  <si>
+    <t>TP XP EO Résolution de f(x)=0
+Tir ballisitique
+pH d’une solution monoacide faible</t>
+  </si>
+  <si>
+    <t>TP XP EO : Intégration numérique 
+Gel d'une canalisation
+Pendule simpe</t>
+  </si>
+  <si>
+    <t>QCM 4</t>
+  </si>
+  <si>
+    <t>QCM 5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">QCM 2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DS 1 : Représentation des nombres
+Analyse des algorithmes : Alg-C1, Alg - C2, Alg - C4.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">QCM 6 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DS 2</t>
+    </r>
+  </si>
+  <si>
+    <t>DS 3</t>
+  </si>
+  <si>
+    <t>DS 5</t>
+  </si>
+  <si>
+    <t>DS 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,8 +1123,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,8 +1182,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -412,21 +1293,122 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -439,6 +1421,32 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -446,6 +1454,54 @@
     </border>
     <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -454,15 +1510,59 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -476,7 +1576,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -489,7 +1589,53 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -501,7 +1647,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -516,10 +1701,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -531,25 +1716,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -559,10 +1729,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -572,10 +1740,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -587,64 +1753,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -657,20 +1767,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -680,130 +1781,353 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -882,6 +2206,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -916,6 +2241,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1091,383 +2417,1489 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="5" customWidth="1"/>
-    <col min="2" max="6" width="35.42578125" customWidth="1"/>
+    <col min="1" max="2" width="11.5703125" style="2" customWidth="1"/>
+    <col min="3" max="7" width="35.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:9" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="F1" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45">
-      <c r="A2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="29" t="s">
+      <c r="D2" s="88"/>
+      <c r="E2" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="94" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="I2" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="106"/>
+      <c r="C3" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="33" t="s">
+      <c r="D3" s="89" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="57"/>
+      <c r="I3" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="106"/>
+      <c r="C4" s="91" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="61"/>
+      <c r="G4" s="57"/>
+      <c r="I4" s="36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="106"/>
+      <c r="C5" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="61"/>
+      <c r="G5" s="57"/>
+      <c r="I5" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="106"/>
+      <c r="C6" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="106"/>
+      <c r="C7" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="107"/>
+      <c r="C8" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="52"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+    </row>
+    <row r="10" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="108" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="110"/>
+    </row>
+    <row r="11" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="111"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="113"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+    </row>
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="114" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" spans="1:6" ht="36">
-      <c r="A3" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="1:6" ht="36">
-      <c r="A4" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" ht="36">
-      <c r="A5" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:6" ht="36">
-      <c r="A6" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="34" t="s">
+      <c r="D13" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45">
-      <c r="A7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="36.75" thickBot="1">
-      <c r="A8" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="10" spans="1:6" ht="36">
-      <c r="A10" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="36.75" thickBot="1">
-      <c r="A11" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="13" spans="1:6" ht="36">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="36.75" thickBot="1">
-      <c r="A14" s="3" t="s">
+    </row>
+    <row r="14" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="16" spans="1:6" ht="36">
-      <c r="A16" s="2" t="s">
+      <c r="B14" s="115"/>
+      <c r="C14" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" s="66"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="57"/>
+    </row>
+    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="36.75" thickBot="1">
-      <c r="A17" s="3" t="s">
+      <c r="B15" s="115"/>
+      <c r="C15" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="92" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="103" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="19" spans="1:1" ht="36">
-      <c r="A19" s="2" t="s">
+      <c r="B16" s="115"/>
+      <c r="C16" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" s="66"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="57"/>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="36.75" thickBot="1">
-      <c r="A20" s="3" t="s">
+      <c r="B17" s="115"/>
+      <c r="C17" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" s="92" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A21" s="8"/>
-    </row>
-    <row r="22" spans="1:1" ht="36.75" thickBot="1">
-      <c r="A22" s="9" t="s">
+      <c r="B18" s="115"/>
+      <c r="C18" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="62" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="24" spans="1:1" ht="36">
-      <c r="A24" s="6" t="s">
+      <c r="B19" s="116"/>
+      <c r="C19" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="93" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="53"/>
+      <c r="G19" s="59"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+    </row>
+    <row r="21" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="36.75" thickBot="1">
-      <c r="A25" s="7" t="s">
+      <c r="B21" s="108" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="110"/>
+    </row>
+    <row r="22" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="27" spans="1:1" ht="36.75" thickBot="1">
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="113"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+    </row>
+    <row r="24" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="114" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="96" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24" s="67"/>
+      <c r="G24" s="71"/>
+    </row>
+    <row r="25" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="115"/>
+      <c r="C25" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="97" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="66"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="57"/>
+    </row>
+    <row r="26" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="116"/>
+      <c r="C26" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" s="95" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="F26" s="53"/>
+      <c r="G26" s="59"/>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="36">
-      <c r="A28" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="36.75" thickBot="1">
-      <c r="A29" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="36">
-      <c r="A30" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="36.75" thickBot="1">
-      <c r="A31" s="3" t="s">
+      <c r="B27" s="117" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="98" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="F27" s="84"/>
+      <c r="G27" s="86"/>
+    </row>
+    <row r="28" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="36">
-      <c r="A32" s="2" t="s">
+      <c r="B28" s="117"/>
+      <c r="C28" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" s="47"/>
+      <c r="G28" s="57"/>
+    </row>
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="36.75" thickBot="1">
-      <c r="A33" s="3" t="s">
+      <c r="B29" s="117"/>
+      <c r="C29" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" s="47"/>
+      <c r="G29" s="104" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="35" spans="1:1" ht="36">
-      <c r="A35" s="11" t="s">
+      <c r="B30" s="118"/>
+      <c r="C30" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="95" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="53"/>
+      <c r="G30" s="59"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+    </row>
+    <row r="32" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="36.75" thickBot="1">
-      <c r="A36" s="12" t="s">
+      <c r="B32" s="108" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="110"/>
+    </row>
+    <row r="33" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="38" spans="1:1" ht="36.75" thickBot="1">
-      <c r="A38" s="9" t="s">
+      <c r="B33" s="111"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="113"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+    </row>
+    <row r="35" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="40" spans="1:1" ht="36">
-      <c r="A40" s="2" t="s">
+      <c r="B35" s="126" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="127"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="127"/>
+      <c r="G35" s="128"/>
+    </row>
+    <row r="36" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="36.75" thickBot="1">
-      <c r="A41" s="3" t="s">
+      <c r="B36" s="123" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="E36" s="83" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36" s="83"/>
+      <c r="G36" s="84"/>
+    </row>
+    <row r="37" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="43" spans="1:1" ht="36">
-      <c r="A43" s="2" t="s">
+      <c r="B37" s="124"/>
+      <c r="C37" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="100" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" s="63"/>
+      <c r="G37" s="47"/>
+    </row>
+    <row r="38" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="36.75" thickBot="1">
-      <c r="A44" s="3" t="s">
+      <c r="B38" s="124"/>
+      <c r="C38" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="100" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="F38" s="63"/>
+      <c r="G38" s="47"/>
+    </row>
+    <row r="39" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="46" spans="1:1" ht="36.75" thickBot="1">
-      <c r="A46" s="13" t="s">
+      <c r="B39" s="124"/>
+      <c r="C39" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" s="100" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="F39" s="63"/>
+      <c r="G39" s="47"/>
+    </row>
+    <row r="40" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="36.75" thickBot="1">
-      <c r="A47" s="14" t="s">
+      <c r="B40" s="124"/>
+      <c r="C40" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" s="100" t="s">
+        <v>195</v>
+      </c>
+      <c r="E40" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" s="63"/>
+      <c r="G40" s="97" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="49" spans="1:1" ht="36">
-      <c r="A49" s="15" t="s">
+      <c r="B41" s="125"/>
+      <c r="C41" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" s="101" t="s">
+        <v>196</v>
+      </c>
+      <c r="E41" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="F41" s="64"/>
+      <c r="G41" s="53"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+    </row>
+    <row r="43" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="36.75" thickBot="1">
-      <c r="A50" s="16" t="s">
+      <c r="B43" s="108" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="109"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="110"/>
+    </row>
+    <row r="44" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="52" spans="1:1" ht="36">
-      <c r="A52" s="2" t="s">
+      <c r="B44" s="111"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="113"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+    </row>
+    <row r="46" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="36.75" thickBot="1">
-      <c r="A53" s="3" t="s">
+      <c r="B46" s="122" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="44"/>
+      <c r="E46" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="F46" s="67"/>
+      <c r="G46" s="71"/>
+    </row>
+    <row r="47" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="36">
-      <c r="A54" s="2" t="s">
+      <c r="B47" s="117"/>
+      <c r="C47" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="47"/>
+      <c r="E47" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="F47" s="47"/>
+      <c r="G47" s="57"/>
+    </row>
+    <row r="48" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="36">
-      <c r="A55" s="4" t="s">
+      <c r="B48" s="118"/>
+      <c r="C48" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48" s="47"/>
+      <c r="E48" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="F48" s="47"/>
+      <c r="G48" s="57"/>
+    </row>
+    <row r="49" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="36.75" thickBot="1">
-      <c r="A56" s="3" t="s">
+      <c r="B49" s="119" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="77" t="s">
+        <v>179</v>
+      </c>
+      <c r="D49" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="E49" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="F49" s="47"/>
+      <c r="G49" s="57"/>
+    </row>
+    <row r="50" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="36">
-      <c r="A57" s="2" t="s">
+      <c r="B50" s="120"/>
+      <c r="C50" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" s="92" t="s">
+        <v>200</v>
+      </c>
+      <c r="E50" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="F50" s="47"/>
+      <c r="G50" s="104" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="36.75" thickBot="1">
-      <c r="A58" s="3" t="s">
+      <c r="B51" s="120"/>
+      <c r="C51" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="92" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="F51" s="47"/>
+      <c r="G51" s="57"/>
+    </row>
+    <row r="52" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="36">
-      <c r="A60" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="B52" s="121"/>
+      <c r="C52" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="D52" s="95" t="s">
+        <v>195</v>
+      </c>
+      <c r="E52" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="F52" s="53"/>
+      <c r="G52" s="59"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="CI9">
-      <formula>NOT(ISERROR(SEARCH("CI9",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="CI8">
-      <formula>NOT(ISERROR(SEARCH("CI8",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="CI7">
-      <formula>NOT(ISERROR(SEARCH("CI7",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="CI6">
-      <formula>NOT(ISERROR(SEARCH("CI6",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="CI5">
-      <formula>NOT(ISERROR(SEARCH("CI5",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="CI4">
-      <formula>NOT(ISERROR(SEARCH("CI4",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="CI3">
-      <formula>NOT(ISERROR(SEARCH("CI3",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="CI2">
-      <formula>NOT(ISERROR(SEARCH("CI2",A1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <mergeCells count="12">
+    <mergeCell ref="B43:G44"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B10:G11"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B21:G22"/>
+    <mergeCell ref="B32:G33"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D62"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="110" zoomScaleNormal="85" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="40.42578125" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+    </row>
+    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="23"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="23"/>
+    </row>
+    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="23"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+    </row>
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+    </row>
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+    </row>
+    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+    </row>
+    <row r="32" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+    </row>
+    <row r="33" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+    </row>
+    <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="27"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="29"/>
+      <c r="B43" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
+    </row>
+    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="22"/>
+      <c r="D44" s="23"/>
+    </row>
+    <row r="45" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="23"/>
+    </row>
+    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="D46" s="23"/>
+    </row>
+    <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="D47" s="23"/>
+    </row>
+    <row r="48" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
+    </row>
+    <row r="49" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="102" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="24"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="27"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="33"/>
+      <c r="B54" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+    </row>
+    <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="33"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="33"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="33"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Progression/Progression_Informatique_2014_2015.xlsx
+++ b/Progression/Progression_Informatique_2014_2015.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="11670" windowHeight="7860"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="11670" windowHeight="7860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Progression_2014_2015" sheetId="1" r:id="rId1"/>
     <sheet name="Compétences" sheetId="2" r:id="rId2"/>
     <sheet name="Programme" sheetId="4" r:id="rId3"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
+    <sheet name="SequenceInspection" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="250">
   <si>
     <t>01/09/2014
 au
@@ -270,9 +270,6 @@
     <t>QCM 3 - Listes</t>
   </si>
   <si>
-    <t>Capacités</t>
-  </si>
-  <si>
     <t>CI 1 - Découverte de l'informatique</t>
   </si>
   <si>
@@ -667,10 +664,87 @@
 Présentation sur une carte Raspberry</t>
   </si>
   <si>
+    <t>ANALYSER ET MODELISER un problème, une situation.</t>
+  </si>
+  <si>
+    <t>IMAGINER ET CONCEVOIR une solution algorithmique modulaire, utilisant des méthodes de programmation, des structures de données appropriées pour le problème étudié.</t>
+  </si>
+  <si>
+    <t>TRADUIRE un algorithme dans un langage de programmation moderne et généraliste.</t>
+  </si>
+  <si>
+    <t>SPECIFIER rigoureusement les modules ou fonctions.</t>
+  </si>
+  <si>
+    <t>EVALUER, CONTROLER, VALIDER des algorithmes et des programmes.</t>
+  </si>
+  <si>
+    <t>COMMUNIQUER à l’écrit ou à l’oral, une problématique, une solution ou un algorithme, une documentation.</t>
+  </si>
+  <si>
+    <t>ANALYSER</t>
+  </si>
+  <si>
+    <t>ANALYSER ET MODELISER</t>
+  </si>
+  <si>
+    <t>EVALUER, CONTROLER, VALIDER</t>
+  </si>
+  <si>
+    <t>(Forum Grandes Ecoles le 19/12 - TP Anticipé le 12/12)</t>
+  </si>
+  <si>
+    <t>TP 1 : Découverte de Python : Types de variables, structures algorithmiques</t>
+  </si>
+  <si>
+    <t>TP 1 : Découverte de Python : Types de variables, structures algorithmiques (suite)</t>
+  </si>
+  <si>
+    <t>TP 2 : Découverte de Python - Listes</t>
+  </si>
+  <si>
+    <t>TP 2 : Découverte de Python - Listes - Tracer des courbes</t>
+  </si>
+  <si>
+    <t>TP 3 : Algorithme d'Euclide
+Algorithme Glouton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP 4 : algorithmes élémentaires de recherche. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP 5 : Traitement d'une trace GPS. </t>
+  </si>
+  <si>
+    <t>TP XP EO Résolution de f(x)=0
+Tir ballisitique
+pH d’une solution monoacide faible</t>
+  </si>
+  <si>
+    <t>TP XP EO : Intégration numérique 
+Gel d'une canalisation
+Pendule simpe</t>
+  </si>
+  <si>
+    <t>QCM 4</t>
+  </si>
+  <si>
+    <t>QCM 5</t>
+  </si>
+  <si>
+    <t>DS 3</t>
+  </si>
+  <si>
+    <t>DS 5</t>
+  </si>
+  <si>
+    <t>DS 6</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -680,21 +754,21 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Déc - C2, Déc - C3.</t>
+Déc - C1</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -704,48 +778,88 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Déc - C1</t>
+Déc - C2, Déc - C3.</t>
     </r>
-  </si>
-  <si>
-    <t>ANALYSER ET MODELISER un problème, une situation.</t>
-  </si>
-  <si>
-    <t>IMAGINER ET CONCEVOIR une solution algorithmique modulaire, utilisant des méthodes de programmation, des structures de données appropriées pour le problème étudié.</t>
-  </si>
-  <si>
-    <t>TRADUIRE un algorithme dans un langage de programmation moderne et généraliste.</t>
-  </si>
-  <si>
-    <t>SPECIFIER rigoureusement les modules ou fonctions.</t>
-  </si>
-  <si>
-    <t>EVALUER, CONTROLER, VALIDER des algorithmes et des programmes.</t>
-  </si>
-  <si>
-    <t>COMMUNIQUER à l’écrit ou à l’oral, une problématique, une solution ou un algorithme, une documentation.</t>
-  </si>
-  <si>
-    <t>ANALYSER</t>
-  </si>
-  <si>
-    <t>ANALYSER ET MODELISER</t>
-  </si>
-  <si>
-    <t>EVALUER, CONTROLER, VALIDER</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ANALYSER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 
+Alg - C3, Alg - C5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ANALYSER ET MODELISER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Alg - C2, Alg - C3
+Ing - C3, Ing - C4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">QCM 2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DS 1 : Représentation des nombres
+Analyse des algorithmes : Alg-C1, Alg - C2, Alg - C4.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -756,7 +870,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -769,7 +883,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -780,7 +894,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -793,79 +907,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ANALYSER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 
-Alg - C3, Alg - C5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ANALYSER ET MODELISER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-BDD - C4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ANALYSER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-BDD - C1, BDD - C2, BDD  - C3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -875,7 +917,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -887,104 +929,12 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EVALUER, CONTROLER, VALIDER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Alg - C6, Alg - C7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EVALUER, CONTROLER, VALIDER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Alg - C8</t>
-    </r>
-  </si>
-  <si>
-    <t>(Forum Grandes Ecoles le 19/12 - TP Anticipé le 12/12)</t>
-  </si>
-  <si>
-    <t>TP 1 : Découverte de Python : Types de variables, structures algorithmiques</t>
-  </si>
-  <si>
-    <t>TP 1 : Découverte de Python : Types de variables, structures algorithmiques (suite)</t>
-  </si>
-  <si>
-    <t>TP 2 : Découverte de Python - Listes</t>
-  </si>
-  <si>
-    <t>TP 2 : Découverte de Python - Listes - Tracer des courbes</t>
-  </si>
-  <si>
-    <t>TP 3 : Algorithme d'Euclide
-Algorithme Glouton</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ANALYSER ET MODELISER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Alg - C2, Alg - C3
-Ing - C3, Ing - C4</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">MODELISER, CONCEVOIR, TRADUIRE
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -995,7 +945,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1004,6 +954,209 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EVALUER, CONTROLER, VALIDER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Alg - C6, Alg - C7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MODELISER, CONCEVOIR, TRADUIRE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Alg-C1, Alg-C3, Alg-C4, Alg-C9, Alg-C10, Alg-C13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EVALUER, CONTROLER, VALIDER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Alg - C8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">QCM 6 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DS 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ANALYSER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+BDD - C1, BDD - C2, BDD  - C3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ANALYSER ET MODELISER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+BDD - C4</t>
+    </r>
+  </si>
+  <si>
+    <t>Centres d'intérêts abordés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1 2 </t>
+  </si>
+  <si>
+    <t>Algorithmique et Programmation</t>
+  </si>
+  <si>
+    <t>Effectif cours</t>
+  </si>
+  <si>
+    <t>Effectifs TP</t>
+  </si>
+  <si>
+    <t>13 maxi</t>
+  </si>
+  <si>
+    <t>Séquence 2</t>
+  </si>
+  <si>
+    <t>Introduction à l'algorithmique et à la programmation.</t>
+  </si>
+  <si>
+    <t>Horaire élève</t>
+  </si>
+  <si>
+    <t>Activité</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Nb séances</t>
+  </si>
+  <si>
+    <t>TP (2h)</t>
+  </si>
+  <si>
+    <t>Cours (1h)</t>
+  </si>
+  <si>
+    <t>Heures</t>
+  </si>
+  <si>
+    <t>11 heures</t>
+  </si>
+  <si>
+    <t>Séance 1 et 2</t>
+  </si>
+  <si>
+    <t>Séance 5</t>
+  </si>
+  <si>
+    <t>Séance 3 et 4</t>
+  </si>
+  <si>
+    <t>Séance 6</t>
+  </si>
+  <si>
+    <t>Séance 7</t>
+  </si>
+  <si>
+    <t>TD d'application</t>
   </si>
   <si>
     <r>
@@ -1015,7 +1168,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>MODELISER, CONCEVOIR, TRADUIRE</t>
+      <t>Découverte</t>
     </r>
     <r>
       <rPr>
@@ -1025,37 +1178,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-Alg-C1, Alg-C3, Alg-C4, Alg-C9, Alg-C10, Alg-C13</t>
+      <t xml:space="preserve"> de la programmation</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">TP 4 : algorithmes élémentaires de recherche. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP 5 : Traitement d'une trace GPS. </t>
-  </si>
-  <si>
-    <t>TP XP EO Résolution de f(x)=0
-Tir ballisitique
-pH d’une solution monoacide faible</t>
-  </si>
-  <si>
-    <t>TP XP EO : Intégration numérique 
-Gel d'une canalisation
-Pendule simpe</t>
-  </si>
-  <si>
-    <t>QCM 4</t>
-  </si>
-  <si>
-    <t>QCM 5</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">QCM 2
-</t>
-    </r>
     <r>
       <rPr>
         <b/>
@@ -1065,15 +1191,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>DS 1 : Représentation des nombres
-Analyse des algorithmes : Alg-C1, Alg - C2, Alg - C4.</t>
+      <t>Découverte</t>
     </r>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">QCM 6 
-</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de l'algorithmique</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1083,56 +1214,49 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>DS 2</t>
+      <t>Synthèse</t>
     </r>
-  </si>
-  <si>
-    <t>DS 3</t>
-  </si>
-  <si>
-    <t>DS 5</t>
-  </si>
-  <si>
-    <t>DS 6</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> programmation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Synthèse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> algorithmique</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1155,8 +1279,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1213,7 +1345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1489,21 +1621,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1763,296 +1880,291 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2066,56 +2178,92 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2206,7 +2354,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2241,7 +2388,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2417,833 +2563,850 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="2" width="11.5703125" style="2" customWidth="1"/>
-    <col min="3" max="7" width="35.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="48" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="48" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="2" customWidth="1"/>
+    <col min="5" max="7" width="22.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="49" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="39" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="12" thickBot="1">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="41"/>
-    </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="118" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" ht="33.75">
+      <c r="A3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="119"/>
+      <c r="C3" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" ht="33.75">
+      <c r="A4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="119"/>
+      <c r="C4" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="33"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" ht="33.75">
+      <c r="A5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="119"/>
+      <c r="C5" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" ht="33.75">
+      <c r="A6" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="119"/>
+      <c r="C6" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" spans="1:8" ht="56.25">
+      <c r="A7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="42"/>
+    </row>
+    <row r="8" spans="1:8" ht="34.5" thickBot="1">
+      <c r="A8" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="120"/>
+      <c r="C8" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="46"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+    </row>
+    <row r="9" spans="1:8" ht="12" thickBot="1">
+      <c r="C9" s="49"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+    </row>
+    <row r="10" spans="1:8" ht="33.75">
+      <c r="A10" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="99"/>
+    </row>
+    <row r="11" spans="1:8" ht="34.5" thickBot="1">
+      <c r="A11" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="100"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="102"/>
+    </row>
+    <row r="12" spans="1:8" ht="12" thickBot="1">
+      <c r="C12" s="49"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+    </row>
+    <row r="13" spans="1:8" ht="33.75">
+      <c r="A13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="33.75">
+      <c r="A14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="104"/>
+      <c r="C14" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" ht="56.25">
+      <c r="A15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="104"/>
+      <c r="C15" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="33.75">
+      <c r="A16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="104"/>
+      <c r="C16" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="1:7" ht="45">
+      <c r="A17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="104"/>
+      <c r="C17" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="33.75">
+      <c r="A18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="104"/>
+      <c r="C18" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" s="56"/>
+      <c r="G18" s="37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="34.5" thickBot="1">
+      <c r="A19" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="105"/>
+      <c r="C19" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" s="61"/>
+      <c r="G19" s="47"/>
+    </row>
+    <row r="20" spans="1:7" ht="12" thickBot="1">
+      <c r="C20" s="49"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+    </row>
+    <row r="21" spans="1:7" ht="33.75">
+      <c r="A21" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="97" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="99"/>
+    </row>
+    <row r="22" spans="1:7" ht="34.5" thickBot="1">
+      <c r="A22" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="100"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="102"/>
+    </row>
+    <row r="23" spans="1:7" ht="12" thickBot="1">
+      <c r="C23" s="49"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+    </row>
+    <row r="24" spans="1:7" ht="33.75">
+      <c r="A24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="89" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24" s="52"/>
+      <c r="G24" s="62"/>
+    </row>
+    <row r="25" spans="1:7" ht="33.75">
+      <c r="A25" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="104"/>
+      <c r="C25" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:7" ht="34.5" thickBot="1">
+      <c r="A26" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="105"/>
+      <c r="C26" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="90" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" s="61"/>
+      <c r="G26" s="47"/>
+    </row>
+    <row r="27" spans="1:7" ht="45">
+      <c r="A27" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="106" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="43" t="s">
+      <c r="C27" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="91" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="F27" s="66"/>
+      <c r="G27" s="67"/>
+    </row>
+    <row r="28" spans="1:7" ht="33.75">
+      <c r="A28" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="106"/>
+      <c r="C28" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="56"/>
+      <c r="G28" s="29"/>
+    </row>
+    <row r="29" spans="1:7" ht="45">
+      <c r="A29" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="106"/>
+      <c r="C29" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="56"/>
+      <c r="G29" s="70" t="s">
         <v>206</v>
       </c>
-      <c r="F2" s="94" t="s">
-        <v>194</v>
-      </c>
-      <c r="G2" s="56"/>
-      <c r="I2" s="35" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="89" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="57"/>
-      <c r="I3" s="37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="91" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="89" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="57"/>
-      <c r="I4" s="36" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="89" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="57"/>
-      <c r="I5" s="38" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="89" t="s">
-        <v>186</v>
-      </c>
-      <c r="E6" s="49" t="s">
+    </row>
+    <row r="30" spans="1:7" ht="34.5" thickBot="1">
+      <c r="A30" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="107"/>
+      <c r="C30" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="90" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="F30" s="61"/>
+      <c r="G30" s="47"/>
+    </row>
+    <row r="31" spans="1:7" ht="12" thickBot="1">
+      <c r="C31" s="49"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+    </row>
+    <row r="32" spans="1:7" ht="33.75">
+      <c r="A32" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="97" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="99"/>
+    </row>
+    <row r="33" spans="1:7" ht="34.5" thickBot="1">
+      <c r="A33" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="100"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="102"/>
+    </row>
+    <row r="34" spans="1:7" ht="12" thickBot="1">
+      <c r="C34" s="49"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+    </row>
+    <row r="35" spans="1:7" ht="36" customHeight="1" thickBot="1">
+      <c r="A35" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="115" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="117"/>
+    </row>
+    <row r="36" spans="1:7" ht="61.5" customHeight="1">
+      <c r="A36" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="92" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="75"/>
+      <c r="G36" s="66"/>
+    </row>
+    <row r="37" spans="1:7" ht="33.75">
+      <c r="A37" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="113"/>
+      <c r="C37" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="93" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37" s="77"/>
+      <c r="G37" s="56"/>
+    </row>
+    <row r="38" spans="1:7" ht="33.75">
+      <c r="A38" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="113"/>
+      <c r="C38" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="F38" s="77"/>
+      <c r="G38" s="56"/>
+    </row>
+    <row r="39" spans="1:7" ht="33.75">
+      <c r="A39" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="113"/>
+      <c r="C39" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="93" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="F39" s="77"/>
+      <c r="G39" s="56"/>
+    </row>
+    <row r="40" spans="1:7" ht="33.75">
+      <c r="A40" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="113"/>
+      <c r="C40" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="93" t="s">
+        <v>192</v>
+      </c>
+      <c r="E40" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" s="77"/>
+      <c r="G40" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="62" t="s">
-        <v>199</v>
-      </c>
-      <c r="G6" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="89" t="s">
-        <v>186</v>
-      </c>
-      <c r="E7" s="50" t="s">
+    </row>
+    <row r="41" spans="1:7" ht="34.5" thickBot="1">
+      <c r="A41" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="114"/>
+      <c r="C41" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="94" t="s">
+        <v>193</v>
+      </c>
+      <c r="E41" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" s="80"/>
+      <c r="G41" s="61"/>
+    </row>
+    <row r="42" spans="1:7" ht="12" thickBot="1">
+      <c r="C42" s="49"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+    </row>
+    <row r="43" spans="1:7" ht="33.75">
+      <c r="A43" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="97" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="99"/>
+    </row>
+    <row r="44" spans="1:7" ht="34.5" thickBot="1">
+      <c r="A44" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="100"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="102"/>
+    </row>
+    <row r="45" spans="1:7" ht="12" thickBot="1">
+      <c r="C45" s="49"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+    </row>
+    <row r="46" spans="1:7" ht="36" customHeight="1">
+      <c r="A46" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="111" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" s="52"/>
+      <c r="E46" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="F46" s="52"/>
+      <c r="G46" s="62"/>
+    </row>
+    <row r="47" spans="1:7" ht="33.75">
+      <c r="A47" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="106"/>
+      <c r="C47" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="D47" s="54"/>
+      <c r="E47" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="F47" s="56"/>
+      <c r="G47" s="29"/>
+    </row>
+    <row r="48" spans="1:7" ht="34.5" thickBot="1">
+      <c r="A48" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="107"/>
+      <c r="C48" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="54"/>
+      <c r="E48" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="F48" s="56"/>
+      <c r="G48" s="29"/>
+    </row>
+    <row r="49" spans="1:7" ht="33.75">
+      <c r="A49" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="108" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="E49" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="F49" s="56"/>
+      <c r="G49" s="29"/>
+    </row>
+    <row r="50" spans="1:7" ht="33.75">
+      <c r="A50" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="109"/>
+      <c r="C50" s="85" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="E50" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" s="56"/>
+      <c r="G50" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="F7" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="G7" s="58" t="s">
-        <v>220</v>
-      </c>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="90" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-    </row>
-    <row r="10" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="108" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="110"/>
-    </row>
-    <row r="11" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="113"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-    </row>
-    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="114" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="F13" s="67" t="s">
-        <v>211</v>
-      </c>
-      <c r="G13" s="69" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="115"/>
-      <c r="C14" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" s="92" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="57"/>
-    </row>
-    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="115"/>
-      <c r="C15" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="92" t="s">
-        <v>202</v>
-      </c>
-      <c r="E15" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="F15" s="103" t="s">
-        <v>212</v>
-      </c>
-      <c r="G15" s="57" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="92" t="s">
-        <v>203</v>
-      </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="57"/>
-    </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="115"/>
-      <c r="C17" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="92" t="s">
-        <v>203</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="F17" s="92" t="s">
-        <v>213</v>
-      </c>
-      <c r="G17" s="57" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="115"/>
-      <c r="C18" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="92" t="s">
-        <v>204</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="62" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="116"/>
-      <c r="C19" s="68" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="93" t="s">
-        <v>204</v>
-      </c>
-      <c r="E19" s="102" t="s">
-        <v>205</v>
-      </c>
-      <c r="F19" s="53"/>
-      <c r="G19" s="59"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-    </row>
-    <row r="21" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="108" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="110"/>
-    </row>
-    <row r="22" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="113"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-    </row>
-    <row r="24" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="114" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" s="96" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="F24" s="67"/>
-      <c r="G24" s="71"/>
-    </row>
-    <row r="25" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="115"/>
-      <c r="C25" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="97" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" s="66"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="57"/>
-    </row>
-    <row r="26" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="116"/>
-      <c r="C26" s="87" t="s">
-        <v>178</v>
-      </c>
-      <c r="D26" s="95" t="s">
-        <v>194</v>
-      </c>
-      <c r="E26" s="68" t="s">
-        <v>215</v>
-      </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="59"/>
-    </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="117" t="s">
-        <v>159</v>
-      </c>
-      <c r="C27" s="85" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" s="98" t="s">
-        <v>195</v>
-      </c>
-      <c r="E27" s="85" t="s">
-        <v>217</v>
-      </c>
-      <c r="F27" s="84"/>
-      <c r="G27" s="86"/>
-    </row>
-    <row r="28" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="117"/>
-      <c r="C28" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="97" t="s">
-        <v>195</v>
-      </c>
-      <c r="E28" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="F28" s="47"/>
-      <c r="G28" s="57"/>
-    </row>
-    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="117"/>
-      <c r="C29" s="73" t="s">
-        <v>172</v>
-      </c>
-      <c r="D29" s="97" t="s">
-        <v>195</v>
-      </c>
-      <c r="E29" s="76" t="s">
-        <v>216</v>
-      </c>
-      <c r="F29" s="47"/>
-      <c r="G29" s="104" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="118"/>
-      <c r="C30" s="74" t="s">
-        <v>172</v>
-      </c>
-      <c r="D30" s="95" t="s">
-        <v>195</v>
-      </c>
-      <c r="E30" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="F30" s="53"/>
-      <c r="G30" s="59"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-    </row>
-    <row r="32" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="108" t="s">
-        <v>166</v>
-      </c>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="110"/>
-    </row>
-    <row r="33" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="111"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="113"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-    </row>
-    <row r="35" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="126" t="s">
-        <v>183</v>
-      </c>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="127"/>
-      <c r="G35" s="128"/>
-    </row>
-    <row r="36" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="123" t="s">
-        <v>159</v>
-      </c>
-      <c r="C36" s="82" t="s">
-        <v>173</v>
-      </c>
-      <c r="D36" s="99" t="s">
-        <v>195</v>
-      </c>
-      <c r="E36" s="83" t="s">
+    </row>
+    <row r="51" spans="1:7" ht="33.75">
+      <c r="A51" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="109"/>
+      <c r="C51" s="85" t="s">
+        <v>176</v>
+      </c>
+      <c r="D51" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="E51" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="F51" s="56"/>
+      <c r="G51" s="29"/>
+    </row>
+    <row r="52" spans="1:7" ht="34.5" thickBot="1">
+      <c r="A52" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="110"/>
+      <c r="C52" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="D52" s="90" t="s">
+        <v>192</v>
+      </c>
+      <c r="E52" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="F36" s="83"/>
-      <c r="G36" s="84"/>
-    </row>
-    <row r="37" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="124"/>
-      <c r="C37" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="D37" s="100" t="s">
-        <v>195</v>
-      </c>
-      <c r="E37" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="F37" s="63"/>
-      <c r="G37" s="47"/>
-    </row>
-    <row r="38" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="124"/>
-      <c r="C38" s="80" t="s">
-        <v>175</v>
-      </c>
-      <c r="D38" s="100" t="s">
-        <v>196</v>
-      </c>
-      <c r="E38" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="F38" s="63"/>
-      <c r="G38" s="47"/>
-    </row>
-    <row r="39" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="124"/>
-      <c r="C39" s="80" t="s">
-        <v>174</v>
-      </c>
-      <c r="D39" s="100" t="s">
-        <v>195</v>
-      </c>
-      <c r="E39" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="F39" s="63"/>
-      <c r="G39" s="47"/>
-    </row>
-    <row r="40" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="124"/>
-      <c r="C40" s="80" t="s">
-        <v>174</v>
-      </c>
-      <c r="D40" s="100" t="s">
-        <v>195</v>
-      </c>
-      <c r="E40" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="F40" s="63"/>
-      <c r="G40" s="97" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="125"/>
-      <c r="C41" s="81" t="s">
-        <v>176</v>
-      </c>
-      <c r="D41" s="101" t="s">
-        <v>196</v>
-      </c>
-      <c r="E41" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="F41" s="64"/>
-      <c r="G41" s="53"/>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-    </row>
-    <row r="43" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="108" t="s">
-        <v>167</v>
-      </c>
-      <c r="C43" s="109"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="110"/>
-    </row>
-    <row r="44" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="111"/>
-      <c r="C44" s="112"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="113"/>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-    </row>
-    <row r="46" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="122" t="s">
-        <v>159</v>
-      </c>
-      <c r="C46" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="D46" s="44"/>
-      <c r="E46" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="F46" s="67"/>
-      <c r="G46" s="71"/>
-    </row>
-    <row r="47" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="117"/>
-      <c r="C47" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="D47" s="47"/>
-      <c r="E47" s="66" t="s">
-        <v>181</v>
-      </c>
-      <c r="F47" s="47"/>
-      <c r="G47" s="57"/>
-    </row>
-    <row r="48" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="118"/>
-      <c r="C48" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="D48" s="47"/>
-      <c r="E48" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="F48" s="47"/>
-      <c r="G48" s="57"/>
-    </row>
-    <row r="49" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="119" t="s">
-        <v>168</v>
-      </c>
-      <c r="C49" s="77" t="s">
-        <v>179</v>
-      </c>
-      <c r="D49" s="92" t="s">
-        <v>201</v>
-      </c>
-      <c r="E49" s="66" t="s">
-        <v>181</v>
-      </c>
-      <c r="F49" s="47"/>
-      <c r="G49" s="57"/>
-    </row>
-    <row r="50" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="120"/>
-      <c r="C50" s="77" t="s">
-        <v>177</v>
-      </c>
-      <c r="D50" s="92" t="s">
-        <v>200</v>
-      </c>
-      <c r="E50" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="F50" s="47"/>
-      <c r="G50" s="104" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="120"/>
-      <c r="C51" s="77" t="s">
-        <v>177</v>
-      </c>
-      <c r="D51" s="92" t="s">
-        <v>200</v>
-      </c>
-      <c r="E51" s="66" t="s">
-        <v>181</v>
-      </c>
-      <c r="F51" s="47"/>
-      <c r="G51" s="57"/>
-    </row>
-    <row r="52" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="121"/>
-      <c r="C52" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="D52" s="95" t="s">
-        <v>195</v>
-      </c>
-      <c r="E52" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="F52" s="53"/>
-      <c r="G52" s="59"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="47"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="C53" s="49"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="C56" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="C57" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="C58" s="34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="C59" s="35" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B10:G11"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B21:G22"/>
+    <mergeCell ref="B32:G33"/>
     <mergeCell ref="B43:G44"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B30"/>
@@ -3251,55 +3414,50 @@
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="B36:B41"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B10:G11"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B21:G22"/>
-    <mergeCell ref="B32:G33"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3309,598 +3467,730 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:D62"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="110" zoomScaleNormal="85" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A55" zoomScale="110" zoomScaleNormal="85" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="40.42578125" style="15" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="16"/>
+    <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="s">
+    <row r="2" spans="1:4" ht="12" thickBot="1"/>
+    <row r="3" spans="1:4" ht="15" customHeight="1">
+      <c r="A3" s="124" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
+    </row>
+    <row r="4" spans="1:4" ht="33.75">
+      <c r="A4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-    </row>
-    <row r="4" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="B4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="67.5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-    </row>
-    <row r="5" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22" t="s">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" ht="45">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="23"/>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22" t="s">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" ht="22.5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22" t="s">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" ht="22.5">
+      <c r="A9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-    </row>
-    <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="B9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="33.75">
+      <c r="A10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-    </row>
-    <row r="10" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="B10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="56.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22" t="s">
+      <c r="D11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="23" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="79.5" thickBot="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25" t="s">
+      <c r="D12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="26" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="100.5" customHeight="1" thickBot="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="124" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="126"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="B15" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="22.5">
+      <c r="A16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-    </row>
-    <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="B16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="22.5">
+      <c r="A17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-    </row>
-    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="B17" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="B18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="22.5">
+      <c r="A19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-    </row>
-    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
+      <c r="B19" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" ht="22.5">
+      <c r="A20" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-    </row>
-    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="B20" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
+      <c r="B21" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="22.5">
+      <c r="A22" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-    </row>
-    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="B22" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" ht="33.75">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-    </row>
-    <row r="23" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22" t="s">
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" ht="33.75">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="23"/>
-    </row>
-    <row r="24" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22" t="s">
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" ht="22.5">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="23"/>
-    </row>
-    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22" t="s">
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="23"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22" t="s">
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" ht="22.5">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="23"/>
-    </row>
-    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22" t="s">
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" ht="22.5">
+      <c r="A29" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="23"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-    </row>
-    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+      <c r="B29" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" ht="22.5">
+      <c r="A30" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-    </row>
-    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
+      <c r="B30" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" ht="22.5">
+      <c r="A31" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-    </row>
-    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
+      <c r="B31" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" ht="33.75">
+      <c r="A32" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-    </row>
-    <row r="32" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
+      <c r="B32" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" ht="33.75">
+      <c r="A33" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23"/>
-    </row>
-    <row r="33" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
+      <c r="B33" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+      <c r="B34" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" ht="22.5">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-    </row>
-    <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22" t="s">
+      <c r="D35" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="23" t="s">
+    </row>
+    <row r="36" spans="1:4" ht="33.75">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22" t="s">
+      <c r="D36" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="23" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="33.75">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22" t="s">
+      <c r="D37" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="23" t="s">
+    </row>
+    <row r="38" spans="1:4" ht="45">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22" t="s">
+      <c r="D38" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="23" t="s">
+    </row>
+    <row r="39" spans="1:4" ht="45">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22" t="s">
+      <c r="D39" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="23" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="90">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22" t="s">
+      <c r="D40" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="23" t="s">
+    </row>
+    <row r="41" spans="1:4" ht="45.75" thickBot="1">
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25" t="s">
+      <c r="D41" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D41" s="26" t="s">
+    </row>
+    <row r="42" spans="1:4" ht="147.75" customHeight="1" thickBot="1">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1">
+      <c r="A43" s="121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="29"/>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="122"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="123"/>
+    </row>
+    <row r="44" spans="1:4" ht="45">
+      <c r="A44" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="32"/>
-    </row>
-    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
+      <c r="B44" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="C44" s="95"/>
+      <c r="D44" s="54"/>
+    </row>
+    <row r="45" spans="1:4" ht="67.5">
+      <c r="A45" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="23"/>
-    </row>
-    <row r="45" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
+      <c r="B45" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="C45" s="95"/>
+      <c r="D45" s="54"/>
+    </row>
+    <row r="46" spans="1:4" ht="45">
+      <c r="A46" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="23"/>
-    </row>
-    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
+      <c r="B46" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="C46" s="95"/>
+      <c r="D46" s="54"/>
+    </row>
+    <row r="47" spans="1:4" ht="22.5">
+      <c r="A47" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="23"/>
-    </row>
-    <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
+      <c r="B47" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="C47" s="95"/>
+      <c r="D47" s="54"/>
+    </row>
+    <row r="48" spans="1:4" ht="33.75">
+      <c r="A48" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="23"/>
-    </row>
-    <row r="48" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
+      <c r="B48" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="C48" s="95"/>
+      <c r="D48" s="54"/>
+    </row>
+    <row r="49" spans="1:4" ht="67.5">
+      <c r="A49" s="4"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="23"/>
-    </row>
-    <row r="49" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22" t="s">
+      <c r="D49" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="D49" s="23" t="s">
+    </row>
+    <row r="50" spans="1:4" ht="45">
+      <c r="A50" s="4"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="95" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22" t="s">
+      <c r="D50" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="D50" s="23" t="s">
+    </row>
+    <row r="51" spans="1:4" ht="56.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="95" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22" t="s">
+      <c r="D51" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="D51" s="23" t="s">
+    </row>
+    <row r="52" spans="1:4" ht="102" thickBot="1">
+      <c r="A52" s="7"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="96" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="102" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25" t="s">
+      <c r="D52" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="D52" s="26" t="s">
+    </row>
+    <row r="53" spans="1:4" ht="342" customHeight="1">
+      <c r="A53" s="127" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="27"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="33"/>
-      <c r="B54" s="34" t="s">
+      <c r="B53" s="127"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="127"/>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1">
+      <c r="A54" s="128"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="128"/>
+    </row>
+    <row r="55" spans="1:4" ht="22.5">
+      <c r="A55" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-    </row>
-    <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="33" t="s">
+      <c r="B55" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4" ht="22.5">
+      <c r="A56" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="33" t="s">
+      <c r="B56" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4" ht="22.5">
+      <c r="A57" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="33" t="s">
+      <c r="B57" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" ht="22.5">
+      <c r="A58" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-    </row>
-    <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="33" t="s">
+      <c r="B58" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:4" ht="33.75">
+      <c r="A59" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-    </row>
-    <row r="59" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="33" t="s">
+      <c r="B59" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" ht="22.5">
+      <c r="A60" s="12"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-    </row>
-    <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="33"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22" t="s">
+      <c r="D60" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D60" s="22" t="s">
+    </row>
+    <row r="61" spans="1:4" ht="67.5">
+      <c r="A61" s="12"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="33"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22" t="s">
+      <c r="D61" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D61" s="22" t="s">
+    </row>
+    <row r="62" spans="1:4" ht="22.5">
+      <c r="A62" s="12"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="33"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22" t="s">
+      <c r="D62" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D62" s="22" t="s">
-        <v>156</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="4">
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A53:D54"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="129" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="C6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="C7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/Progression/Progression_Informatique_2014_2015.xlsx
+++ b/Progression/Progression_Informatique_2014_2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="11670" windowHeight="7860" activeTab="3"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="269">
   <si>
     <t>01/09/2014
 au
@@ -1117,9 +1117,6 @@
     <t>Introduction à l'algorithmique et à la programmation.</t>
   </si>
   <si>
-    <t>Horaire élève</t>
-  </si>
-  <si>
     <t>Activité</t>
   </si>
   <si>
@@ -1141,121 +1138,333 @@
     <t>11 heures</t>
   </si>
   <si>
-    <t>Séance 1 et 2</t>
-  </si>
-  <si>
-    <t>Séance 5</t>
-  </si>
-  <si>
-    <t>Séance 3 et 4</t>
-  </si>
-  <si>
-    <t>Séance 6</t>
-  </si>
-  <si>
-    <t>Séance 7</t>
-  </si>
-  <si>
     <t>TD d'application</t>
+  </si>
+  <si>
+    <t>Objectifs</t>
+  </si>
+  <si>
+    <t>Contenu</t>
+  </si>
+  <si>
+    <t>Décourir l'environnement Pyhon
+Découvrir les différents types de variables</t>
+  </si>
+  <si>
+    <t>Evaluation formative</t>
+  </si>
+  <si>
+    <t>Evaluation sommative</t>
+  </si>
+  <si>
+    <t>Découverte de l'interpréteur
+Découverte de l'éditeur
+Découverte des boucles
+Jeu du plus et moins
+Heures, minutes, secondes</t>
+  </si>
+  <si>
+    <t>Découverte des listes
+Découverte d'un premier algorithme de recherche
+Tracer des courbes</t>
+  </si>
+  <si>
+    <t>Courbe de polaire d'un profil d'une aile d'avion
+Tracer d'une courbe paramétrique
+Projet Solar Pi</t>
+  </si>
+  <si>
+    <t>Activités &amp; Compétences</t>
+  </si>
+  <si>
+    <t>Synnthèse sur les notions de variables, et expressions</t>
+  </si>
+  <si>
+    <t>Exemple : Algorithme d'Euclide
+Variables
+Expressions</t>
+  </si>
+  <si>
+    <t>Synthèse sur les fonctions et structures algorithmiques.</t>
+  </si>
+  <si>
+    <t>Exemple : Courbes de Bézier
+Rudiments
+Instructions conditionnelles
+Instructions ittératives</t>
+  </si>
+  <si>
+    <t>QCM 1, 2 et 3</t>
+  </si>
+  <si>
+    <t>Valider les compétences acquises à la séance de TP précédente.</t>
+  </si>
+  <si>
+    <t>Devoir surveillé 1</t>
+  </si>
+  <si>
+    <t>Horaires élève</t>
+  </si>
+  <si>
+    <t>ORGANISATION ELEVES</t>
+  </si>
+  <si>
+    <t>ORGANISATION PEDAGOGIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANALYSER le codage des nombres.
+ANALYSER un algorithme est expliquer ce qu'il fait. </t>
+  </si>
+  <si>
+    <t>Séances 1 et 2 (4 h)</t>
+  </si>
+  <si>
+    <t>Séances 3 et 4 (4h)</t>
+  </si>
+  <si>
+    <t>Séance 6
+(1h)</t>
+  </si>
+  <si>
+    <t>Séance 5
+(1h)</t>
+  </si>
+  <si>
+    <t>Séance 7
+(1h)</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Découverte</t>
+      <t>TP Découverte</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> de la programmation</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve"> de la programmation
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Découverte</t>
+      <t>ANALYSER</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> de l'algorithmique</t>
+      <t xml:space="preserve"> un problème
+Alg - C3, Alg - C5</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Synthèse</t>
+      <t>TP Découverte</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> programmation</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve"> de l'algorithmique
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Synthèse</t>
+      <t>ANALYSER</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> algorithmique</t>
+      <t xml:space="preserve"> et </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MODELISER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> une situation
+Alg - C2, Alg - C3, Ing - C3, Ing - C4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COURS Synthèse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> programmation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ANALYSER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Alg - C1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COURS Synthèse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> algorithmique
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ANALYSER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> et </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MODELISER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> une situation
+Alg - C1, Alg - C3, Alg - C4, Alg - C5</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1294,8 +1503,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1344,8 +1585,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1900,11 +2165,145 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2166,6 +2565,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2262,8 +2706,150 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2354,6 +2940,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2388,6 +2975,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2563,14 +3151,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="48" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" style="48" customWidth="1"/>
@@ -2582,7 +3170,7 @@
     <col min="10" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="12" thickBot="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="14" t="s">
@@ -2602,11 +3190,11 @@
       </c>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="45">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="141" t="s">
         <v>157</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -2621,11 +3209,11 @@
       </c>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="33.75">
+    <row r="3" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="119"/>
+      <c r="B3" s="142"/>
       <c r="C3" s="25" t="s">
         <v>47</v>
       </c>
@@ -2636,11 +3224,11 @@
       <c r="F3" s="28"/>
       <c r="G3" s="29"/>
     </row>
-    <row r="4" spans="1:8" ht="33.75">
+    <row r="4" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="119"/>
+      <c r="B4" s="142"/>
       <c r="C4" s="31" t="s">
         <v>184</v>
       </c>
@@ -2653,11 +3241,11 @@
       <c r="F4" s="33"/>
       <c r="G4" s="29"/>
     </row>
-    <row r="5" spans="1:8" ht="33.75">
+    <row r="5" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="119"/>
+      <c r="B5" s="142"/>
       <c r="C5" s="25" t="s">
         <v>50</v>
       </c>
@@ -2670,11 +3258,11 @@
       <c r="F5" s="33"/>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:8" ht="33.75">
+    <row r="6" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="119"/>
+      <c r="B6" s="142"/>
       <c r="C6" s="25" t="s">
         <v>51</v>
       </c>
@@ -2692,11 +3280,11 @@
       </c>
       <c r="H6" s="39"/>
     </row>
-    <row r="7" spans="1:8" ht="56.25">
+    <row r="7" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="119"/>
+      <c r="B7" s="142"/>
       <c r="C7" s="25" t="s">
         <v>52</v>
       </c>
@@ -2714,11 +3302,11 @@
       </c>
       <c r="H7" s="42"/>
     </row>
-    <row r="8" spans="1:8" ht="34.5" thickBot="1">
+    <row r="8" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="120"/>
+      <c r="B8" s="143"/>
       <c r="C8" s="44" t="s">
         <v>52</v>
       </c>
@@ -2729,49 +3317,49 @@
       <c r="F8" s="47"/>
       <c r="G8" s="47"/>
     </row>
-    <row r="9" spans="1:8" ht="12" thickBot="1">
+    <row r="9" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="49"/>
       <c r="D9" s="88"/>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
       <c r="G9" s="49"/>
     </row>
-    <row r="10" spans="1:8" ht="33.75">
+    <row r="10" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="99"/>
-    </row>
-    <row r="11" spans="1:8" ht="34.5" thickBot="1">
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="122"/>
+    </row>
+    <row r="11" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="100"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
-    </row>
-    <row r="12" spans="1:8" ht="12" thickBot="1">
+      <c r="B11" s="123"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
+    </row>
+    <row r="12" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="49"/>
       <c r="D12" s="88"/>
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
       <c r="G12" s="49"/>
     </row>
-    <row r="13" spans="1:8" ht="33.75">
+    <row r="13" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="126" t="s">
         <v>72</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -2790,11 +3378,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="33.75">
+    <row r="14" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="104"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="36" t="s">
         <v>159</v>
       </c>
@@ -2805,11 +3393,11 @@
       <c r="F14" s="56"/>
       <c r="G14" s="29"/>
     </row>
-    <row r="15" spans="1:8" ht="56.25">
+    <row r="15" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="104"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="36" t="s">
         <v>160</v>
       </c>
@@ -2826,11 +3414,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="33.75">
+    <row r="16" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="104"/>
+      <c r="B16" s="127"/>
       <c r="C16" s="40" t="s">
         <v>161</v>
       </c>
@@ -2841,11 +3429,11 @@
       <c r="F16" s="56"/>
       <c r="G16" s="29"/>
     </row>
-    <row r="17" spans="1:7" ht="45">
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="104"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="40" t="s">
         <v>161</v>
       </c>
@@ -2862,11 +3450,11 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="33.75">
+    <row r="18" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="104"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="40" t="s">
         <v>162</v>
       </c>
@@ -2881,11 +3469,11 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="34.5" thickBot="1">
+    <row r="19" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="105"/>
+      <c r="B19" s="128"/>
       <c r="C19" s="58" t="s">
         <v>162</v>
       </c>
@@ -2898,49 +3486,49 @@
       <c r="F19" s="61"/>
       <c r="G19" s="47"/>
     </row>
-    <row r="20" spans="1:7" ht="12" thickBot="1">
+    <row r="20" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C20" s="49"/>
       <c r="D20" s="88"/>
       <c r="E20" s="49"/>
       <c r="F20" s="49"/>
       <c r="G20" s="49"/>
     </row>
-    <row r="21" spans="1:7" ht="33.75">
+    <row r="21" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A21" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="99"/>
-    </row>
-    <row r="22" spans="1:7" ht="34.5" thickBot="1">
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="122"/>
+    </row>
+    <row r="22" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="102"/>
-    </row>
-    <row r="23" spans="1:7" ht="12" thickBot="1">
+      <c r="B22" s="123"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="125"/>
+    </row>
+    <row r="23" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="49"/>
       <c r="D23" s="88"/>
       <c r="E23" s="49"/>
       <c r="F23" s="49"/>
       <c r="G23" s="49"/>
     </row>
-    <row r="24" spans="1:7" ht="33.75">
+    <row r="24" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="126" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="20" t="s">
@@ -2955,11 +3543,11 @@
       <c r="F24" s="52"/>
       <c r="G24" s="62"/>
     </row>
-    <row r="25" spans="1:7" ht="33.75">
+    <row r="25" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="104"/>
+      <c r="B25" s="127"/>
       <c r="C25" s="36" t="s">
         <v>168</v>
       </c>
@@ -2970,11 +3558,11 @@
       <c r="F25" s="56"/>
       <c r="G25" s="29"/>
     </row>
-    <row r="26" spans="1:7" ht="34.5" thickBot="1">
+    <row r="26" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="105"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="64" t="s">
         <v>177</v>
       </c>
@@ -2987,11 +3575,11 @@
       <c r="F26" s="61"/>
       <c r="G26" s="47"/>
     </row>
-    <row r="27" spans="1:7" ht="45">
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="129" t="s">
         <v>158</v>
       </c>
       <c r="C27" s="65" t="s">
@@ -3006,11 +3594,11 @@
       <c r="F27" s="66"/>
       <c r="G27" s="67"/>
     </row>
-    <row r="28" spans="1:7" ht="33.75">
+    <row r="28" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="106"/>
+      <c r="B28" s="129"/>
       <c r="C28" s="68" t="s">
         <v>170</v>
       </c>
@@ -3023,11 +3611,11 @@
       <c r="F28" s="56"/>
       <c r="G28" s="29"/>
     </row>
-    <row r="29" spans="1:7" ht="45">
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="106"/>
+      <c r="B29" s="129"/>
       <c r="C29" s="68" t="s">
         <v>171</v>
       </c>
@@ -3042,11 +3630,11 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="34.5" thickBot="1">
+    <row r="30" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="107"/>
+      <c r="B30" s="130"/>
       <c r="C30" s="71" t="s">
         <v>171</v>
       </c>
@@ -3059,62 +3647,62 @@
       <c r="F30" s="61"/>
       <c r="G30" s="47"/>
     </row>
-    <row r="31" spans="1:7" ht="12" thickBot="1">
+    <row r="31" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C31" s="49"/>
       <c r="D31" s="88"/>
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
       <c r="G31" s="49"/>
     </row>
-    <row r="32" spans="1:7" ht="33.75">
+    <row r="32" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A32" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="97" t="s">
+      <c r="B32" s="120" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="99"/>
-    </row>
-    <row r="33" spans="1:7" ht="34.5" thickBot="1">
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="122"/>
+    </row>
+    <row r="33" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="100"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="102"/>
-    </row>
-    <row r="34" spans="1:7" ht="12" thickBot="1">
+      <c r="B33" s="123"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="124"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="125"/>
+    </row>
+    <row r="34" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C34" s="49"/>
       <c r="D34" s="88"/>
       <c r="E34" s="49"/>
       <c r="F34" s="49"/>
       <c r="G34" s="49"/>
     </row>
-    <row r="35" spans="1:7" ht="36" customHeight="1" thickBot="1">
+    <row r="35" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="115" t="s">
+      <c r="B35" s="138" t="s">
         <v>182</v>
       </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="117"/>
-    </row>
-    <row r="36" spans="1:7" ht="61.5" customHeight="1">
+      <c r="C35" s="139"/>
+      <c r="D35" s="139"/>
+      <c r="E35" s="139"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="140"/>
+    </row>
+    <row r="36" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="112" t="s">
+      <c r="B36" s="135" t="s">
         <v>158</v>
       </c>
       <c r="C36" s="74" t="s">
@@ -3129,11 +3717,11 @@
       <c r="F36" s="75"/>
       <c r="G36" s="66"/>
     </row>
-    <row r="37" spans="1:7" ht="33.75">
+    <row r="37" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="113"/>
+      <c r="B37" s="136"/>
       <c r="C37" s="76" t="s">
         <v>172</v>
       </c>
@@ -3146,11 +3734,11 @@
       <c r="F37" s="77"/>
       <c r="G37" s="56"/>
     </row>
-    <row r="38" spans="1:7" ht="33.75">
+    <row r="38" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="113"/>
+      <c r="B38" s="136"/>
       <c r="C38" s="78" t="s">
         <v>174</v>
       </c>
@@ -3163,11 +3751,11 @@
       <c r="F38" s="77"/>
       <c r="G38" s="56"/>
     </row>
-    <row r="39" spans="1:7" ht="33.75">
+    <row r="39" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="113"/>
+      <c r="B39" s="136"/>
       <c r="C39" s="78" t="s">
         <v>173</v>
       </c>
@@ -3180,11 +3768,11 @@
       <c r="F39" s="77"/>
       <c r="G39" s="56"/>
     </row>
-    <row r="40" spans="1:7" ht="33.75">
+    <row r="40" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="113"/>
+      <c r="B40" s="136"/>
       <c r="C40" s="78" t="s">
         <v>173</v>
       </c>
@@ -3199,11 +3787,11 @@
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="34.5" thickBot="1">
+    <row r="41" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="114"/>
+      <c r="B41" s="137"/>
       <c r="C41" s="79" t="s">
         <v>175</v>
       </c>
@@ -3216,49 +3804,49 @@
       <c r="F41" s="80"/>
       <c r="G41" s="61"/>
     </row>
-    <row r="42" spans="1:7" ht="12" thickBot="1">
+    <row r="42" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C42" s="49"/>
       <c r="D42" s="88"/>
       <c r="E42" s="49"/>
       <c r="F42" s="49"/>
       <c r="G42" s="49"/>
     </row>
-    <row r="43" spans="1:7" ht="33.75">
+    <row r="43" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A43" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="97" t="s">
+      <c r="B43" s="120" t="s">
         <v>166</v>
       </c>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="99"/>
-    </row>
-    <row r="44" spans="1:7" ht="34.5" thickBot="1">
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="121"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="122"/>
+    </row>
+    <row r="44" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="100"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="102"/>
-    </row>
-    <row r="45" spans="1:7" ht="12" thickBot="1">
+      <c r="B44" s="123"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="124"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="124"/>
+      <c r="G44" s="125"/>
+    </row>
+    <row r="45" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C45" s="49"/>
       <c r="D45" s="88"/>
       <c r="E45" s="49"/>
       <c r="F45" s="49"/>
       <c r="G45" s="49"/>
     </row>
-    <row r="46" spans="1:7" ht="36" customHeight="1">
+    <row r="46" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="111" t="s">
+      <c r="B46" s="134" t="s">
         <v>158</v>
       </c>
       <c r="C46" s="83" t="s">
@@ -3271,11 +3859,11 @@
       <c r="F46" s="52"/>
       <c r="G46" s="62"/>
     </row>
-    <row r="47" spans="1:7" ht="33.75">
+    <row r="47" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="106"/>
+      <c r="B47" s="129"/>
       <c r="C47" s="69" t="s">
         <v>179</v>
       </c>
@@ -3286,11 +3874,11 @@
       <c r="F47" s="56"/>
       <c r="G47" s="29"/>
     </row>
-    <row r="48" spans="1:7" ht="34.5" thickBot="1">
+    <row r="48" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="107"/>
+      <c r="B48" s="130"/>
       <c r="C48" s="69" t="s">
         <v>179</v>
       </c>
@@ -3301,11 +3889,11 @@
       <c r="F48" s="56"/>
       <c r="G48" s="29"/>
     </row>
-    <row r="49" spans="1:7" ht="33.75">
+    <row r="49" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="108" t="s">
+      <c r="B49" s="131" t="s">
         <v>167</v>
       </c>
       <c r="C49" s="85" t="s">
@@ -3320,11 +3908,11 @@
       <c r="F49" s="56"/>
       <c r="G49" s="29"/>
     </row>
-    <row r="50" spans="1:7" ht="33.75">
+    <row r="50" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="109"/>
+      <c r="B50" s="132"/>
       <c r="C50" s="85" t="s">
         <v>176</v>
       </c>
@@ -3339,11 +3927,11 @@
         <v>208</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="33.75">
+    <row r="51" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="109"/>
+      <c r="B51" s="132"/>
       <c r="C51" s="85" t="s">
         <v>176</v>
       </c>
@@ -3356,11 +3944,11 @@
       <c r="F51" s="56"/>
       <c r="G51" s="29"/>
     </row>
-    <row r="52" spans="1:7" ht="34.5" thickBot="1">
+    <row r="52" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="110"/>
+      <c r="B52" s="133"/>
       <c r="C52" s="86" t="s">
         <v>179</v>
       </c>
@@ -3373,29 +3961,29 @@
       <c r="F52" s="61"/>
       <c r="G52" s="47"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C53" s="49"/>
       <c r="D53" s="88"/>
       <c r="E53" s="49"/>
       <c r="F53" s="49"/>
       <c r="G53" s="49"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C56" s="23" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C57" s="30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C58" s="34" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C59" s="35" t="s">
         <v>139</v>
       </c>
@@ -3421,41 +4009,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>190</v>
       </c>
@@ -3467,30 +4055,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D62"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A55" zoomScale="110" zoomScaleNormal="85" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:D54"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="110" zoomScaleNormal="85" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="40.42578125" style="2" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="12" thickBot="1"/>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="124" t="s">
+    <row r="2" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-    </row>
-    <row r="4" spans="1:4" ht="33.75">
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+    </row>
+    <row r="4" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>58</v>
       </c>
@@ -3500,7 +4088,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="67.5">
+    <row r="5" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
@@ -3508,7 +4096,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="45">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -3516,7 +4104,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="22.5">
+    <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
@@ -3524,13 +4112,13 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="22.5">
+    <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>63</v>
       </c>
@@ -3540,7 +4128,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="33.75">
+    <row r="10" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>65</v>
       </c>
@@ -3552,7 +4140,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="56.25">
+    <row r="11" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
@@ -3562,7 +4150,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="79.5" thickBot="1">
+    <row r="12" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
@@ -3572,21 +4160,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="100.5" customHeight="1" thickBot="1">
+    <row r="13" spans="1:4" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="124" t="s">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="147" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="126"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" s="148"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="149"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
@@ -3596,7 +4184,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="22.5">
+    <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>75</v>
       </c>
@@ -3606,7 +4194,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="22.5">
+    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>77</v>
       </c>
@@ -3616,7 +4204,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>79</v>
       </c>
@@ -3626,7 +4214,7 @@
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="22.5">
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>81</v>
       </c>
@@ -3636,7 +4224,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="22.5">
+    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>83</v>
       </c>
@@ -3646,7 +4234,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>85</v>
       </c>
@@ -3656,7 +4244,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="22.5">
+    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>87</v>
       </c>
@@ -3666,7 +4254,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="33.75">
+    <row r="23" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
@@ -3674,7 +4262,7 @@
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="33.75">
+    <row r="24" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
@@ -3682,7 +4270,7 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="22.5">
+    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
@@ -3690,7 +4278,7 @@
       </c>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
@@ -3698,7 +4286,7 @@
       </c>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" ht="22.5">
+    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
@@ -3706,13 +4294,13 @@
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" ht="22.5">
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>94</v>
       </c>
@@ -3722,7 +4310,7 @@
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" ht="22.5">
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>96</v>
       </c>
@@ -3732,7 +4320,7 @@
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" ht="22.5">
+    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>98</v>
       </c>
@@ -3742,7 +4330,7 @@
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" ht="33.75">
+    <row r="32" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>100</v>
       </c>
@@ -3752,7 +4340,7 @@
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" ht="33.75">
+    <row r="33" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>102</v>
       </c>
@@ -3762,7 +4350,7 @@
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>104</v>
       </c>
@@ -3772,7 +4360,7 @@
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" ht="22.5">
+    <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
@@ -3782,7 +4370,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="33.75">
+    <row r="36" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
@@ -3792,7 +4380,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="33.75">
+    <row r="37" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
@@ -3802,7 +4390,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="45">
+    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
@@ -3812,7 +4400,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="45">
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
@@ -3822,7 +4410,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="90">
+    <row r="40" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
@@ -3832,7 +4420,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="45.75" thickBot="1">
+    <row r="41" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
@@ -3842,21 +4430,21 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="147.75" customHeight="1" thickBot="1">
+    <row r="42" spans="1:4" ht="147.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1">
-      <c r="A43" s="121" t="s">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="B43" s="122"/>
-      <c r="C43" s="122"/>
-      <c r="D43" s="123"/>
-    </row>
-    <row r="44" spans="1:4" ht="45">
+      <c r="B43" s="145"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="146"/>
+    </row>
+    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>121</v>
       </c>
@@ -3866,7 +4454,7 @@
       <c r="C44" s="95"/>
       <c r="D44" s="54"/>
     </row>
-    <row r="45" spans="1:4" ht="67.5">
+    <row r="45" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>123</v>
       </c>
@@ -3876,7 +4464,7 @@
       <c r="C45" s="95"/>
       <c r="D45" s="54"/>
     </row>
-    <row r="46" spans="1:4" ht="45">
+    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>125</v>
       </c>
@@ -3886,7 +4474,7 @@
       <c r="C46" s="95"/>
       <c r="D46" s="54"/>
     </row>
-    <row r="47" spans="1:4" ht="22.5">
+    <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>127</v>
       </c>
@@ -3896,7 +4484,7 @@
       <c r="C47" s="95"/>
       <c r="D47" s="54"/>
     </row>
-    <row r="48" spans="1:4" ht="33.75">
+    <row r="48" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>129</v>
       </c>
@@ -3906,7 +4494,7 @@
       <c r="C48" s="95"/>
       <c r="D48" s="54"/>
     </row>
-    <row r="49" spans="1:4" ht="67.5">
+    <row r="49" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="95"/>
       <c r="C49" s="95" t="s">
@@ -3916,7 +4504,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="45">
+    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="95"/>
       <c r="C50" s="95" t="s">
@@ -3926,7 +4514,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="56.25">
+    <row r="51" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="95"/>
       <c r="C51" s="95" t="s">
@@ -3936,7 +4524,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="102" thickBot="1">
+    <row r="52" spans="1:4" ht="102" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="96"/>
       <c r="C52" s="96" t="s">
@@ -3946,21 +4534,21 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="342" customHeight="1">
-      <c r="A53" s="127" t="s">
+    <row r="53" spans="1:4" ht="342" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="150" t="s">
         <v>139</v>
       </c>
-      <c r="B53" s="127"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="127"/>
-    </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1">
-      <c r="A54" s="128"/>
-      <c r="B54" s="128"/>
-      <c r="C54" s="128"/>
-      <c r="D54" s="128"/>
-    </row>
-    <row r="55" spans="1:4" ht="22.5">
+      <c r="B53" s="150"/>
+      <c r="C53" s="150"/>
+      <c r="D53" s="150"/>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="151"/>
+      <c r="B54" s="151"/>
+      <c r="C54" s="151"/>
+      <c r="D54" s="151"/>
+    </row>
+    <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>140</v>
       </c>
@@ -3970,7 +4558,7 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="1:4" ht="22.5">
+    <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
         <v>142</v>
       </c>
@@ -3980,7 +4568,7 @@
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:4" ht="22.5">
+    <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>144</v>
       </c>
@@ -3990,7 +4578,7 @@
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" ht="22.5">
+    <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>146</v>
       </c>
@@ -4000,7 +4588,7 @@
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" ht="33.75">
+    <row r="59" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
         <v>148</v>
       </c>
@@ -4010,7 +4598,7 @@
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" ht="22.5">
+    <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5" t="s">
@@ -4020,7 +4608,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="67.5">
+    <row r="61" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A61" s="12"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5" t="s">
@@ -4030,7 +4618,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="22.5">
+    <row r="62" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A62" s="12"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
@@ -4054,144 +4642,324 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="161" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" t="s">
+      <c r="B1" s="162"/>
+      <c r="C1" s="163" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" t="s">
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="164"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="152" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="171" t="s">
         <v>224</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="173" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="174" t="s">
+        <v>226</v>
+      </c>
+      <c r="G2" s="174"/>
+      <c r="H2" s="175"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="153"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="116"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="153"/>
+      <c r="B4" s="117" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="116"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="153"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="108" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="109" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="110" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="115"/>
+      <c r="G5" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="H2">
+      <c r="H5" s="100">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="B3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G3" t="s">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="153"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="111" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="102">
+        <v>4</v>
+      </c>
+      <c r="E6" s="105">
+        <v>8</v>
+      </c>
+      <c r="F6" s="115"/>
+      <c r="G6" s="101" t="s">
         <v>228</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H6" s="114" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="B5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="C6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="153"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="112" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="103">
+        <v>3</v>
+      </c>
+      <c r="E7" s="106">
+        <v>3</v>
+      </c>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="116"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="154"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="113" t="s">
         <v>233</v>
       </c>
-      <c r="D6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D8" s="104"/>
+      <c r="E8" s="107" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="C7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="C8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="C10" t="s">
-        <v>234</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="119"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="155" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="99"/>
+      <c r="C10" s="158" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159" t="s">
+        <v>241</v>
+      </c>
+      <c r="H10" s="160"/>
+    </row>
+    <row r="11" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="156"/>
+      <c r="B11" s="166" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="176" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="177"/>
+      <c r="E11" s="177" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="178"/>
+      <c r="G11" s="177" t="s">
+        <v>245</v>
+      </c>
+      <c r="H11" s="179"/>
+    </row>
+    <row r="12" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="156"/>
+      <c r="B12" s="167" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" s="180" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="181"/>
+      <c r="E12" s="181" t="s">
+        <v>246</v>
+      </c>
+      <c r="F12" s="182"/>
+      <c r="G12" s="181" t="s">
+        <v>247</v>
+      </c>
+      <c r="H12" s="183"/>
+    </row>
+    <row r="13" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="156"/>
+      <c r="B13" s="168" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="184" t="s">
+        <v>267</v>
+      </c>
+      <c r="D13" s="185"/>
+      <c r="E13" s="185" t="s">
+        <v>249</v>
+      </c>
+      <c r="F13" s="185"/>
+      <c r="G13" s="185" t="s">
+        <v>250</v>
+      </c>
+      <c r="H13" s="186"/>
+    </row>
+    <row r="14" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="156"/>
+      <c r="B14" s="168" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="184" t="s">
+        <v>268</v>
+      </c>
+      <c r="D14" s="185"/>
+      <c r="E14" s="185" t="s">
+        <v>251</v>
+      </c>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185" t="s">
+        <v>252</v>
+      </c>
+      <c r="H14" s="187"/>
+    </row>
+    <row r="15" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="156"/>
+      <c r="B15" s="170" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="188" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" t="s">
+      <c r="D15" s="189"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="190"/>
+    </row>
+    <row r="16" spans="1:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="156"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="191"/>
+      <c r="D16" s="191"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="191"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="156"/>
+      <c r="B17" s="165" t="s">
         <v>243</v>
       </c>
-      <c r="C15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" t="s">
+      <c r="C17" s="192" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" s="193"/>
+      <c r="E17" s="194" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="195"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="196"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="157"/>
+      <c r="B18" s="169" t="s">
         <v>244</v>
       </c>
-      <c r="C16" t="s">
-        <v>245</v>
-      </c>
+      <c r="C18" s="197" t="s">
+        <v>255</v>
+      </c>
+      <c r="D18" s="198"/>
+      <c r="E18" s="199" t="s">
+        <v>259</v>
+      </c>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="200"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="28">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Progression/Progression_Informatique_2014_2015.xlsx
+++ b/Progression/Progression_Informatique_2014_2015.xlsx
@@ -4646,7 +4646,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Progression/Progression_Informatique_2014_2015.xlsx
+++ b/Progression/Progression_Informatique_2014_2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="11670" windowHeight="7860" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="11670" windowHeight="7860" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Progression_2014_2015" sheetId="1" r:id="rId1"/>
@@ -2610,6 +2610,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2673,15 +2704,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2706,6 +2728,66 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2724,6 +2806,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2733,123 +2845,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3194,7 +3194,7 @@
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="128" t="s">
         <v>157</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -3213,7 +3213,7 @@
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="142"/>
+      <c r="B3" s="129"/>
       <c r="C3" s="25" t="s">
         <v>47</v>
       </c>
@@ -3228,7 +3228,7 @@
       <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="142"/>
+      <c r="B4" s="129"/>
       <c r="C4" s="31" t="s">
         <v>184</v>
       </c>
@@ -3245,7 +3245,7 @@
       <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="142"/>
+      <c r="B5" s="129"/>
       <c r="C5" s="25" t="s">
         <v>50</v>
       </c>
@@ -3262,7 +3262,7 @@
       <c r="A6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="142"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="25" t="s">
         <v>51</v>
       </c>
@@ -3284,7 +3284,7 @@
       <c r="A7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="142"/>
+      <c r="B7" s="129"/>
       <c r="C7" s="25" t="s">
         <v>52</v>
       </c>
@@ -3306,7 +3306,7 @@
       <c r="A8" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="143"/>
+      <c r="B8" s="130"/>
       <c r="C8" s="44" t="s">
         <v>52</v>
       </c>
@@ -3328,25 +3328,25 @@
       <c r="A10" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="122"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="133"/>
     </row>
     <row r="11" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="125"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="136"/>
     </row>
     <row r="12" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="49"/>
@@ -3359,7 +3359,7 @@
       <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="126" t="s">
+      <c r="B13" s="137" t="s">
         <v>72</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -3382,7 +3382,7 @@
       <c r="A14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="127"/>
+      <c r="B14" s="138"/>
       <c r="C14" s="36" t="s">
         <v>159</v>
       </c>
@@ -3397,7 +3397,7 @@
       <c r="A15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="127"/>
+      <c r="B15" s="138"/>
       <c r="C15" s="36" t="s">
         <v>160</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="A16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="127"/>
+      <c r="B16" s="138"/>
       <c r="C16" s="40" t="s">
         <v>161</v>
       </c>
@@ -3433,7 +3433,7 @@
       <c r="A17" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="127"/>
+      <c r="B17" s="138"/>
       <c r="C17" s="40" t="s">
         <v>161</v>
       </c>
@@ -3454,7 +3454,7 @@
       <c r="A18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="127"/>
+      <c r="B18" s="138"/>
       <c r="C18" s="40" t="s">
         <v>162</v>
       </c>
@@ -3473,7 +3473,7 @@
       <c r="A19" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="128"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="58" t="s">
         <v>162</v>
       </c>
@@ -3497,25 +3497,25 @@
       <c r="A21" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="131" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="121"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="122"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="133"/>
     </row>
     <row r="22" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="123"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="125"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="136"/>
     </row>
     <row r="23" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="49"/>
@@ -3528,7 +3528,7 @@
       <c r="A24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="126" t="s">
+      <c r="B24" s="137" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="20" t="s">
@@ -3547,7 +3547,7 @@
       <c r="A25" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="127"/>
+      <c r="B25" s="138"/>
       <c r="C25" s="36" t="s">
         <v>168</v>
       </c>
@@ -3562,7 +3562,7 @@
       <c r="A26" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="128"/>
+      <c r="B26" s="139"/>
       <c r="C26" s="64" t="s">
         <v>177</v>
       </c>
@@ -3579,7 +3579,7 @@
       <c r="A27" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="129" t="s">
+      <c r="B27" s="140" t="s">
         <v>158</v>
       </c>
       <c r="C27" s="65" t="s">
@@ -3598,7 +3598,7 @@
       <c r="A28" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="129"/>
+      <c r="B28" s="140"/>
       <c r="C28" s="68" t="s">
         <v>170</v>
       </c>
@@ -3615,7 +3615,7 @@
       <c r="A29" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="129"/>
+      <c r="B29" s="140"/>
       <c r="C29" s="68" t="s">
         <v>171</v>
       </c>
@@ -3634,7 +3634,7 @@
       <c r="A30" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="130"/>
+      <c r="B30" s="141"/>
       <c r="C30" s="71" t="s">
         <v>171</v>
       </c>
@@ -3658,25 +3658,25 @@
       <c r="A32" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="120" t="s">
+      <c r="B32" s="131" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="122"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="133"/>
     </row>
     <row r="33" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="123"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="124"/>
-      <c r="G33" s="125"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="136"/>
     </row>
     <row r="34" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C34" s="49"/>
@@ -3689,20 +3689,20 @@
       <c r="A35" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="138" t="s">
+      <c r="B35" s="149" t="s">
         <v>182</v>
       </c>
-      <c r="C35" s="139"/>
-      <c r="D35" s="139"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="140"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="151"/>
     </row>
     <row r="36" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="135" t="s">
+      <c r="B36" s="146" t="s">
         <v>158</v>
       </c>
       <c r="C36" s="74" t="s">
@@ -3721,7 +3721,7 @@
       <c r="A37" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="136"/>
+      <c r="B37" s="147"/>
       <c r="C37" s="76" t="s">
         <v>172</v>
       </c>
@@ -3738,7 +3738,7 @@
       <c r="A38" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="136"/>
+      <c r="B38" s="147"/>
       <c r="C38" s="78" t="s">
         <v>174</v>
       </c>
@@ -3755,7 +3755,7 @@
       <c r="A39" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="136"/>
+      <c r="B39" s="147"/>
       <c r="C39" s="78" t="s">
         <v>173</v>
       </c>
@@ -3772,7 +3772,7 @@
       <c r="A40" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="136"/>
+      <c r="B40" s="147"/>
       <c r="C40" s="78" t="s">
         <v>173</v>
       </c>
@@ -3791,7 +3791,7 @@
       <c r="A41" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="137"/>
+      <c r="B41" s="148"/>
       <c r="C41" s="79" t="s">
         <v>175</v>
       </c>
@@ -3815,25 +3815,25 @@
       <c r="A43" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="120" t="s">
+      <c r="B43" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="121"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="122"/>
+      <c r="C43" s="132"/>
+      <c r="D43" s="132"/>
+      <c r="E43" s="132"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="133"/>
     </row>
     <row r="44" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="123"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="124"/>
-      <c r="E44" s="124"/>
-      <c r="F44" s="124"/>
-      <c r="G44" s="125"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="135"/>
+      <c r="F44" s="135"/>
+      <c r="G44" s="136"/>
     </row>
     <row r="45" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C45" s="49"/>
@@ -3846,7 +3846,7 @@
       <c r="A46" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="134" t="s">
+      <c r="B46" s="145" t="s">
         <v>158</v>
       </c>
       <c r="C46" s="83" t="s">
@@ -3863,7 +3863,7 @@
       <c r="A47" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="129"/>
+      <c r="B47" s="140"/>
       <c r="C47" s="69" t="s">
         <v>179</v>
       </c>
@@ -3878,7 +3878,7 @@
       <c r="A48" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="130"/>
+      <c r="B48" s="141"/>
       <c r="C48" s="69" t="s">
         <v>179</v>
       </c>
@@ -3893,7 +3893,7 @@
       <c r="A49" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="131" t="s">
+      <c r="B49" s="142" t="s">
         <v>167</v>
       </c>
       <c r="C49" s="85" t="s">
@@ -3912,7 +3912,7 @@
       <c r="A50" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="132"/>
+      <c r="B50" s="143"/>
       <c r="C50" s="85" t="s">
         <v>176</v>
       </c>
@@ -3931,7 +3931,7 @@
       <c r="A51" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="132"/>
+      <c r="B51" s="143"/>
       <c r="C51" s="85" t="s">
         <v>176</v>
       </c>
@@ -3948,7 +3948,7 @@
       <c r="A52" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="133"/>
+      <c r="B52" s="144"/>
       <c r="C52" s="86" t="s">
         <v>179</v>
       </c>
@@ -3990,11 +3990,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B10:G11"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B21:G22"/>
-    <mergeCell ref="B32:G33"/>
     <mergeCell ref="B43:G44"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B30"/>
@@ -4002,6 +3997,11 @@
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="B36:B41"/>
     <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B10:G11"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B21:G22"/>
+    <mergeCell ref="B32:G33"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4071,12 +4071,12 @@
   <sheetData>
     <row r="2" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="157"/>
     </row>
     <row r="4" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -4167,12 +4167,12 @@
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="147" t="s">
+      <c r="A14" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="148"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="149"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="157"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -4437,12 +4437,12 @@
       <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="144" t="s">
+      <c r="A43" s="152" t="s">
         <v>120</v>
       </c>
-      <c r="B43" s="145"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="146"/>
+      <c r="B43" s="153"/>
+      <c r="C43" s="153"/>
+      <c r="D43" s="154"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
@@ -4535,18 +4535,18 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="342" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="150" t="s">
+      <c r="A53" s="158" t="s">
         <v>139</v>
       </c>
-      <c r="B53" s="150"/>
-      <c r="C53" s="150"/>
-      <c r="D53" s="150"/>
+      <c r="B53" s="158"/>
+      <c r="C53" s="158"/>
+      <c r="D53" s="158"/>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="151"/>
-      <c r="B54" s="151"/>
-      <c r="C54" s="151"/>
-      <c r="D54" s="151"/>
+      <c r="A54" s="159"/>
+      <c r="B54" s="159"/>
+      <c r="C54" s="159"/>
+      <c r="D54" s="159"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
@@ -4646,7 +4646,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4657,39 +4657,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="166" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="163" t="s">
+      <c r="B1" s="167"/>
+      <c r="C1" s="162" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="164"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="163"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="180" t="s">
         <v>257</v>
       </c>
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="188" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="173" t="s">
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="126" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="174" t="s">
+      <c r="F2" s="186" t="s">
         <v>226</v>
       </c>
-      <c r="G2" s="174"/>
-      <c r="H2" s="175"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="187"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="153"/>
+      <c r="A3" s="181"/>
       <c r="B3" s="115"/>
       <c r="C3" s="115"/>
       <c r="D3" s="115"/>
@@ -4699,7 +4699,7 @@
       <c r="H3" s="116"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="153"/>
+      <c r="A4" s="181"/>
       <c r="B4" s="117" t="s">
         <v>256</v>
       </c>
@@ -4711,7 +4711,7 @@
       <c r="H4" s="116"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="153"/>
+      <c r="A5" s="181"/>
       <c r="B5" s="115"/>
       <c r="C5" s="108" t="s">
         <v>232</v>
@@ -4727,11 +4727,11 @@
         <v>227</v>
       </c>
       <c r="H5" s="100">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="153"/>
+      <c r="A6" s="181"/>
       <c r="B6" s="115"/>
       <c r="C6" s="111" t="s">
         <v>235</v>
@@ -4751,7 +4751,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="153"/>
+      <c r="A7" s="181"/>
       <c r="B7" s="115"/>
       <c r="C7" s="112" t="s">
         <v>236</v>
@@ -4767,7 +4767,7 @@
       <c r="H7" s="116"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="154"/>
+      <c r="A8" s="182"/>
       <c r="B8" s="118"/>
       <c r="C8" s="113" t="s">
         <v>233</v>
@@ -4782,165 +4782,153 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="155" t="s">
+      <c r="A10" s="183" t="s">
         <v>258</v>
       </c>
       <c r="B10" s="99"/>
-      <c r="C10" s="158" t="s">
+      <c r="C10" s="196" t="s">
         <v>248</v>
       </c>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159" t="s">
+      <c r="D10" s="197"/>
+      <c r="E10" s="197" t="s">
         <v>240</v>
       </c>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159" t="s">
+      <c r="F10" s="197"/>
+      <c r="G10" s="197" t="s">
         <v>241</v>
       </c>
-      <c r="H10" s="160"/>
+      <c r="H10" s="198"/>
     </row>
     <row r="11" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="156"/>
-      <c r="B11" s="166" t="s">
+      <c r="A11" s="184"/>
+      <c r="B11" s="121" t="s">
         <v>260</v>
       </c>
-      <c r="C11" s="176" t="s">
+      <c r="C11" s="168" t="s">
         <v>265</v>
       </c>
-      <c r="D11" s="177"/>
-      <c r="E11" s="177" t="s">
+      <c r="D11" s="164"/>
+      <c r="E11" s="164" t="s">
         <v>242</v>
       </c>
-      <c r="F11" s="178"/>
-      <c r="G11" s="177" t="s">
+      <c r="F11" s="199"/>
+      <c r="G11" s="164" t="s">
         <v>245</v>
       </c>
-      <c r="H11" s="179"/>
+      <c r="H11" s="165"/>
     </row>
     <row r="12" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="156"/>
-      <c r="B12" s="167" t="s">
+      <c r="A12" s="184"/>
+      <c r="B12" s="122" t="s">
         <v>261</v>
       </c>
-      <c r="C12" s="180" t="s">
+      <c r="C12" s="169" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="181"/>
-      <c r="E12" s="181" t="s">
+      <c r="D12" s="170"/>
+      <c r="E12" s="170" t="s">
         <v>246</v>
       </c>
-      <c r="F12" s="182"/>
-      <c r="G12" s="181" t="s">
+      <c r="F12" s="200"/>
+      <c r="G12" s="170" t="s">
         <v>247</v>
       </c>
-      <c r="H12" s="183"/>
+      <c r="H12" s="175"/>
     </row>
     <row r="13" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="156"/>
-      <c r="B13" s="168" t="s">
+      <c r="A13" s="184"/>
+      <c r="B13" s="123" t="s">
         <v>263</v>
       </c>
-      <c r="C13" s="184" t="s">
+      <c r="C13" s="160" t="s">
         <v>267</v>
       </c>
-      <c r="D13" s="185"/>
-      <c r="E13" s="185" t="s">
+      <c r="D13" s="161"/>
+      <c r="E13" s="161" t="s">
         <v>249</v>
       </c>
-      <c r="F13" s="185"/>
-      <c r="G13" s="185" t="s">
+      <c r="F13" s="161"/>
+      <c r="G13" s="161" t="s">
         <v>250</v>
       </c>
-      <c r="H13" s="186"/>
+      <c r="H13" s="174"/>
     </row>
     <row r="14" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="156"/>
-      <c r="B14" s="168" t="s">
+      <c r="A14" s="184"/>
+      <c r="B14" s="123" t="s">
         <v>262</v>
       </c>
-      <c r="C14" s="184" t="s">
+      <c r="C14" s="160" t="s">
         <v>268</v>
       </c>
-      <c r="D14" s="185"/>
-      <c r="E14" s="185" t="s">
+      <c r="D14" s="161"/>
+      <c r="E14" s="161" t="s">
         <v>251</v>
       </c>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185" t="s">
+      <c r="F14" s="161"/>
+      <c r="G14" s="161" t="s">
         <v>252</v>
       </c>
-      <c r="H14" s="187"/>
+      <c r="H14" s="173"/>
     </row>
     <row r="15" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="156"/>
-      <c r="B15" s="170" t="s">
+      <c r="A15" s="184"/>
+      <c r="B15" s="125" t="s">
         <v>264</v>
       </c>
-      <c r="C15" s="188" t="s">
+      <c r="C15" s="195" t="s">
         <v>239</v>
       </c>
-      <c r="D15" s="189"/>
-      <c r="E15" s="189"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="190"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="172"/>
     </row>
     <row r="16" spans="1:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="156"/>
+      <c r="A16" s="184"/>
       <c r="B16" s="97"/>
-      <c r="C16" s="191"/>
-      <c r="D16" s="191"/>
-      <c r="E16" s="191"/>
-      <c r="F16" s="191"/>
-      <c r="G16" s="191"/>
-      <c r="H16" s="191"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="156"/>
-      <c r="B17" s="165" t="s">
+      <c r="A17" s="184"/>
+      <c r="B17" s="120" t="s">
         <v>243</v>
       </c>
-      <c r="C17" s="192" t="s">
+      <c r="C17" s="176" t="s">
         <v>253</v>
       </c>
-      <c r="D17" s="193"/>
-      <c r="E17" s="194" t="s">
+      <c r="D17" s="177"/>
+      <c r="E17" s="192" t="s">
         <v>254</v>
       </c>
-      <c r="F17" s="195"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="196"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="194"/>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="157"/>
-      <c r="B18" s="169" t="s">
+      <c r="A18" s="185"/>
+      <c r="B18" s="124" t="s">
         <v>244</v>
       </c>
-      <c r="C18" s="197" t="s">
+      <c r="C18" s="178" t="s">
         <v>255</v>
       </c>
-      <c r="D18" s="198"/>
-      <c r="E18" s="199" t="s">
+      <c r="D18" s="179"/>
+      <c r="E18" s="190" t="s">
         <v>259</v>
       </c>
-      <c r="F18" s="199"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="200"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="190"/>
+      <c r="H18" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G12:H12"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="A2:A8"/>
@@ -4957,6 +4945,18 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Progression/Progression_Informatique_2014_2015.xlsx
+++ b/Progression/Progression_Informatique_2014_2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="11670" windowHeight="7860" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="11670" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Progression_2014_2015" sheetId="1" r:id="rId1"/>
@@ -905,30 +905,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ANALYSER ET MODELISER </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Alg - C1, Alg - C3, Alg - C4, Alg - C5</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">MODELISER, CONCEVOIR, TRADUIRE
 </t>
     </r>
@@ -1457,6 +1433,30 @@
       </rPr>
       <t xml:space="preserve"> une situation
 Alg - C1, Alg - C3, Alg - C4, Alg - C5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ANALYSER ET MODELISER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Alg - C1, Alg - C2  Alg - C4, Alg - C10,  Alg - C11,  Alg - C13 Alg - C14</t>
     </r>
   </si>
 </sst>
@@ -2632,6 +2632,69 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2641,69 +2704,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2728,21 +2728,114 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2757,99 +2850,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3154,8 +3154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3194,7 +3194,7 @@
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="149" t="s">
         <v>157</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -3213,7 +3213,7 @@
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="129"/>
+      <c r="B3" s="150"/>
       <c r="C3" s="25" t="s">
         <v>47</v>
       </c>
@@ -3228,7 +3228,7 @@
       <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="129"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="31" t="s">
         <v>184</v>
       </c>
@@ -3245,7 +3245,7 @@
       <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="129"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="25" t="s">
         <v>50</v>
       </c>
@@ -3262,7 +3262,7 @@
       <c r="A6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="129"/>
+      <c r="B6" s="150"/>
       <c r="C6" s="25" t="s">
         <v>51</v>
       </c>
@@ -3284,7 +3284,7 @@
       <c r="A7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="129"/>
+      <c r="B7" s="150"/>
       <c r="C7" s="25" t="s">
         <v>52</v>
       </c>
@@ -3306,7 +3306,7 @@
       <c r="A8" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="130"/>
+      <c r="B8" s="151"/>
       <c r="C8" s="44" t="s">
         <v>52</v>
       </c>
@@ -3328,25 +3328,25 @@
       <c r="A10" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="128" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="133"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="130"/>
     </row>
     <row r="11" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="134"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="136"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="133"/>
     </row>
     <row r="12" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="49"/>
@@ -3359,7 +3359,7 @@
       <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="134" t="s">
         <v>72</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -3382,7 +3382,7 @@
       <c r="A14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="138"/>
+      <c r="B14" s="135"/>
       <c r="C14" s="36" t="s">
         <v>159</v>
       </c>
@@ -3393,22 +3393,22 @@
       <c r="F14" s="56"/>
       <c r="G14" s="29"/>
     </row>
-    <row r="15" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="138"/>
+      <c r="B15" s="135"/>
       <c r="C15" s="36" t="s">
         <v>160</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="E15" s="36" t="s">
         <v>199</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>204</v>
@@ -3418,12 +3418,12 @@
       <c r="A16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="138"/>
-      <c r="C16" s="40" t="s">
+      <c r="B16" s="135"/>
+      <c r="C16" s="36" t="s">
         <v>161</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E16" s="55"/>
       <c r="F16" s="56"/>
@@ -3433,18 +3433,18 @@
       <c r="A17" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="40" t="s">
+      <c r="B17" s="135"/>
+      <c r="C17" s="36" t="s">
         <v>161</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E17" s="36" t="s">
         <v>199</v>
       </c>
       <c r="F17" s="54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>205</v>
@@ -3454,31 +3454,31 @@
       <c r="A18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="138"/>
+      <c r="B18" s="135"/>
       <c r="C18" s="40" t="s">
         <v>162</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E18" s="36" t="s">
         <v>199</v>
       </c>
       <c r="F18" s="56"/>
       <c r="G18" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="139"/>
+      <c r="B19" s="136"/>
       <c r="C19" s="58" t="s">
         <v>162</v>
       </c>
       <c r="D19" s="59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E19" s="60" t="s">
         <v>194</v>
@@ -3497,25 +3497,25 @@
       <c r="A21" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="131" t="s">
+      <c r="B21" s="128" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="133"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="130"/>
     </row>
     <row r="22" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="136"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="133"/>
     </row>
     <row r="23" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="49"/>
@@ -3528,7 +3528,7 @@
       <c r="A24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="137" t="s">
+      <c r="B24" s="134" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="20" t="s">
@@ -3547,7 +3547,7 @@
       <c r="A25" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="138"/>
+      <c r="B25" s="135"/>
       <c r="C25" s="36" t="s">
         <v>168</v>
       </c>
@@ -3562,7 +3562,7 @@
       <c r="A26" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="139"/>
+      <c r="B26" s="136"/>
       <c r="C26" s="64" t="s">
         <v>177</v>
       </c>
@@ -3579,7 +3579,7 @@
       <c r="A27" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="140" t="s">
+      <c r="B27" s="137" t="s">
         <v>158</v>
       </c>
       <c r="C27" s="65" t="s">
@@ -3598,7 +3598,7 @@
       <c r="A28" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="140"/>
+      <c r="B28" s="137"/>
       <c r="C28" s="68" t="s">
         <v>170</v>
       </c>
@@ -3615,7 +3615,7 @@
       <c r="A29" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="140"/>
+      <c r="B29" s="137"/>
       <c r="C29" s="68" t="s">
         <v>171</v>
       </c>
@@ -3634,7 +3634,7 @@
       <c r="A30" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="141"/>
+      <c r="B30" s="138"/>
       <c r="C30" s="71" t="s">
         <v>171</v>
       </c>
@@ -3658,25 +3658,25 @@
       <c r="A32" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="131" t="s">
+      <c r="B32" s="128" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="132"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="133"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="130"/>
     </row>
     <row r="33" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="134"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="136"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="133"/>
     </row>
     <row r="34" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C34" s="49"/>
@@ -3689,20 +3689,20 @@
       <c r="A35" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="149" t="s">
+      <c r="B35" s="146" t="s">
         <v>182</v>
       </c>
-      <c r="C35" s="150"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="151"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="148"/>
     </row>
     <row r="36" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="146" t="s">
+      <c r="B36" s="143" t="s">
         <v>158</v>
       </c>
       <c r="C36" s="74" t="s">
@@ -3721,7 +3721,7 @@
       <c r="A37" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="147"/>
+      <c r="B37" s="144"/>
       <c r="C37" s="76" t="s">
         <v>172</v>
       </c>
@@ -3738,7 +3738,7 @@
       <c r="A38" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="147"/>
+      <c r="B38" s="144"/>
       <c r="C38" s="78" t="s">
         <v>174</v>
       </c>
@@ -3755,7 +3755,7 @@
       <c r="A39" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="147"/>
+      <c r="B39" s="144"/>
       <c r="C39" s="78" t="s">
         <v>173</v>
       </c>
@@ -3772,7 +3772,7 @@
       <c r="A40" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="147"/>
+      <c r="B40" s="144"/>
       <c r="C40" s="78" t="s">
         <v>173</v>
       </c>
@@ -3791,7 +3791,7 @@
       <c r="A41" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="148"/>
+      <c r="B41" s="145"/>
       <c r="C41" s="79" t="s">
         <v>175</v>
       </c>
@@ -3815,25 +3815,25 @@
       <c r="A43" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="131" t="s">
+      <c r="B43" s="128" t="s">
         <v>166</v>
       </c>
-      <c r="C43" s="132"/>
-      <c r="D43" s="132"/>
-      <c r="E43" s="132"/>
-      <c r="F43" s="132"/>
-      <c r="G43" s="133"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="130"/>
     </row>
     <row r="44" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="134"/>
-      <c r="C44" s="135"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="135"/>
-      <c r="F44" s="135"/>
-      <c r="G44" s="136"/>
+      <c r="B44" s="131"/>
+      <c r="C44" s="132"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="132"/>
+      <c r="F44" s="132"/>
+      <c r="G44" s="133"/>
     </row>
     <row r="45" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C45" s="49"/>
@@ -3846,7 +3846,7 @@
       <c r="A46" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="145" t="s">
+      <c r="B46" s="142" t="s">
         <v>158</v>
       </c>
       <c r="C46" s="83" t="s">
@@ -3863,7 +3863,7 @@
       <c r="A47" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="140"/>
+      <c r="B47" s="137"/>
       <c r="C47" s="69" t="s">
         <v>179</v>
       </c>
@@ -3878,7 +3878,7 @@
       <c r="A48" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="141"/>
+      <c r="B48" s="138"/>
       <c r="C48" s="69" t="s">
         <v>179</v>
       </c>
@@ -3893,14 +3893,14 @@
       <c r="A49" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="142" t="s">
+      <c r="B49" s="139" t="s">
         <v>167</v>
       </c>
       <c r="C49" s="85" t="s">
         <v>178</v>
       </c>
       <c r="D49" s="54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E49" s="55" t="s">
         <v>180</v>
@@ -3912,12 +3912,12 @@
       <c r="A50" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="143"/>
+      <c r="B50" s="140"/>
       <c r="C50" s="85" t="s">
         <v>176</v>
       </c>
       <c r="D50" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E50" s="55" t="s">
         <v>181</v>
@@ -3931,12 +3931,12 @@
       <c r="A51" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="143"/>
+      <c r="B51" s="140"/>
       <c r="C51" s="85" t="s">
         <v>176</v>
       </c>
       <c r="D51" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E51" s="55" t="s">
         <v>180</v>
@@ -3948,7 +3948,7 @@
       <c r="A52" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="144"/>
+      <c r="B52" s="141"/>
       <c r="C52" s="86" t="s">
         <v>179</v>
       </c>
@@ -3990,6 +3990,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B10:G11"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B21:G22"/>
+    <mergeCell ref="B32:G33"/>
     <mergeCell ref="B43:G44"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B30"/>
@@ -3997,11 +4002,6 @@
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="B36:B41"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B10:G11"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B21:G22"/>
-    <mergeCell ref="B32:G33"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4058,8 +4058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D62"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="110" zoomScaleNormal="85" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A24" zoomScale="110" zoomScaleNormal="85" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4645,8 +4645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4657,39 +4657,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="197" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="198"/>
+      <c r="C1" s="194" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="162" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="163"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="195"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="180" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" s="188" t="s">
+      <c r="A2" s="164" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="172" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="126" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="126" t="s">
+      <c r="F2" s="170" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="186" t="s">
-        <v>226</v>
-      </c>
-      <c r="G2" s="186"/>
-      <c r="H2" s="187"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="171"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="181"/>
+      <c r="A3" s="165"/>
       <c r="B3" s="115"/>
       <c r="C3" s="115"/>
       <c r="D3" s="115"/>
@@ -4699,9 +4699,9 @@
       <c r="H3" s="116"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="181"/>
+      <c r="A4" s="165"/>
       <c r="B4" s="117" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C4" s="115"/>
       <c r="D4" s="115"/>
@@ -4711,30 +4711,30 @@
       <c r="H4" s="116"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="181"/>
+      <c r="A5" s="165"/>
       <c r="B5" s="115"/>
       <c r="C5" s="108" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D5" s="109" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E5" s="110" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F5" s="115"/>
       <c r="G5" s="98" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H5" s="100">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="181"/>
+      <c r="A6" s="165"/>
       <c r="B6" s="115"/>
       <c r="C6" s="111" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D6" s="102">
         <v>4</v>
@@ -4744,17 +4744,17 @@
       </c>
       <c r="F6" s="115"/>
       <c r="G6" s="101" t="s">
+        <v>227</v>
+      </c>
+      <c r="H6" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="H6" s="114" t="s">
-        <v>229</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="181"/>
+      <c r="A7" s="165"/>
       <c r="B7" s="115"/>
       <c r="C7" s="112" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D7" s="103">
         <v>3</v>
@@ -4767,14 +4767,14 @@
       <c r="H7" s="116"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="182"/>
+      <c r="A8" s="166"/>
       <c r="B8" s="118"/>
       <c r="C8" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D8" s="104"/>
       <c r="E8" s="107" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F8" s="118"/>
       <c r="G8" s="118"/>
@@ -4782,111 +4782,111 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="183" t="s">
-        <v>258</v>
+      <c r="A10" s="167" t="s">
+        <v>257</v>
       </c>
       <c r="B10" s="99"/>
-      <c r="C10" s="196" t="s">
+      <c r="C10" s="181" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="182"/>
+      <c r="E10" s="182" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" s="182"/>
+      <c r="G10" s="182" t="s">
+        <v>240</v>
+      </c>
+      <c r="H10" s="183"/>
+    </row>
+    <row r="11" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="168"/>
+      <c r="B11" s="121" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="199" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" s="185"/>
+      <c r="G11" s="184" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" s="196"/>
+    </row>
+    <row r="12" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="168"/>
+      <c r="B12" s="122" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" s="200" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" s="186"/>
+      <c r="E12" s="186" t="s">
+        <v>245</v>
+      </c>
+      <c r="F12" s="187"/>
+      <c r="G12" s="186" t="s">
+        <v>246</v>
+      </c>
+      <c r="H12" s="192"/>
+    </row>
+    <row r="13" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="168"/>
+      <c r="B13" s="123" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="193" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="188"/>
+      <c r="E13" s="188" t="s">
         <v>248</v>
       </c>
-      <c r="D10" s="197"/>
-      <c r="E10" s="197" t="s">
-        <v>240</v>
-      </c>
-      <c r="F10" s="197"/>
-      <c r="G10" s="197" t="s">
-        <v>241</v>
-      </c>
-      <c r="H10" s="198"/>
-    </row>
-    <row r="11" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="184"/>
-      <c r="B11" s="121" t="s">
-        <v>260</v>
-      </c>
-      <c r="C11" s="168" t="s">
-        <v>265</v>
-      </c>
-      <c r="D11" s="164"/>
-      <c r="E11" s="164" t="s">
-        <v>242</v>
-      </c>
-      <c r="F11" s="199"/>
-      <c r="G11" s="164" t="s">
-        <v>245</v>
-      </c>
-      <c r="H11" s="165"/>
-    </row>
-    <row r="12" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="184"/>
-      <c r="B12" s="122" t="s">
+      <c r="F13" s="188"/>
+      <c r="G13" s="188" t="s">
+        <v>249</v>
+      </c>
+      <c r="H13" s="191"/>
+    </row>
+    <row r="14" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="168"/>
+      <c r="B14" s="123" t="s">
         <v>261</v>
       </c>
-      <c r="C12" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="D12" s="170"/>
-      <c r="E12" s="170" t="s">
-        <v>246</v>
-      </c>
-      <c r="F12" s="200"/>
-      <c r="G12" s="170" t="s">
-        <v>247</v>
-      </c>
-      <c r="H12" s="175"/>
-    </row>
-    <row r="13" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="184"/>
-      <c r="B13" s="123" t="s">
+      <c r="C14" s="193" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="188"/>
+      <c r="E14" s="188" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" s="188"/>
+      <c r="G14" s="188" t="s">
+        <v>251</v>
+      </c>
+      <c r="H14" s="190"/>
+    </row>
+    <row r="15" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="168"/>
+      <c r="B15" s="125" t="s">
         <v>263</v>
       </c>
-      <c r="C13" s="160" t="s">
-        <v>267</v>
-      </c>
-      <c r="D13" s="161"/>
-      <c r="E13" s="161" t="s">
-        <v>249</v>
-      </c>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161" t="s">
-        <v>250</v>
-      </c>
-      <c r="H13" s="174"/>
-    </row>
-    <row r="14" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="184"/>
-      <c r="B14" s="123" t="s">
-        <v>262</v>
-      </c>
-      <c r="C14" s="160" t="s">
-        <v>268</v>
-      </c>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161" t="s">
-        <v>251</v>
-      </c>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161" t="s">
-        <v>252</v>
-      </c>
-      <c r="H14" s="173"/>
-    </row>
-    <row r="15" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="184"/>
-      <c r="B15" s="125" t="s">
-        <v>264</v>
-      </c>
-      <c r="C15" s="195" t="s">
-        <v>239</v>
-      </c>
-      <c r="D15" s="171"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="172"/>
+      <c r="C15" s="179" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="180"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="189"/>
     </row>
     <row r="16" spans="1:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="184"/>
+      <c r="A16" s="168"/>
       <c r="B16" s="97"/>
       <c r="C16" s="127"/>
       <c r="D16" s="127"/>
@@ -4896,39 +4896,51 @@
       <c r="H16" s="127"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="184"/>
+      <c r="A17" s="168"/>
       <c r="B17" s="120" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17" s="160" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" s="161"/>
+      <c r="E17" s="176" t="s">
+        <v>253</v>
+      </c>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="178"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="169"/>
+      <c r="B18" s="124" t="s">
         <v>243</v>
       </c>
-      <c r="C17" s="176" t="s">
-        <v>253</v>
-      </c>
-      <c r="D17" s="177"/>
-      <c r="E17" s="192" t="s">
+      <c r="C18" s="162" t="s">
         <v>254</v>
       </c>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="194"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="185"/>
-      <c r="B18" s="124" t="s">
-        <v>244</v>
-      </c>
-      <c r="C18" s="178" t="s">
-        <v>255</v>
-      </c>
-      <c r="D18" s="179"/>
-      <c r="E18" s="190" t="s">
-        <v>259</v>
-      </c>
-      <c r="F18" s="190"/>
-      <c r="G18" s="190"/>
-      <c r="H18" s="191"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="174" t="s">
+        <v>258</v>
+      </c>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="A2:A8"/>
@@ -4945,18 +4957,6 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Progression/Progression_Informatique_2014_2015.xlsx
+++ b/Progression/Progression_Informatique_2014_2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="11670" windowHeight="7860"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="270">
   <si>
     <t>01/09/2014
 au
@@ -730,9 +730,6 @@
   </si>
   <si>
     <t>QCM 5</t>
-  </si>
-  <si>
-    <t>DS 3</t>
   </si>
   <si>
     <t>DS 5</t>
@@ -1458,6 +1455,12 @@
       <t xml:space="preserve">
 Alg - C1, Alg - C2  Alg - C4, Alg - C10,  Alg - C11,  Alg - C13 Alg - C14</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">DS 3 : Abaque du second ordre. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM 2 : etude de la circularité. </t>
   </si>
 </sst>
 </file>
@@ -2303,7 +2306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2632,6 +2635,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2695,15 +2707,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2728,6 +2731,54 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2788,9 +2839,6 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2801,54 +2849,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2860,6 +2866,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2908,7 +2917,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2943,7 +2952,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3154,8 +3163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3194,7 +3203,7 @@
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="128" t="s">
         <v>157</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -3213,12 +3222,12 @@
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="150"/>
+      <c r="B3" s="129"/>
       <c r="C3" s="25" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E3" s="27"/>
       <c r="F3" s="28"/>
@@ -3228,12 +3237,12 @@
       <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="150"/>
+      <c r="B4" s="129"/>
       <c r="C4" s="31" t="s">
         <v>184</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>48</v>
@@ -3245,12 +3254,12 @@
       <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="150"/>
+      <c r="B5" s="129"/>
       <c r="C5" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>49</v>
@@ -3262,18 +3271,18 @@
       <c r="A6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="150"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="25" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>196</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G6" s="38" t="s">
         <v>54</v>
@@ -3284,21 +3293,21 @@
       <c r="A7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="150"/>
+      <c r="B7" s="129"/>
       <c r="C7" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>197</v>
       </c>
       <c r="F7" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="41" t="s">
         <v>212</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>213</v>
       </c>
       <c r="H7" s="42"/>
     </row>
@@ -3306,12 +3315,12 @@
       <c r="A8" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="151"/>
+      <c r="B8" s="130"/>
       <c r="C8" s="44" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="47"/>
@@ -3328,25 +3337,25 @@
       <c r="A10" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="130"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="133"/>
     </row>
     <row r="11" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="131"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="133"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="136"/>
     </row>
     <row r="12" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="49"/>
@@ -3359,20 +3368,20 @@
       <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="134" t="s">
+      <c r="B13" s="137" t="s">
         <v>72</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>198</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G13" s="53" t="s">
         <v>56</v>
@@ -3382,12 +3391,12 @@
       <c r="A14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="135"/>
+      <c r="B14" s="138"/>
       <c r="C14" s="36" t="s">
         <v>159</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E14" s="55"/>
       <c r="F14" s="56"/>
@@ -3397,18 +3406,18 @@
       <c r="A15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="135"/>
+      <c r="B15" s="138"/>
       <c r="C15" s="36" t="s">
         <v>160</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E15" s="36" t="s">
         <v>199</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>204</v>
@@ -3418,12 +3427,12 @@
       <c r="A16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="135"/>
+      <c r="B16" s="138"/>
       <c r="C16" s="36" t="s">
         <v>161</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E16" s="55"/>
       <c r="F16" s="56"/>
@@ -3433,18 +3442,18 @@
       <c r="A17" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="135"/>
+      <c r="B17" s="138"/>
       <c r="C17" s="36" t="s">
         <v>161</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E17" s="36" t="s">
         <v>199</v>
       </c>
       <c r="F17" s="54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>205</v>
@@ -3454,31 +3463,31 @@
       <c r="A18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="135"/>
+      <c r="B18" s="138"/>
       <c r="C18" s="40" t="s">
         <v>162</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E18" s="36" t="s">
         <v>199</v>
       </c>
       <c r="F18" s="56"/>
       <c r="G18" s="37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="136"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="58" t="s">
         <v>162</v>
       </c>
       <c r="D19" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E19" s="60" t="s">
         <v>194</v>
@@ -3497,25 +3506,25 @@
       <c r="A21" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="128" t="s">
+      <c r="B21" s="131" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="130"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="133"/>
     </row>
     <row r="22" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="131"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="133"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="136"/>
     </row>
     <row r="23" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="49"/>
@@ -3528,7 +3537,7 @@
       <c r="A24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="134" t="s">
+      <c r="B24" s="137" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="20" t="s">
@@ -3547,7 +3556,7 @@
       <c r="A25" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="135"/>
+      <c r="B25" s="138"/>
       <c r="C25" s="36" t="s">
         <v>168</v>
       </c>
@@ -3562,7 +3571,7 @@
       <c r="A26" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="136"/>
+      <c r="B26" s="139"/>
       <c r="C26" s="64" t="s">
         <v>177</v>
       </c>
@@ -3579,7 +3588,7 @@
       <c r="A27" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="137" t="s">
+      <c r="B27" s="140" t="s">
         <v>158</v>
       </c>
       <c r="C27" s="65" t="s">
@@ -3598,7 +3607,7 @@
       <c r="A28" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="137"/>
+      <c r="B28" s="140"/>
       <c r="C28" s="68" t="s">
         <v>170</v>
       </c>
@@ -3615,7 +3624,7 @@
       <c r="A29" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="137"/>
+      <c r="B29" s="140"/>
       <c r="C29" s="68" t="s">
         <v>171</v>
       </c>
@@ -3626,15 +3635,15 @@
         <v>202</v>
       </c>
       <c r="F29" s="56"/>
-      <c r="G29" s="70" t="s">
-        <v>206</v>
+      <c r="G29" s="201" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="138"/>
+      <c r="B30" s="141"/>
       <c r="C30" s="71" t="s">
         <v>171</v>
       </c>
@@ -3645,7 +3654,9 @@
         <v>181</v>
       </c>
       <c r="F30" s="61"/>
-      <c r="G30" s="47"/>
+      <c r="G30" s="47" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C31" s="49"/>
@@ -3658,25 +3669,25 @@
       <c r="A32" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="128" t="s">
+      <c r="B32" s="131" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="129"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="130"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="133"/>
     </row>
     <row r="33" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="131"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="133"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="136"/>
     </row>
     <row r="34" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C34" s="49"/>
@@ -3689,20 +3700,20 @@
       <c r="A35" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="146" t="s">
+      <c r="B35" s="149" t="s">
         <v>182</v>
       </c>
-      <c r="C35" s="147"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="148"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="151"/>
     </row>
     <row r="36" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="143" t="s">
+      <c r="B36" s="146" t="s">
         <v>158</v>
       </c>
       <c r="C36" s="74" t="s">
@@ -3721,7 +3732,7 @@
       <c r="A37" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="144"/>
+      <c r="B37" s="147"/>
       <c r="C37" s="76" t="s">
         <v>172</v>
       </c>
@@ -3738,7 +3749,7 @@
       <c r="A38" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="144"/>
+      <c r="B38" s="147"/>
       <c r="C38" s="78" t="s">
         <v>174</v>
       </c>
@@ -3755,7 +3766,7 @@
       <c r="A39" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="144"/>
+      <c r="B39" s="147"/>
       <c r="C39" s="78" t="s">
         <v>173</v>
       </c>
@@ -3772,7 +3783,7 @@
       <c r="A40" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="144"/>
+      <c r="B40" s="147"/>
       <c r="C40" s="78" t="s">
         <v>173</v>
       </c>
@@ -3784,14 +3795,14 @@
       </c>
       <c r="F40" s="77"/>
       <c r="G40" s="63" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="145"/>
+      <c r="B41" s="148"/>
       <c r="C41" s="79" t="s">
         <v>175</v>
       </c>
@@ -3815,25 +3826,25 @@
       <c r="A43" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="128" t="s">
+      <c r="B43" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="C43" s="129"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="130"/>
+      <c r="C43" s="132"/>
+      <c r="D43" s="132"/>
+      <c r="E43" s="132"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="133"/>
     </row>
     <row r="44" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="131"/>
-      <c r="C44" s="132"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="132"/>
-      <c r="F44" s="132"/>
-      <c r="G44" s="133"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="135"/>
+      <c r="F44" s="135"/>
+      <c r="G44" s="136"/>
     </row>
     <row r="45" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C45" s="49"/>
@@ -3846,7 +3857,7 @@
       <c r="A46" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="142" t="s">
+      <c r="B46" s="145" t="s">
         <v>158</v>
       </c>
       <c r="C46" s="83" t="s">
@@ -3863,7 +3874,7 @@
       <c r="A47" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="137"/>
+      <c r="B47" s="140"/>
       <c r="C47" s="69" t="s">
         <v>179</v>
       </c>
@@ -3878,7 +3889,7 @@
       <c r="A48" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="138"/>
+      <c r="B48" s="141"/>
       <c r="C48" s="69" t="s">
         <v>179</v>
       </c>
@@ -3893,14 +3904,14 @@
       <c r="A49" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="139" t="s">
+      <c r="B49" s="142" t="s">
         <v>167</v>
       </c>
       <c r="C49" s="85" t="s">
         <v>178</v>
       </c>
       <c r="D49" s="54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E49" s="55" t="s">
         <v>180</v>
@@ -3912,31 +3923,31 @@
       <c r="A50" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="140"/>
+      <c r="B50" s="143"/>
       <c r="C50" s="85" t="s">
         <v>176</v>
       </c>
       <c r="D50" s="54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E50" s="55" t="s">
         <v>181</v>
       </c>
       <c r="F50" s="56"/>
       <c r="G50" s="70" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="140"/>
+      <c r="B51" s="143"/>
       <c r="C51" s="85" t="s">
         <v>176</v>
       </c>
       <c r="D51" s="54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E51" s="55" t="s">
         <v>180</v>
@@ -3948,7 +3959,7 @@
       <c r="A52" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="141"/>
+      <c r="B52" s="144"/>
       <c r="C52" s="86" t="s">
         <v>179</v>
       </c>
@@ -3990,11 +4001,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B10:G11"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B21:G22"/>
-    <mergeCell ref="B32:G33"/>
     <mergeCell ref="B43:G44"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B30"/>
@@ -4002,6 +4008,11 @@
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="B36:B41"/>
     <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B10:G11"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B21:G22"/>
+    <mergeCell ref="B32:G33"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4657,39 +4668,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="166" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="167"/>
+      <c r="C1" s="162" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="194" t="s">
-        <v>230</v>
-      </c>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="195"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="163"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="164" t="s">
-        <v>256</v>
-      </c>
-      <c r="B2" s="172" t="s">
+      <c r="A2" s="180" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="188" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="126" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="126" t="s">
+      <c r="F2" s="186" t="s">
         <v>224</v>
       </c>
-      <c r="F2" s="170" t="s">
-        <v>225</v>
-      </c>
-      <c r="G2" s="170"/>
-      <c r="H2" s="171"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="187"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="165"/>
+      <c r="A3" s="181"/>
       <c r="B3" s="115"/>
       <c r="C3" s="115"/>
       <c r="D3" s="115"/>
@@ -4699,9 +4710,9 @@
       <c r="H3" s="116"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="165"/>
+      <c r="A4" s="181"/>
       <c r="B4" s="117" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C4" s="115"/>
       <c r="D4" s="115"/>
@@ -4711,30 +4722,30 @@
       <c r="H4" s="116"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="165"/>
+      <c r="A5" s="181"/>
       <c r="B5" s="115"/>
       <c r="C5" s="108" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D5" s="109" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" s="110" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F5" s="115"/>
       <c r="G5" s="98" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H5" s="100">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="165"/>
+      <c r="A6" s="181"/>
       <c r="B6" s="115"/>
       <c r="C6" s="111" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="102">
         <v>4</v>
@@ -4744,17 +4755,17 @@
       </c>
       <c r="F6" s="115"/>
       <c r="G6" s="101" t="s">
+        <v>226</v>
+      </c>
+      <c r="H6" s="114" t="s">
         <v>227</v>
       </c>
-      <c r="H6" s="114" t="s">
-        <v>228</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="165"/>
+      <c r="A7" s="181"/>
       <c r="B7" s="115"/>
       <c r="C7" s="112" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D7" s="103">
         <v>3</v>
@@ -4767,14 +4778,14 @@
       <c r="H7" s="116"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="166"/>
+      <c r="A8" s="182"/>
       <c r="B8" s="118"/>
       <c r="C8" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D8" s="104"/>
       <c r="E8" s="107" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F8" s="118"/>
       <c r="G8" s="118"/>
@@ -4782,111 +4793,111 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="167" t="s">
-        <v>257</v>
+      <c r="A10" s="183" t="s">
+        <v>256</v>
       </c>
       <c r="B10" s="99"/>
-      <c r="C10" s="181" t="s">
+      <c r="C10" s="196" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" s="197"/>
+      <c r="E10" s="197" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="197"/>
+      <c r="G10" s="197" t="s">
+        <v>239</v>
+      </c>
+      <c r="H10" s="198"/>
+    </row>
+    <row r="11" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="184"/>
+      <c r="B11" s="121" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="168" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" s="164"/>
+      <c r="E11" s="164" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="199"/>
+      <c r="G11" s="164" t="s">
+        <v>243</v>
+      </c>
+      <c r="H11" s="165"/>
+    </row>
+    <row r="12" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="184"/>
+      <c r="B12" s="122" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="169" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="170"/>
+      <c r="E12" s="170" t="s">
+        <v>244</v>
+      </c>
+      <c r="F12" s="200"/>
+      <c r="G12" s="170" t="s">
+        <v>245</v>
+      </c>
+      <c r="H12" s="175"/>
+    </row>
+    <row r="13" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="184"/>
+      <c r="B13" s="123" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="160" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13" s="161"/>
+      <c r="E13" s="161" t="s">
         <v>247</v>
       </c>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182" t="s">
-        <v>239</v>
-      </c>
-      <c r="F10" s="182"/>
-      <c r="G10" s="182" t="s">
-        <v>240</v>
-      </c>
-      <c r="H10" s="183"/>
-    </row>
-    <row r="11" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="168"/>
-      <c r="B11" s="121" t="s">
-        <v>259</v>
-      </c>
-      <c r="C11" s="199" t="s">
-        <v>264</v>
-      </c>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184" t="s">
-        <v>241</v>
-      </c>
-      <c r="F11" s="185"/>
-      <c r="G11" s="184" t="s">
-        <v>244</v>
-      </c>
-      <c r="H11" s="196"/>
-    </row>
-    <row r="12" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="168"/>
-      <c r="B12" s="122" t="s">
+      <c r="F13" s="161"/>
+      <c r="G13" s="161" t="s">
+        <v>248</v>
+      </c>
+      <c r="H13" s="174"/>
+    </row>
+    <row r="14" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="184"/>
+      <c r="B14" s="123" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="200" t="s">
-        <v>265</v>
-      </c>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186" t="s">
-        <v>245</v>
-      </c>
-      <c r="F12" s="187"/>
-      <c r="G12" s="186" t="s">
-        <v>246</v>
-      </c>
-      <c r="H12" s="192"/>
-    </row>
-    <row r="13" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="168"/>
-      <c r="B13" s="123" t="s">
+      <c r="C14" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161" t="s">
+        <v>249</v>
+      </c>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161" t="s">
+        <v>250</v>
+      </c>
+      <c r="H14" s="173"/>
+    </row>
+    <row r="15" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="184"/>
+      <c r="B15" s="125" t="s">
         <v>262</v>
       </c>
-      <c r="C13" s="193" t="s">
-        <v>266</v>
-      </c>
-      <c r="D13" s="188"/>
-      <c r="E13" s="188" t="s">
-        <v>248</v>
-      </c>
-      <c r="F13" s="188"/>
-      <c r="G13" s="188" t="s">
-        <v>249</v>
-      </c>
-      <c r="H13" s="191"/>
-    </row>
-    <row r="14" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="168"/>
-      <c r="B14" s="123" t="s">
-        <v>261</v>
-      </c>
-      <c r="C14" s="193" t="s">
-        <v>267</v>
-      </c>
-      <c r="D14" s="188"/>
-      <c r="E14" s="188" t="s">
-        <v>250</v>
-      </c>
-      <c r="F14" s="188"/>
-      <c r="G14" s="188" t="s">
-        <v>251</v>
-      </c>
-      <c r="H14" s="190"/>
-    </row>
-    <row r="15" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="168"/>
-      <c r="B15" s="125" t="s">
-        <v>263</v>
-      </c>
-      <c r="C15" s="179" t="s">
-        <v>238</v>
-      </c>
-      <c r="D15" s="180"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="189"/>
+      <c r="C15" s="195" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="171"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="172"/>
     </row>
     <row r="16" spans="1:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="168"/>
+      <c r="A16" s="184"/>
       <c r="B16" s="97"/>
       <c r="C16" s="127"/>
       <c r="D16" s="127"/>
@@ -4896,51 +4907,39 @@
       <c r="H16" s="127"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="168"/>
+      <c r="A17" s="184"/>
       <c r="B17" s="120" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="176" t="s">
+        <v>251</v>
+      </c>
+      <c r="D17" s="177"/>
+      <c r="E17" s="192" t="s">
+        <v>252</v>
+      </c>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="194"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="185"/>
+      <c r="B18" s="124" t="s">
         <v>242</v>
       </c>
-      <c r="C17" s="160" t="s">
-        <v>252</v>
-      </c>
-      <c r="D17" s="161"/>
-      <c r="E17" s="176" t="s">
+      <c r="C18" s="178" t="s">
         <v>253</v>
       </c>
-      <c r="F17" s="177"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="178"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="169"/>
-      <c r="B18" s="124" t="s">
-        <v>243</v>
-      </c>
-      <c r="C18" s="162" t="s">
-        <v>254</v>
-      </c>
-      <c r="D18" s="163"/>
-      <c r="E18" s="174" t="s">
-        <v>258</v>
-      </c>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="175"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="190" t="s">
+        <v>257</v>
+      </c>
+      <c r="F18" s="190"/>
+      <c r="G18" s="190"/>
+      <c r="H18" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G12:H12"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="A2:A8"/>
@@ -4957,6 +4956,18 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Progression/Progression_Informatique_2014_2015.xlsx
+++ b/Progression/Progression_Informatique_2014_2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="11670" windowHeight="7860"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="276">
   <si>
     <t>01/09/2014
 au
@@ -645,16 +645,10 @@
     <t>Découverte des bases de données</t>
   </si>
   <si>
-    <t>"Tampon"</t>
-  </si>
-  <si>
     <t>TP XP EO</t>
   </si>
   <si>
     <t>TP EO</t>
-  </si>
-  <si>
-    <t>CONCOURS BLANC</t>
   </si>
   <si>
     <t>COURS (Semaine de l'ascension)</t>
@@ -730,9 +724,6 @@
   </si>
   <si>
     <t>QCM 5</t>
-  </si>
-  <si>
-    <t>DS 5</t>
   </si>
   <si>
     <t>DS 6</t>
@@ -1461,6 +1452,37 @@
   </si>
   <si>
     <t xml:space="preserve">DM 2 : etude de la circularité. </t>
+  </si>
+  <si>
+    <t>CONCOURS BLANC (DS 4)</t>
+  </si>
+  <si>
+    <t>DS 5 - D'après PSI Sujet 0</t>
+  </si>
+  <si>
+    <t>Ascension</t>
+  </si>
+  <si>
+    <t>Absent - Jury</t>
+  </si>
+  <si>
+    <t>Correction DS 5</t>
+  </si>
+  <si>
+    <t>TP XP EO
+Pivot de Gauss</t>
+  </si>
+  <si>
+    <t>TP EO
+Pivot de Gauss</t>
+  </si>
+  <si>
+    <t>TP XP EO
+BDD Aéroports du monde</t>
+  </si>
+  <si>
+    <t>TP EO
+BDD Aéroports du monde</t>
   </si>
 </sst>
 </file>
@@ -2466,9 +2488,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2635,6 +2654,72 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2644,69 +2729,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2731,10 +2753,106 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2743,9 +2861,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2761,100 +2876,7 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2917,7 +2939,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2952,7 +2974,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3163,8 +3185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3185,7 +3207,7 @@
       <c r="C1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="86" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="14" t="s">
@@ -3203,7 +3225,7 @@
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="149" t="s">
         <v>157</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -3211,10 +3233,10 @@
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G2" s="22"/>
     </row>
@@ -3222,12 +3244,12 @@
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="129"/>
+      <c r="B3" s="150"/>
       <c r="C3" s="25" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E3" s="27"/>
       <c r="F3" s="28"/>
@@ -3237,12 +3259,12 @@
       <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="129"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>48</v>
@@ -3254,12 +3276,12 @@
       <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="129"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>49</v>
@@ -3271,18 +3293,18 @@
       <c r="A6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="129"/>
+      <c r="B6" s="150"/>
       <c r="C6" s="25" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G6" s="38" t="s">
         <v>54</v>
@@ -3293,21 +3315,21 @@
       <c r="A7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="129"/>
+      <c r="B7" s="150"/>
       <c r="C7" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="41" t="s">
         <v>209</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>212</v>
       </c>
       <c r="H7" s="42"/>
     </row>
@@ -3315,12 +3337,12 @@
       <c r="A8" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="130"/>
+      <c r="B8" s="151"/>
       <c r="C8" s="44" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="47"/>
@@ -3328,7 +3350,7 @@
     </row>
     <row r="9" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="49"/>
-      <c r="D9" s="88"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
       <c r="G9" s="49"/>
@@ -3337,29 +3359,29 @@
       <c r="A10" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="128" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="133"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="130"/>
     </row>
     <row r="11" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="134"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="136"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="133"/>
     </row>
     <row r="12" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="49"/>
-      <c r="D12" s="88"/>
+      <c r="D12" s="87"/>
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
       <c r="G12" s="49"/>
@@ -3368,20 +3390,20 @@
       <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="134" t="s">
         <v>72</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G13" s="53" t="s">
         <v>56</v>
@@ -3391,12 +3413,12 @@
       <c r="A14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="138"/>
+      <c r="B14" s="135"/>
       <c r="C14" s="36" t="s">
         <v>159</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E14" s="55"/>
       <c r="F14" s="56"/>
@@ -3406,33 +3428,33 @@
       <c r="A15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="138"/>
+      <c r="B15" s="135"/>
       <c r="C15" s="36" t="s">
         <v>160</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="138"/>
+      <c r="B16" s="135"/>
       <c r="C16" s="36" t="s">
         <v>161</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E16" s="55"/>
       <c r="F16" s="56"/>
@@ -3442,62 +3464,62 @@
       <c r="A17" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="138"/>
+      <c r="B17" s="135"/>
       <c r="C17" s="36" t="s">
         <v>161</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F17" s="54" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="138"/>
+      <c r="B18" s="135"/>
       <c r="C18" s="40" t="s">
         <v>162</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F18" s="56"/>
       <c r="G18" s="37" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="139"/>
+      <c r="B19" s="136"/>
       <c r="C19" s="58" t="s">
         <v>162</v>
       </c>
       <c r="D19" s="59" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F19" s="61"/>
       <c r="G19" s="47"/>
     </row>
     <row r="20" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C20" s="49"/>
-      <c r="D20" s="88"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="49"/>
       <c r="F20" s="49"/>
       <c r="G20" s="49"/>
@@ -3506,29 +3528,29 @@
       <c r="A21" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="131" t="s">
+      <c r="B21" s="128" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="133"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="130"/>
     </row>
     <row r="22" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="136"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="133"/>
     </row>
     <row r="23" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="49"/>
-      <c r="D23" s="88"/>
+      <c r="D23" s="87"/>
       <c r="E23" s="49"/>
       <c r="F23" s="49"/>
       <c r="G23" s="49"/>
@@ -3537,17 +3559,17 @@
       <c r="A24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="137" t="s">
+      <c r="B24" s="134" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="89" t="s">
-        <v>191</v>
+      <c r="D24" s="88" t="s">
+        <v>189</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F24" s="52"/>
       <c r="G24" s="62"/>
@@ -3556,12 +3578,12 @@
       <c r="A25" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="138"/>
+      <c r="B25" s="135"/>
       <c r="C25" s="36" t="s">
         <v>168</v>
       </c>
       <c r="D25" s="57" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E25" s="55"/>
       <c r="F25" s="56"/>
@@ -3571,15 +3593,15 @@
       <c r="A26" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="139"/>
-      <c r="C26" s="64" t="s">
+      <c r="B26" s="136"/>
+      <c r="C26" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="90" t="s">
-        <v>191</v>
+      <c r="D26" s="89" t="s">
+        <v>189</v>
       </c>
       <c r="E26" s="58" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F26" s="61"/>
       <c r="G26" s="47"/>
@@ -3588,34 +3610,34 @@
       <c r="A27" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="140" t="s">
+      <c r="B27" s="137" t="s">
         <v>158</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="91" t="s">
-        <v>192</v>
-      </c>
-      <c r="E27" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="F27" s="66"/>
-      <c r="G27" s="67"/>
+      <c r="D27" s="90" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" s="65"/>
+      <c r="G27" s="66"/>
     </row>
     <row r="28" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="140"/>
-      <c r="C28" s="68" t="s">
+      <c r="B28" s="137"/>
+      <c r="C28" s="67" t="s">
         <v>170</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E28" s="55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F28" s="56"/>
       <c r="G28" s="29"/>
@@ -3624,74 +3646,74 @@
       <c r="A29" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="140"/>
-      <c r="C29" s="68" t="s">
+      <c r="B29" s="137"/>
+      <c r="C29" s="67" t="s">
         <v>171</v>
       </c>
       <c r="D29" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="E29" s="69" t="s">
-        <v>202</v>
+        <v>190</v>
+      </c>
+      <c r="E29" s="68" t="s">
+        <v>200</v>
       </c>
       <c r="F29" s="56"/>
-      <c r="G29" s="201" t="s">
-        <v>268</v>
+      <c r="G29" s="127" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="141"/>
-      <c r="C30" s="71" t="s">
+      <c r="B30" s="138"/>
+      <c r="C30" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="90" t="s">
-        <v>192</v>
+      <c r="D30" s="89" t="s">
+        <v>190</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F30" s="61"/>
       <c r="G30" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C31" s="49"/>
-      <c r="D31" s="88"/>
+      <c r="D31" s="87"/>
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
       <c r="G31" s="49"/>
     </row>
     <row r="32" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="131" t="s">
+      <c r="B32" s="128" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="132"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="133"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="130"/>
     </row>
     <row r="33" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="134"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="136"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="133"/>
     </row>
     <row r="34" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C34" s="49"/>
-      <c r="D34" s="88"/>
+      <c r="D34" s="87"/>
       <c r="E34" s="49"/>
       <c r="F34" s="49"/>
       <c r="G34" s="49"/>
@@ -3700,155 +3722,155 @@
       <c r="A35" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="149" t="s">
-        <v>182</v>
-      </c>
-      <c r="C35" s="150"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="151"/>
+      <c r="B35" s="146" t="s">
+        <v>267</v>
+      </c>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="148"/>
     </row>
     <row r="36" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="146" t="s">
+      <c r="B36" s="143" t="s">
         <v>158</v>
       </c>
-      <c r="C36" s="74" t="s">
+      <c r="C36" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="D36" s="92" t="s">
-        <v>192</v>
-      </c>
-      <c r="E36" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="F36" s="75"/>
-      <c r="G36" s="66"/>
+      <c r="D36" s="91" t="s">
+        <v>190</v>
+      </c>
+      <c r="E36" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="74"/>
+      <c r="G36" s="65"/>
     </row>
     <row r="37" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="147"/>
-      <c r="C37" s="76" t="s">
+      <c r="B37" s="144"/>
+      <c r="C37" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="D37" s="93" t="s">
-        <v>192</v>
-      </c>
-      <c r="E37" s="77" t="s">
-        <v>181</v>
-      </c>
-      <c r="F37" s="77"/>
+      <c r="D37" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="E37" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="F37" s="76"/>
       <c r="G37" s="56"/>
     </row>
     <row r="38" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="147"/>
-      <c r="C38" s="78" t="s">
+      <c r="B38" s="144"/>
+      <c r="C38" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="93" t="s">
-        <v>193</v>
-      </c>
-      <c r="E38" s="77" t="s">
-        <v>180</v>
-      </c>
-      <c r="F38" s="77"/>
+      <c r="D38" s="92" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="F38" s="76"/>
       <c r="G38" s="56"/>
     </row>
     <row r="39" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="147"/>
-      <c r="C39" s="78" t="s">
+      <c r="B39" s="144"/>
+      <c r="C39" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="D39" s="93" t="s">
-        <v>192</v>
-      </c>
-      <c r="E39" s="77" t="s">
-        <v>181</v>
-      </c>
-      <c r="F39" s="77"/>
+      <c r="D39" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" s="76"/>
       <c r="G39" s="56"/>
     </row>
     <row r="40" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="147"/>
-      <c r="C40" s="78" t="s">
+      <c r="B40" s="144"/>
+      <c r="C40" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="D40" s="93" t="s">
-        <v>192</v>
-      </c>
-      <c r="E40" s="77" t="s">
-        <v>180</v>
-      </c>
-      <c r="F40" s="77"/>
-      <c r="G40" s="63" t="s">
-        <v>206</v>
+      <c r="D40" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="E40" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" s="76"/>
+      <c r="G40" s="57" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="148"/>
-      <c r="C41" s="79" t="s">
+      <c r="B41" s="145"/>
+      <c r="C41" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="D41" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="E41" s="80" t="s">
-        <v>181</v>
-      </c>
-      <c r="F41" s="80"/>
+      <c r="D41" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="F41" s="79"/>
       <c r="G41" s="61"/>
     </row>
     <row r="42" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C42" s="49"/>
-      <c r="D42" s="88"/>
+      <c r="D42" s="87"/>
       <c r="E42" s="49"/>
       <c r="F42" s="49"/>
       <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="81" t="s">
+      <c r="A43" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="131" t="s">
+      <c r="B43" s="128" t="s">
         <v>166</v>
       </c>
-      <c r="C43" s="132"/>
-      <c r="D43" s="132"/>
-      <c r="E43" s="132"/>
-      <c r="F43" s="132"/>
-      <c r="G43" s="133"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="130"/>
     </row>
     <row r="44" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="82" t="s">
+      <c r="A44" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="134"/>
-      <c r="C44" s="135"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="135"/>
-      <c r="F44" s="135"/>
-      <c r="G44" s="136"/>
+      <c r="B44" s="131"/>
+      <c r="C44" s="132"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="132"/>
+      <c r="F44" s="132"/>
+      <c r="G44" s="133"/>
     </row>
     <row r="45" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C45" s="49"/>
-      <c r="D45" s="88"/>
+      <c r="D45" s="87"/>
       <c r="E45" s="49"/>
       <c r="F45" s="49"/>
       <c r="G45" s="49"/>
@@ -3857,15 +3879,15 @@
       <c r="A46" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="145" t="s">
+      <c r="B46" s="142" t="s">
         <v>158</v>
       </c>
-      <c r="C46" s="83" t="s">
-        <v>179</v>
+      <c r="C46" s="82" t="s">
+        <v>269</v>
       </c>
       <c r="D46" s="52"/>
-      <c r="E46" s="84" t="s">
-        <v>183</v>
+      <c r="E46" s="83" t="s">
+        <v>181</v>
       </c>
       <c r="F46" s="52"/>
       <c r="G46" s="62"/>
@@ -3874,13 +3896,13 @@
       <c r="A47" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="140"/>
-      <c r="C47" s="69" t="s">
-        <v>179</v>
+      <c r="B47" s="137"/>
+      <c r="C47" s="68" t="s">
+        <v>271</v>
       </c>
       <c r="D47" s="54"/>
-      <c r="E47" s="55" t="s">
-        <v>180</v>
+      <c r="E47" s="201" t="s">
+        <v>272</v>
       </c>
       <c r="F47" s="56"/>
       <c r="G47" s="29"/>
@@ -3889,13 +3911,13 @@
       <c r="A48" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="141"/>
-      <c r="C48" s="69" t="s">
-        <v>179</v>
+      <c r="B48" s="138"/>
+      <c r="C48" s="68" t="s">
+        <v>270</v>
       </c>
       <c r="D48" s="54"/>
-      <c r="E48" s="55" t="s">
-        <v>181</v>
+      <c r="E48" s="201" t="s">
+        <v>273</v>
       </c>
       <c r="F48" s="56"/>
       <c r="G48" s="29"/>
@@ -3904,17 +3926,17 @@
       <c r="A49" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="142" t="s">
+      <c r="B49" s="139" t="s">
         <v>167</v>
       </c>
-      <c r="C49" s="85" t="s">
+      <c r="C49" s="84" t="s">
         <v>178</v>
       </c>
       <c r="D49" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="E49" s="55" t="s">
-        <v>180</v>
+        <v>217</v>
+      </c>
+      <c r="E49" s="201" t="s">
+        <v>274</v>
       </c>
       <c r="F49" s="56"/>
       <c r="G49" s="29"/>
@@ -3923,35 +3945,31 @@
       <c r="A50" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="143"/>
-      <c r="C50" s="85" t="s">
+      <c r="B50" s="140"/>
+      <c r="C50" s="84" t="s">
         <v>176</v>
       </c>
       <c r="D50" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="E50" s="55" t="s">
-        <v>181</v>
+        <v>218</v>
+      </c>
+      <c r="E50" s="201" t="s">
+        <v>275</v>
       </c>
       <c r="F50" s="56"/>
-      <c r="G50" s="70" t="s">
-        <v>207</v>
+      <c r="G50" s="69" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="143"/>
-      <c r="C51" s="85" t="s">
+      <c r="B51" s="140"/>
+      <c r="C51" s="84" t="s">
         <v>176</v>
       </c>
-      <c r="D51" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="E51" s="55" t="s">
-        <v>180</v>
-      </c>
+      <c r="D51" s="54"/>
+      <c r="E51" s="55"/>
       <c r="F51" s="56"/>
       <c r="G51" s="29"/>
     </row>
@@ -3959,22 +3977,16 @@
       <c r="A52" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="144"/>
-      <c r="C52" s="86" t="s">
-        <v>179</v>
-      </c>
-      <c r="D52" s="90" t="s">
-        <v>192</v>
-      </c>
-      <c r="E52" s="46" t="s">
-        <v>181</v>
-      </c>
+      <c r="B52" s="141"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="46"/>
       <c r="F52" s="61"/>
       <c r="G52" s="47"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C53" s="49"/>
-      <c r="D53" s="88"/>
+      <c r="D53" s="87"/>
       <c r="E53" s="49"/>
       <c r="F53" s="49"/>
       <c r="G53" s="49"/>
@@ -4001,6 +4013,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B10:G11"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B21:G22"/>
+    <mergeCell ref="B32:G33"/>
     <mergeCell ref="B43:G44"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B30"/>
@@ -4008,11 +4025,6 @@
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="B36:B41"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B10:G11"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B21:G22"/>
-    <mergeCell ref="B32:G33"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4031,32 +4043,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4459,56 +4471,56 @@
       <c r="A44" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B44" s="95" t="s">
+      <c r="B44" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="95"/>
+      <c r="C44" s="94"/>
       <c r="D44" s="54"/>
     </row>
     <row r="45" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B45" s="95" t="s">
+      <c r="B45" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="95"/>
+      <c r="C45" s="94"/>
       <c r="D45" s="54"/>
     </row>
     <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B46" s="95" t="s">
+      <c r="B46" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="C46" s="95"/>
+      <c r="C46" s="94"/>
       <c r="D46" s="54"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B47" s="95" t="s">
+      <c r="B47" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="95"/>
+      <c r="C47" s="94"/>
       <c r="D47" s="54"/>
     </row>
     <row r="48" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B48" s="95" t="s">
+      <c r="B48" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="95"/>
+      <c r="C48" s="94"/>
       <c r="D48" s="54"/>
     </row>
     <row r="49" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
-      <c r="B49" s="95"/>
-      <c r="C49" s="95" t="s">
+      <c r="B49" s="94"/>
+      <c r="C49" s="94" t="s">
         <v>131</v>
       </c>
       <c r="D49" s="54" t="s">
@@ -4517,8 +4529,8 @@
     </row>
     <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="95" t="s">
+      <c r="B50" s="94"/>
+      <c r="C50" s="94" t="s">
         <v>133</v>
       </c>
       <c r="D50" s="54" t="s">
@@ -4527,8 +4539,8 @@
     </row>
     <row r="51" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="95"/>
-      <c r="C51" s="95" t="s">
+      <c r="B51" s="94"/>
+      <c r="C51" s="94" t="s">
         <v>135</v>
       </c>
       <c r="D51" s="54" t="s">
@@ -4537,8 +4549,8 @@
     </row>
     <row r="52" spans="1:4" ht="102" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="96" t="s">
+      <c r="B52" s="95"/>
+      <c r="C52" s="95" t="s">
         <v>137</v>
       </c>
       <c r="D52" s="59" t="s">
@@ -4668,278 +4680,290 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="197" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="198"/>
+      <c r="C1" s="194" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="195"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="164" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="172" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="125" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="170" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="170"/>
+      <c r="H2" s="171"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="165"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="115"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="165"/>
+      <c r="B4" s="116" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="115"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="165"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="107" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="108" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="109" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="114"/>
+      <c r="G5" s="97" t="s">
+        <v>222</v>
+      </c>
+      <c r="H5" s="99">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="165"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="110" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="101">
+        <v>4</v>
+      </c>
+      <c r="E6" s="104">
+        <v>8</v>
+      </c>
+      <c r="F6" s="114"/>
+      <c r="G6" s="100" t="s">
+        <v>223</v>
+      </c>
+      <c r="H6" s="113" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="165"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="111" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="102">
+        <v>3</v>
+      </c>
+      <c r="E7" s="105">
+        <v>3</v>
+      </c>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="115"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="166"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="112" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="162" t="s">
-        <v>229</v>
-      </c>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="163"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="180" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="188" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="126" t="s">
-        <v>223</v>
-      </c>
-      <c r="F2" s="186" t="s">
-        <v>224</v>
-      </c>
-      <c r="G2" s="186"/>
-      <c r="H2" s="187"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="181"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="116"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="181"/>
-      <c r="B4" s="117" t="s">
-        <v>254</v>
-      </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="116"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="181"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="108" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="109" t="s">
-        <v>232</v>
-      </c>
-      <c r="E5" s="110" t="s">
-        <v>235</v>
-      </c>
-      <c r="F5" s="115"/>
-      <c r="G5" s="98" t="s">
-        <v>225</v>
-      </c>
-      <c r="H5" s="100">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="181"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="111" t="s">
+      <c r="D8" s="103"/>
+      <c r="E8" s="106" t="s">
         <v>233</v>
       </c>
-      <c r="D6" s="102">
-        <v>4</v>
-      </c>
-      <c r="E6" s="105">
-        <v>8</v>
-      </c>
-      <c r="F6" s="115"/>
-      <c r="G6" s="101" t="s">
-        <v>226</v>
-      </c>
-      <c r="H6" s="114" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="181"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="112" t="s">
-        <v>234</v>
-      </c>
-      <c r="D7" s="103">
-        <v>3</v>
-      </c>
-      <c r="E7" s="106">
-        <v>3</v>
-      </c>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="116"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="182"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="113" t="s">
-        <v>231</v>
-      </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="107" t="s">
-        <v>236</v>
-      </c>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="119"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="118"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="183" t="s">
+      <c r="A10" s="167" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" s="98"/>
+      <c r="C10" s="181" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" s="182"/>
+      <c r="E10" s="182" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="182"/>
+      <c r="G10" s="182" t="s">
+        <v>236</v>
+      </c>
+      <c r="H10" s="183"/>
+    </row>
+    <row r="11" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="168"/>
+      <c r="B11" s="120" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="199" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" s="185"/>
+      <c r="G11" s="184" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" s="196"/>
+    </row>
+    <row r="12" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="168"/>
+      <c r="B12" s="121" t="s">
         <v>256</v>
       </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="196" t="s">
+      <c r="C12" s="200" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="186"/>
+      <c r="E12" s="186" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" s="187"/>
+      <c r="G12" s="186" t="s">
+        <v>242</v>
+      </c>
+      <c r="H12" s="192"/>
+    </row>
+    <row r="13" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="168"/>
+      <c r="B13" s="122" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="193" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" s="188"/>
+      <c r="E13" s="188" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13" s="188"/>
+      <c r="G13" s="188" t="s">
+        <v>245</v>
+      </c>
+      <c r="H13" s="191"/>
+    </row>
+    <row r="14" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="168"/>
+      <c r="B14" s="122" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="193" t="s">
+        <v>263</v>
+      </c>
+      <c r="D14" s="188"/>
+      <c r="E14" s="188" t="s">
         <v>246</v>
       </c>
-      <c r="D10" s="197"/>
-      <c r="E10" s="197" t="s">
+      <c r="F14" s="188"/>
+      <c r="G14" s="188" t="s">
+        <v>247</v>
+      </c>
+      <c r="H14" s="190"/>
+    </row>
+    <row r="15" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="168"/>
+      <c r="B15" s="124" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" s="179" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="180"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="189"/>
+    </row>
+    <row r="16" spans="1:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="168"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="126"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="168"/>
+      <c r="B17" s="119" t="s">
         <v>238</v>
       </c>
-      <c r="F10" s="197"/>
-      <c r="G10" s="197" t="s">
+      <c r="C17" s="160" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="161"/>
+      <c r="E17" s="176" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="178"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="169"/>
+      <c r="B18" s="123" t="s">
         <v>239</v>
       </c>
-      <c r="H10" s="198"/>
-    </row>
-    <row r="11" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="184"/>
-      <c r="B11" s="121" t="s">
-        <v>258</v>
-      </c>
-      <c r="C11" s="168" t="s">
-        <v>263</v>
-      </c>
-      <c r="D11" s="164"/>
-      <c r="E11" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="F11" s="199"/>
-      <c r="G11" s="164" t="s">
-        <v>243</v>
-      </c>
-      <c r="H11" s="165"/>
-    </row>
-    <row r="12" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="184"/>
-      <c r="B12" s="122" t="s">
-        <v>259</v>
-      </c>
-      <c r="C12" s="169" t="s">
-        <v>264</v>
-      </c>
-      <c r="D12" s="170"/>
-      <c r="E12" s="170" t="s">
-        <v>244</v>
-      </c>
-      <c r="F12" s="200"/>
-      <c r="G12" s="170" t="s">
-        <v>245</v>
-      </c>
-      <c r="H12" s="175"/>
-    </row>
-    <row r="13" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="184"/>
-      <c r="B13" s="123" t="s">
-        <v>261</v>
-      </c>
-      <c r="C13" s="160" t="s">
-        <v>265</v>
-      </c>
-      <c r="D13" s="161"/>
-      <c r="E13" s="161" t="s">
-        <v>247</v>
-      </c>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161" t="s">
-        <v>248</v>
-      </c>
-      <c r="H13" s="174"/>
-    </row>
-    <row r="14" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="184"/>
-      <c r="B14" s="123" t="s">
-        <v>260</v>
-      </c>
-      <c r="C14" s="160" t="s">
-        <v>266</v>
-      </c>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161" t="s">
-        <v>249</v>
-      </c>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161" t="s">
+      <c r="C18" s="162" t="s">
         <v>250</v>
       </c>
-      <c r="H14" s="173"/>
-    </row>
-    <row r="15" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="184"/>
-      <c r="B15" s="125" t="s">
-        <v>262</v>
-      </c>
-      <c r="C15" s="195" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" s="171"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="172"/>
-    </row>
-    <row r="16" spans="1:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="184"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="184"/>
-      <c r="B17" s="120" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17" s="176" t="s">
-        <v>251</v>
-      </c>
-      <c r="D17" s="177"/>
-      <c r="E17" s="192" t="s">
-        <v>252</v>
-      </c>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="194"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="185"/>
-      <c r="B18" s="124" t="s">
-        <v>242</v>
-      </c>
-      <c r="C18" s="178" t="s">
-        <v>253</v>
-      </c>
-      <c r="D18" s="179"/>
-      <c r="E18" s="190" t="s">
-        <v>257</v>
-      </c>
-      <c r="F18" s="190"/>
-      <c r="G18" s="190"/>
-      <c r="H18" s="191"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="174" t="s">
+        <v>254</v>
+      </c>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="A2:A8"/>
@@ -4956,18 +4980,6 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Progression/Progression_Informatique_2014_2015.xlsx
+++ b/Progression/Progression_Informatique_2014_2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="11670" windowHeight="7860"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="11670" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Progression_2014_2015" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="284">
   <si>
     <t>01/09/2014
 au
@@ -1483,6 +1483,33 @@
   <si>
     <t>TP EO
 BDD Aéroports du monde</t>
+  </si>
+  <si>
+    <t>Partie 5 - Algorithme et programmation - Suite</t>
+  </si>
+  <si>
+    <t>Alg - C15</t>
+  </si>
+  <si>
+    <t>Récursivité - Avantages et inconvénients</t>
+  </si>
+  <si>
+    <t>Alg - C16</t>
+  </si>
+  <si>
+    <t>Piles - Algorithmes de manipulation : fonctions «push» et «pop».</t>
+  </si>
+  <si>
+    <t>Alg - C17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tris d’un tableau à une dimension de
+valeurs numériques. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tri par insertion, tri rapide (ou « quicksort »), tri par fusion.
+Application à la recherche de la médiane d’une liste de nombres. 
+On étudie et on compare ces algorithmes de tri du point de vue des complexités temporelles dans le meilleur et dans le pire cas. </t>
   </si>
 </sst>
 </file>
@@ -2328,7 +2355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2657,6 +2684,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2720,15 +2759,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2747,11 +2777,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2813,9 +2885,6 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2826,58 +2895,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3185,7 +3222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
@@ -3225,7 +3262,7 @@
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="129" t="s">
         <v>157</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -3244,7 +3281,7 @@
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="150"/>
+      <c r="B3" s="130"/>
       <c r="C3" s="25" t="s">
         <v>47</v>
       </c>
@@ -3259,7 +3296,7 @@
       <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="150"/>
+      <c r="B4" s="130"/>
       <c r="C4" s="31" t="s">
         <v>182</v>
       </c>
@@ -3276,7 +3313,7 @@
       <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="150"/>
+      <c r="B5" s="130"/>
       <c r="C5" s="25" t="s">
         <v>50</v>
       </c>
@@ -3293,7 +3330,7 @@
       <c r="A6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="150"/>
+      <c r="B6" s="130"/>
       <c r="C6" s="25" t="s">
         <v>51</v>
       </c>
@@ -3315,7 +3352,7 @@
       <c r="A7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="150"/>
+      <c r="B7" s="130"/>
       <c r="C7" s="25" t="s">
         <v>52</v>
       </c>
@@ -3337,7 +3374,7 @@
       <c r="A8" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="151"/>
+      <c r="B8" s="131"/>
       <c r="C8" s="44" t="s">
         <v>52</v>
       </c>
@@ -3359,25 +3396,25 @@
       <c r="A10" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="132" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="130"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="134"/>
     </row>
     <row r="11" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="131"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="133"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="137"/>
     </row>
     <row r="12" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="49"/>
@@ -3390,7 +3427,7 @@
       <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="134" t="s">
+      <c r="B13" s="138" t="s">
         <v>72</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -3413,7 +3450,7 @@
       <c r="A14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="135"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="36" t="s">
         <v>159</v>
       </c>
@@ -3428,7 +3465,7 @@
       <c r="A15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="135"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="36" t="s">
         <v>160</v>
       </c>
@@ -3449,7 +3486,7 @@
       <c r="A16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="135"/>
+      <c r="B16" s="139"/>
       <c r="C16" s="36" t="s">
         <v>161</v>
       </c>
@@ -3464,7 +3501,7 @@
       <c r="A17" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="135"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="36" t="s">
         <v>161</v>
       </c>
@@ -3485,7 +3522,7 @@
       <c r="A18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="135"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="40" t="s">
         <v>162</v>
       </c>
@@ -3504,7 +3541,7 @@
       <c r="A19" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="136"/>
+      <c r="B19" s="140"/>
       <c r="C19" s="58" t="s">
         <v>162</v>
       </c>
@@ -3528,25 +3565,25 @@
       <c r="A21" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="128" t="s">
+      <c r="B21" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="130"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="134"/>
     </row>
     <row r="22" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="131"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="133"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="137"/>
     </row>
     <row r="23" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="49"/>
@@ -3559,7 +3596,7 @@
       <c r="A24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="134" t="s">
+      <c r="B24" s="138" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="20" t="s">
@@ -3578,7 +3615,7 @@
       <c r="A25" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="135"/>
+      <c r="B25" s="139"/>
       <c r="C25" s="36" t="s">
         <v>168</v>
       </c>
@@ -3593,7 +3630,7 @@
       <c r="A26" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="136"/>
+      <c r="B26" s="140"/>
       <c r="C26" s="63" t="s">
         <v>177</v>
       </c>
@@ -3610,7 +3647,7 @@
       <c r="A27" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="137" t="s">
+      <c r="B27" s="141" t="s">
         <v>158</v>
       </c>
       <c r="C27" s="64" t="s">
@@ -3629,7 +3666,7 @@
       <c r="A28" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="137"/>
+      <c r="B28" s="141"/>
       <c r="C28" s="67" t="s">
         <v>170</v>
       </c>
@@ -3646,7 +3683,7 @@
       <c r="A29" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="137"/>
+      <c r="B29" s="141"/>
       <c r="C29" s="67" t="s">
         <v>171</v>
       </c>
@@ -3665,7 +3702,7 @@
       <c r="A30" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="138"/>
+      <c r="B30" s="142"/>
       <c r="C30" s="70" t="s">
         <v>171</v>
       </c>
@@ -3691,25 +3728,25 @@
       <c r="A32" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="128" t="s">
+      <c r="B32" s="132" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="129"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="130"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="134"/>
     </row>
     <row r="33" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="131"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="133"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="136"/>
+      <c r="D33" s="136"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="137"/>
     </row>
     <row r="34" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C34" s="49"/>
@@ -3722,20 +3759,20 @@
       <c r="A35" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="146" t="s">
+      <c r="B35" s="150" t="s">
         <v>267</v>
       </c>
-      <c r="C35" s="147"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="148"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="152"/>
     </row>
     <row r="36" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="143" t="s">
+      <c r="B36" s="147" t="s">
         <v>158</v>
       </c>
       <c r="C36" s="73" t="s">
@@ -3754,7 +3791,7 @@
       <c r="A37" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="144"/>
+      <c r="B37" s="148"/>
       <c r="C37" s="75" t="s">
         <v>172</v>
       </c>
@@ -3771,7 +3808,7 @@
       <c r="A38" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="144"/>
+      <c r="B38" s="148"/>
       <c r="C38" s="77" t="s">
         <v>174</v>
       </c>
@@ -3788,7 +3825,7 @@
       <c r="A39" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="144"/>
+      <c r="B39" s="148"/>
       <c r="C39" s="77" t="s">
         <v>173</v>
       </c>
@@ -3805,7 +3842,7 @@
       <c r="A40" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="144"/>
+      <c r="B40" s="148"/>
       <c r="C40" s="77" t="s">
         <v>173</v>
       </c>
@@ -3824,7 +3861,7 @@
       <c r="A41" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="145"/>
+      <c r="B41" s="149"/>
       <c r="C41" s="78" t="s">
         <v>175</v>
       </c>
@@ -3848,25 +3885,25 @@
       <c r="A43" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="128" t="s">
+      <c r="B43" s="132" t="s">
         <v>166</v>
       </c>
-      <c r="C43" s="129"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="130"/>
+      <c r="C43" s="133"/>
+      <c r="D43" s="133"/>
+      <c r="E43" s="133"/>
+      <c r="F43" s="133"/>
+      <c r="G43" s="134"/>
     </row>
     <row r="44" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="131"/>
-      <c r="C44" s="132"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="132"/>
-      <c r="F44" s="132"/>
-      <c r="G44" s="133"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="136"/>
+      <c r="D44" s="136"/>
+      <c r="E44" s="136"/>
+      <c r="F44" s="136"/>
+      <c r="G44" s="137"/>
     </row>
     <row r="45" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C45" s="49"/>
@@ -3879,7 +3916,7 @@
       <c r="A46" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="142" t="s">
+      <c r="B46" s="146" t="s">
         <v>158</v>
       </c>
       <c r="C46" s="82" t="s">
@@ -3896,12 +3933,12 @@
       <c r="A47" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="137"/>
+      <c r="B47" s="141"/>
       <c r="C47" s="68" t="s">
         <v>271</v>
       </c>
       <c r="D47" s="54"/>
-      <c r="E47" s="201" t="s">
+      <c r="E47" s="128" t="s">
         <v>272</v>
       </c>
       <c r="F47" s="56"/>
@@ -3911,12 +3948,12 @@
       <c r="A48" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="138"/>
+      <c r="B48" s="142"/>
       <c r="C48" s="68" t="s">
         <v>270</v>
       </c>
       <c r="D48" s="54"/>
-      <c r="E48" s="201" t="s">
+      <c r="E48" s="128" t="s">
         <v>273</v>
       </c>
       <c r="F48" s="56"/>
@@ -3926,7 +3963,7 @@
       <c r="A49" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="139" t="s">
+      <c r="B49" s="143" t="s">
         <v>167</v>
       </c>
       <c r="C49" s="84" t="s">
@@ -3935,7 +3972,7 @@
       <c r="D49" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="E49" s="201" t="s">
+      <c r="E49" s="128" t="s">
         <v>274</v>
       </c>
       <c r="F49" s="56"/>
@@ -3945,14 +3982,14 @@
       <c r="A50" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="140"/>
+      <c r="B50" s="144"/>
       <c r="C50" s="84" t="s">
         <v>176</v>
       </c>
       <c r="D50" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="E50" s="201" t="s">
+      <c r="E50" s="128" t="s">
         <v>275</v>
       </c>
       <c r="F50" s="56"/>
@@ -3964,7 +4001,7 @@
       <c r="A51" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="140"/>
+      <c r="B51" s="144"/>
       <c r="C51" s="84" t="s">
         <v>176</v>
       </c>
@@ -3977,7 +4014,7 @@
       <c r="A52" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="141"/>
+      <c r="B52" s="145"/>
       <c r="C52" s="85"/>
       <c r="D52" s="89"/>
       <c r="E52" s="46"/>
@@ -4013,11 +4050,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B10:G11"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B21:G22"/>
-    <mergeCell ref="B32:G33"/>
     <mergeCell ref="B43:G44"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B30"/>
@@ -4025,6 +4057,11 @@
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="B36:B41"/>
     <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B10:G11"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B21:G22"/>
+    <mergeCell ref="B32:G33"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4036,7 +4073,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4079,10 +4116,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D62"/>
+  <dimension ref="A2:D67"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A24" zoomScale="110" zoomScaleNormal="85" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4094,12 +4131,12 @@
   <sheetData>
     <row r="2" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="158"/>
     </row>
     <row r="4" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -4183,19 +4220,19 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="155" t="s">
+      <c r="A14" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="156"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="157"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="158"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -4453,19 +4490,19 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="147.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="152" t="s">
+      <c r="A43" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="B43" s="153"/>
-      <c r="C43" s="153"/>
-      <c r="D43" s="154"/>
+      <c r="B43" s="154"/>
+      <c r="C43" s="154"/>
+      <c r="D43" s="155"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
@@ -4557,29 +4594,28 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="342" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="158" t="s">
+    <row r="53" spans="1:4" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="200"/>
+      <c r="C53" s="200"/>
+      <c r="D53" s="200"/>
+    </row>
+    <row r="54" spans="1:4" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="203" t="s">
         <v>139</v>
       </c>
-      <c r="B53" s="158"/>
-      <c r="C53" s="158"/>
-      <c r="D53" s="158"/>
-    </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="159"/>
-      <c r="B54" s="159"/>
-      <c r="C54" s="159"/>
-      <c r="D54" s="159"/>
+      <c r="B54" s="204"/>
+      <c r="C54" s="204"/>
+      <c r="D54" s="205"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="201" t="s">
         <v>140</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="202" t="s">
         <v>141</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="C55" s="202"/>
+      <c r="D55" s="202"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
@@ -4641,7 +4677,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
@@ -4651,12 +4687,58 @@
         <v>155</v>
       </c>
     </row>
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="200"/>
+      <c r="C63" s="200"/>
+      <c r="D63" s="200"/>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="203" t="s">
+        <v>276</v>
+      </c>
+      <c r="B64" s="204"/>
+      <c r="C64" s="204"/>
+      <c r="D64" s="205"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="201" t="s">
+        <v>277</v>
+      </c>
+      <c r="B65" s="202" t="s">
+        <v>278</v>
+      </c>
+      <c r="C65" s="202"/>
+      <c r="D65" s="202"/>
+    </row>
+    <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D67" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="A64:D64"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="A54:D54"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4680,39 +4762,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="165" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="194" t="s">
+      <c r="B1" s="166"/>
+      <c r="C1" s="161" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="195"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="162"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="179" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="187" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
       <c r="E2" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="F2" s="170" t="s">
+      <c r="F2" s="185" t="s">
         <v>221</v>
       </c>
-      <c r="G2" s="170"/>
-      <c r="H2" s="171"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="186"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="165"/>
+      <c r="A3" s="180"/>
       <c r="B3" s="114"/>
       <c r="C3" s="114"/>
       <c r="D3" s="114"/>
@@ -4722,7 +4804,7 @@
       <c r="H3" s="115"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="165"/>
+      <c r="A4" s="180"/>
       <c r="B4" s="116" t="s">
         <v>251</v>
       </c>
@@ -4734,7 +4816,7 @@
       <c r="H4" s="115"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="165"/>
+      <c r="A5" s="180"/>
       <c r="B5" s="114"/>
       <c r="C5" s="107" t="s">
         <v>227</v>
@@ -4754,7 +4836,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="165"/>
+      <c r="A6" s="180"/>
       <c r="B6" s="114"/>
       <c r="C6" s="110" t="s">
         <v>230</v>
@@ -4774,7 +4856,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="165"/>
+      <c r="A7" s="180"/>
       <c r="B7" s="114"/>
       <c r="C7" s="111" t="s">
         <v>231</v>
@@ -4790,7 +4872,7 @@
       <c r="H7" s="115"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="166"/>
+      <c r="A8" s="181"/>
       <c r="B8" s="117"/>
       <c r="C8" s="112" t="s">
         <v>228</v>
@@ -4805,111 +4887,111 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="167" t="s">
+      <c r="A10" s="182" t="s">
         <v>253</v>
       </c>
       <c r="B10" s="98"/>
-      <c r="C10" s="181" t="s">
+      <c r="C10" s="195" t="s">
         <v>243</v>
       </c>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182" t="s">
+      <c r="D10" s="196"/>
+      <c r="E10" s="196" t="s">
         <v>235</v>
       </c>
-      <c r="F10" s="182"/>
-      <c r="G10" s="182" t="s">
+      <c r="F10" s="196"/>
+      <c r="G10" s="196" t="s">
         <v>236</v>
       </c>
-      <c r="H10" s="183"/>
+      <c r="H10" s="197"/>
     </row>
     <row r="11" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="168"/>
+      <c r="A11" s="183"/>
       <c r="B11" s="120" t="s">
         <v>255</v>
       </c>
-      <c r="C11" s="199" t="s">
+      <c r="C11" s="167" t="s">
         <v>260</v>
       </c>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184" t="s">
+      <c r="D11" s="163"/>
+      <c r="E11" s="163" t="s">
         <v>237</v>
       </c>
-      <c r="F11" s="185"/>
-      <c r="G11" s="184" t="s">
+      <c r="F11" s="198"/>
+      <c r="G11" s="163" t="s">
         <v>240</v>
       </c>
-      <c r="H11" s="196"/>
+      <c r="H11" s="164"/>
     </row>
     <row r="12" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="168"/>
+      <c r="A12" s="183"/>
       <c r="B12" s="121" t="s">
         <v>256</v>
       </c>
-      <c r="C12" s="200" t="s">
+      <c r="C12" s="168" t="s">
         <v>261</v>
       </c>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186" t="s">
+      <c r="D12" s="169"/>
+      <c r="E12" s="169" t="s">
         <v>241</v>
       </c>
-      <c r="F12" s="187"/>
-      <c r="G12" s="186" t="s">
+      <c r="F12" s="199"/>
+      <c r="G12" s="169" t="s">
         <v>242</v>
       </c>
-      <c r="H12" s="192"/>
+      <c r="H12" s="174"/>
     </row>
     <row r="13" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="168"/>
+      <c r="A13" s="183"/>
       <c r="B13" s="122" t="s">
         <v>258</v>
       </c>
-      <c r="C13" s="193" t="s">
+      <c r="C13" s="159" t="s">
         <v>262</v>
       </c>
-      <c r="D13" s="188"/>
-      <c r="E13" s="188" t="s">
+      <c r="D13" s="160"/>
+      <c r="E13" s="160" t="s">
         <v>244</v>
       </c>
-      <c r="F13" s="188"/>
-      <c r="G13" s="188" t="s">
+      <c r="F13" s="160"/>
+      <c r="G13" s="160" t="s">
         <v>245</v>
       </c>
-      <c r="H13" s="191"/>
+      <c r="H13" s="173"/>
     </row>
     <row r="14" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="168"/>
+      <c r="A14" s="183"/>
       <c r="B14" s="122" t="s">
         <v>257</v>
       </c>
-      <c r="C14" s="193" t="s">
+      <c r="C14" s="159" t="s">
         <v>263</v>
       </c>
-      <c r="D14" s="188"/>
-      <c r="E14" s="188" t="s">
+      <c r="D14" s="160"/>
+      <c r="E14" s="160" t="s">
         <v>246</v>
       </c>
-      <c r="F14" s="188"/>
-      <c r="G14" s="188" t="s">
+      <c r="F14" s="160"/>
+      <c r="G14" s="160" t="s">
         <v>247</v>
       </c>
-      <c r="H14" s="190"/>
+      <c r="H14" s="172"/>
     </row>
     <row r="15" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="168"/>
+      <c r="A15" s="183"/>
       <c r="B15" s="124" t="s">
         <v>259</v>
       </c>
-      <c r="C15" s="179" t="s">
+      <c r="C15" s="194" t="s">
         <v>234</v>
       </c>
-      <c r="D15" s="180"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="189"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="171"/>
     </row>
     <row r="16" spans="1:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="168"/>
+      <c r="A16" s="183"/>
       <c r="B16" s="96"/>
       <c r="C16" s="126"/>
       <c r="D16" s="126"/>
@@ -4919,51 +5001,39 @@
       <c r="H16" s="126"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="168"/>
+      <c r="A17" s="183"/>
       <c r="B17" s="119" t="s">
         <v>238</v>
       </c>
-      <c r="C17" s="160" t="s">
+      <c r="C17" s="175" t="s">
         <v>248</v>
       </c>
-      <c r="D17" s="161"/>
-      <c r="E17" s="176" t="s">
+      <c r="D17" s="176"/>
+      <c r="E17" s="191" t="s">
         <v>249</v>
       </c>
-      <c r="F17" s="177"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="178"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="193"/>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="169"/>
+      <c r="A18" s="184"/>
       <c r="B18" s="123" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="162" t="s">
+      <c r="C18" s="177" t="s">
         <v>250</v>
       </c>
-      <c r="D18" s="163"/>
-      <c r="E18" s="174" t="s">
+      <c r="D18" s="178"/>
+      <c r="E18" s="189" t="s">
         <v>254</v>
       </c>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="175"/>
+      <c r="F18" s="189"/>
+      <c r="G18" s="189"/>
+      <c r="H18" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G12:H12"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="A2:A8"/>
@@ -4980,6 +5050,18 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Progression/Progression_Informatique_2014_2015.xlsx
+++ b/Progression/Progression_Informatique_2014_2015.xlsx
@@ -2687,219 +2687,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2907,6 +2694,78 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2915,6 +2774,147 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3262,7 +3262,7 @@
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="153" t="s">
         <v>157</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -3281,7 +3281,7 @@
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="130"/>
+      <c r="B3" s="154"/>
       <c r="C3" s="25" t="s">
         <v>47</v>
       </c>
@@ -3296,7 +3296,7 @@
       <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="130"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="31" t="s">
         <v>182</v>
       </c>
@@ -3313,7 +3313,7 @@
       <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="130"/>
+      <c r="B5" s="154"/>
       <c r="C5" s="25" t="s">
         <v>50</v>
       </c>
@@ -3330,7 +3330,7 @@
       <c r="A6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="130"/>
+      <c r="B6" s="154"/>
       <c r="C6" s="25" t="s">
         <v>51</v>
       </c>
@@ -3352,7 +3352,7 @@
       <c r="A7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="130"/>
+      <c r="B7" s="154"/>
       <c r="C7" s="25" t="s">
         <v>52</v>
       </c>
@@ -3374,7 +3374,7 @@
       <c r="A8" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="131"/>
+      <c r="B8" s="155"/>
       <c r="C8" s="44" t="s">
         <v>52</v>
       </c>
@@ -4050,6 +4050,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B10:G11"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B21:G22"/>
+    <mergeCell ref="B32:G33"/>
     <mergeCell ref="B43:G44"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B30"/>
@@ -4057,11 +4062,6 @@
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="B36:B41"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B10:G11"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B21:G22"/>
-    <mergeCell ref="B32:G33"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4119,7 +4119,7 @@
   <dimension ref="A2:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+      <selection activeCell="A66" sqref="A66:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4131,12 +4131,12 @@
   <sheetData>
     <row r="2" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164"/>
     </row>
     <row r="4" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -4227,12 +4227,12 @@
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="156" t="s">
+      <c r="A14" s="162" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="157"/>
-      <c r="C14" s="157"/>
-      <c r="D14" s="158"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="164"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -4497,12 +4497,12 @@
       <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="153" t="s">
+      <c r="A43" s="159" t="s">
         <v>120</v>
       </c>
-      <c r="B43" s="154"/>
-      <c r="C43" s="154"/>
-      <c r="D43" s="155"/>
+      <c r="B43" s="160"/>
+      <c r="C43" s="160"/>
+      <c r="D43" s="161"/>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
@@ -4595,27 +4595,27 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="200"/>
-      <c r="C53" s="200"/>
-      <c r="D53" s="200"/>
+      <c r="B53" s="129"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="129"/>
     </row>
     <row r="54" spans="1:4" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="203" t="s">
+      <c r="A54" s="156" t="s">
         <v>139</v>
       </c>
-      <c r="B54" s="204"/>
-      <c r="C54" s="204"/>
-      <c r="D54" s="205"/>
+      <c r="B54" s="157"/>
+      <c r="C54" s="157"/>
+      <c r="D54" s="158"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="201" t="s">
+      <c r="A55" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="B55" s="202" t="s">
+      <c r="B55" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="C55" s="202"/>
-      <c r="D55" s="202"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="131"/>
     </row>
     <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
@@ -4688,27 +4688,27 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="200"/>
-      <c r="C63" s="200"/>
-      <c r="D63" s="200"/>
+      <c r="B63" s="129"/>
+      <c r="C63" s="129"/>
+      <c r="D63" s="129"/>
     </row>
     <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="203" t="s">
+      <c r="A64" s="156" t="s">
         <v>276</v>
       </c>
-      <c r="B64" s="204"/>
-      <c r="C64" s="204"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="157"/>
+      <c r="C64" s="157"/>
+      <c r="D64" s="158"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="201" t="s">
+      <c r="A65" s="130" t="s">
         <v>277</v>
       </c>
-      <c r="B65" s="202" t="s">
+      <c r="B65" s="131" t="s">
         <v>278</v>
       </c>
-      <c r="C65" s="202"/>
-      <c r="D65" s="202"/>
+      <c r="C65" s="131"/>
+      <c r="D65" s="131"/>
     </row>
     <row r="66" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
@@ -4762,39 +4762,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="202" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="161" t="s">
+      <c r="B1" s="203"/>
+      <c r="C1" s="199" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="162"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="200"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="169" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="177" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
       <c r="E2" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="F2" s="185" t="s">
+      <c r="F2" s="175" t="s">
         <v>221</v>
       </c>
-      <c r="G2" s="185"/>
-      <c r="H2" s="186"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="176"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="180"/>
+      <c r="A3" s="170"/>
       <c r="B3" s="114"/>
       <c r="C3" s="114"/>
       <c r="D3" s="114"/>
@@ -4804,7 +4804,7 @@
       <c r="H3" s="115"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="180"/>
+      <c r="A4" s="170"/>
       <c r="B4" s="116" t="s">
         <v>251</v>
       </c>
@@ -4816,7 +4816,7 @@
       <c r="H4" s="115"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="180"/>
+      <c r="A5" s="170"/>
       <c r="B5" s="114"/>
       <c r="C5" s="107" t="s">
         <v>227</v>
@@ -4836,7 +4836,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="180"/>
+      <c r="A6" s="170"/>
       <c r="B6" s="114"/>
       <c r="C6" s="110" t="s">
         <v>230</v>
@@ -4856,7 +4856,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="180"/>
+      <c r="A7" s="170"/>
       <c r="B7" s="114"/>
       <c r="C7" s="111" t="s">
         <v>231</v>
@@ -4872,7 +4872,7 @@
       <c r="H7" s="115"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="181"/>
+      <c r="A8" s="171"/>
       <c r="B8" s="117"/>
       <c r="C8" s="112" t="s">
         <v>228</v>
@@ -4887,111 +4887,111 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="172" t="s">
         <v>253</v>
       </c>
       <c r="B10" s="98"/>
-      <c r="C10" s="195" t="s">
+      <c r="C10" s="186" t="s">
         <v>243</v>
       </c>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196" t="s">
+      <c r="D10" s="187"/>
+      <c r="E10" s="187" t="s">
         <v>235</v>
       </c>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196" t="s">
+      <c r="F10" s="187"/>
+      <c r="G10" s="187" t="s">
         <v>236</v>
       </c>
-      <c r="H10" s="197"/>
+      <c r="H10" s="188"/>
     </row>
     <row r="11" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="183"/>
+      <c r="A11" s="173"/>
       <c r="B11" s="120" t="s">
         <v>255</v>
       </c>
-      <c r="C11" s="167" t="s">
+      <c r="C11" s="204" t="s">
         <v>260</v>
       </c>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163" t="s">
+      <c r="D11" s="189"/>
+      <c r="E11" s="189" t="s">
         <v>237</v>
       </c>
-      <c r="F11" s="198"/>
-      <c r="G11" s="163" t="s">
+      <c r="F11" s="190"/>
+      <c r="G11" s="189" t="s">
         <v>240</v>
       </c>
-      <c r="H11" s="164"/>
+      <c r="H11" s="201"/>
     </row>
     <row r="12" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="183"/>
+      <c r="A12" s="173"/>
       <c r="B12" s="121" t="s">
         <v>256</v>
       </c>
-      <c r="C12" s="168" t="s">
+      <c r="C12" s="205" t="s">
         <v>261</v>
       </c>
-      <c r="D12" s="169"/>
-      <c r="E12" s="169" t="s">
+      <c r="D12" s="191"/>
+      <c r="E12" s="191" t="s">
         <v>241</v>
       </c>
-      <c r="F12" s="199"/>
-      <c r="G12" s="169" t="s">
+      <c r="F12" s="192"/>
+      <c r="G12" s="191" t="s">
         <v>242</v>
       </c>
-      <c r="H12" s="174"/>
+      <c r="H12" s="197"/>
     </row>
     <row r="13" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="183"/>
+      <c r="A13" s="173"/>
       <c r="B13" s="122" t="s">
         <v>258</v>
       </c>
-      <c r="C13" s="159" t="s">
+      <c r="C13" s="198" t="s">
         <v>262</v>
       </c>
-      <c r="D13" s="160"/>
-      <c r="E13" s="160" t="s">
+      <c r="D13" s="193"/>
+      <c r="E13" s="193" t="s">
         <v>244</v>
       </c>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160" t="s">
+      <c r="F13" s="193"/>
+      <c r="G13" s="193" t="s">
         <v>245</v>
       </c>
-      <c r="H13" s="173"/>
+      <c r="H13" s="196"/>
     </row>
     <row r="14" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="183"/>
+      <c r="A14" s="173"/>
       <c r="B14" s="122" t="s">
         <v>257</v>
       </c>
-      <c r="C14" s="159" t="s">
+      <c r="C14" s="198" t="s">
         <v>263</v>
       </c>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160" t="s">
+      <c r="D14" s="193"/>
+      <c r="E14" s="193" t="s">
         <v>246</v>
       </c>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160" t="s">
+      <c r="F14" s="193"/>
+      <c r="G14" s="193" t="s">
         <v>247</v>
       </c>
-      <c r="H14" s="172"/>
+      <c r="H14" s="195"/>
     </row>
     <row r="15" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="183"/>
+      <c r="A15" s="173"/>
       <c r="B15" s="124" t="s">
         <v>259</v>
       </c>
-      <c r="C15" s="194" t="s">
+      <c r="C15" s="184" t="s">
         <v>234</v>
       </c>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="171"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="194"/>
     </row>
     <row r="16" spans="1:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="183"/>
+      <c r="A16" s="173"/>
       <c r="B16" s="96"/>
       <c r="C16" s="126"/>
       <c r="D16" s="126"/>
@@ -5001,39 +5001,51 @@
       <c r="H16" s="126"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="183"/>
+      <c r="A17" s="173"/>
       <c r="B17" s="119" t="s">
         <v>238</v>
       </c>
-      <c r="C17" s="175" t="s">
+      <c r="C17" s="165" t="s">
         <v>248</v>
       </c>
-      <c r="D17" s="176"/>
-      <c r="E17" s="191" t="s">
+      <c r="D17" s="166"/>
+      <c r="E17" s="181" t="s">
         <v>249</v>
       </c>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="193"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="183"/>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="184"/>
+      <c r="A18" s="174"/>
       <c r="B18" s="123" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="177" t="s">
+      <c r="C18" s="167" t="s">
         <v>250</v>
       </c>
-      <c r="D18" s="178"/>
-      <c r="E18" s="189" t="s">
+      <c r="D18" s="168"/>
+      <c r="E18" s="179" t="s">
         <v>254</v>
       </c>
-      <c r="F18" s="189"/>
-      <c r="G18" s="189"/>
-      <c r="H18" s="190"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="A2:A8"/>
@@ -5050,18 +5062,6 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
